--- a/Mould_Database/Mould_DB.xlsx
+++ b/Mould_Database/Mould_DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user01\Documents\kurahashi nobuaki\LaTeX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD1963C-532A-45A3-A181-A6BA2A6C850E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6EA6551-F26E-4D02-8D2B-E42900B35F2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17475" windowHeight="15600" tabRatio="638" firstSheet="13" activeTab="15" xr2:uid="{331D296A-DE97-4357-9338-22F5C8F49D08}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19020" windowHeight="15600" tabRatio="638" firstSheet="13" activeTab="15" xr2:uid="{331D296A-DE97-4357-9338-22F5C8F49D08}"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="2" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="478">
   <si>
     <t>列1</t>
   </si>
@@ -12090,32 +12090,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>傾き後 トップ端 湾曲中心X</t>
-    <rPh sb="0" eb="1">
-      <t>カタム</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>タン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>傾き後 トップ端 湾曲中心Z</t>
-    <rPh sb="0" eb="1">
-      <t>カタム</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>タン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>内面溝１列目（奇数列）長さ</t>
     <rPh sb="0" eb="2">
       <t>ナイメン</t>
@@ -12156,6 +12130,90 @@
     </rPh>
     <rPh sb="11" eb="12">
       <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>cosΦ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>sinΦ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内面溝m-1列目-トップ端 湾曲中心間Z距離</t>
+    <rPh sb="0" eb="2">
+      <t>ナイメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>レツメ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>タン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ワンキョク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>チュウシン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>キョリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内面溝m列目-トップ端 湾曲中心間Z距離</t>
+    <rPh sb="0" eb="2">
+      <t>ナイメン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>レツメ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>タン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ワンキョク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>チュウシン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>キョリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -12613,7 +12671,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -12950,11 +13008,14 @@
     <xf numFmtId="181" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="185" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="77">
+  <dxfs count="78">
     <dxf>
       <fill>
         <patternFill>
@@ -12966,104 +13027,6 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -13330,6 +13293,111 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="179" formatCode="0_);\(0\)"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -13423,12 +13491,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{930C37C7-60F8-4ECF-BFC0-8D1FBF229D9E}" name="テーブル2" displayName="テーブル2" ref="A1:O34" totalsRowShown="0" headerRowDxfId="76">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{930C37C7-60F8-4ECF-BFC0-8D1FBF229D9E}" name="テーブル2" displayName="テーブル2" ref="A1:O34" totalsRowShown="0" headerRowDxfId="77">
   <autoFilter ref="A1:O34" xr:uid="{930C37C7-60F8-4ECF-BFC0-8D1FBF229D9E}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{8506785A-7890-47E7-A8BD-4A0F82BDB757}" name="#zumen" dataDxfId="75"/>
-    <tableColumn id="2" xr3:uid="{F1A7F9CC-0192-4A97-ADD1-658F8F5B6686}" name="#program" dataDxfId="74"/>
-    <tableColumn id="9" xr3:uid="{D7C1D5F3-2999-4087-B4CA-13BFDB223D3E}" name="#wankyoku" dataDxfId="73"/>
+    <tableColumn id="1" xr3:uid="{8506785A-7890-47E7-A8BD-4A0F82BDB757}" name="#zumen" dataDxfId="76"/>
+    <tableColumn id="2" xr3:uid="{F1A7F9CC-0192-4A97-ADD1-658F8F5B6686}" name="#program" dataDxfId="75"/>
+    <tableColumn id="9" xr3:uid="{D7C1D5F3-2999-4087-B4CA-13BFDB223D3E}" name="#wankyoku" dataDxfId="74"/>
     <tableColumn id="3" xr3:uid="{E7259851-675D-4DCE-8389-F98935C8D8AA}" name="#huriwake"/>
     <tableColumn id="7" xr3:uid="{D9F075D9-AC94-4188-BB69-E3CE71099F41}" name="#gaikei"/>
     <tableColumn id="6" xr3:uid="{12B03DE5-82A2-4552-A525-F308D4F75E6A}" name="#naikei"/>
@@ -13440,52 +13508,52 @@
     <tableColumn id="8" xr3:uid="{6DBDF68B-76FA-4191-B512-A73C0EE3C573}" name="#dimle"/>
     <tableColumn id="15" xr3:uid="{EF803FDE-DD7D-4372-9E3F-25D35D3C753A}" name="#nigashi"/>
     <tableColumn id="12" xr3:uid="{AC54FD41-113A-4285-BD4B-8CC65DD163D3}" name="#zaguri"/>
-    <tableColumn id="5" xr3:uid="{F59F9AFA-52D3-4BBB-AE00-820B40C29BDB}" name="#palette" dataDxfId="72"/>
+    <tableColumn id="5" xr3:uid="{F59F9AFA-52D3-4BBB-AE00-820B40C29BDB}" name="#palette" dataDxfId="73"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{94AE3BD2-EFE7-457E-B899-E9CDBC550254}" name="テーブル24" displayName="テーブル24" ref="A1:B8" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{94AE3BD2-EFE7-457E-B899-E9CDBC550254}" name="テーブル24" displayName="テーブル24" ref="A1:B8" totalsRowShown="0" headerRowDxfId="72" dataDxfId="71">
   <autoFilter ref="A1:B8" xr:uid="{94AE3BD2-EFE7-457E-B899-E9CDBC550254}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{DD1AAD38-FB24-4129-B8D0-D2194F7F54D1}" name="sp#" dataDxfId="69"/>
-    <tableColumn id="2" xr3:uid="{B120DFEE-67CD-48C9-B60E-A1386DC60788}" name="列1" dataDxfId="68"/>
+    <tableColumn id="1" xr3:uid="{DD1AAD38-FB24-4129-B8D0-D2194F7F54D1}" name="sp#" dataDxfId="70"/>
+    <tableColumn id="2" xr3:uid="{B120DFEE-67CD-48C9-B60E-A1386DC60788}" name="列1" dataDxfId="69"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{77557FFB-0B5A-443D-AB71-C42CDBDC9141}" name="テーブル4" displayName="テーブル4" ref="A1:H4" totalsRowShown="0" headerRowDxfId="67" dataDxfId="66">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{77557FFB-0B5A-443D-AB71-C42CDBDC9141}" name="テーブル4" displayName="テーブル4" ref="A1:H4" totalsRowShown="0" headerRowDxfId="68" dataDxfId="67">
   <autoFilter ref="A1:H4" xr:uid="{77557FFB-0B5A-443D-AB71-C42CDBDC9141}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{DADD43D4-3823-4AAF-A2AE-265B1D4A415A}" name="#palette" dataDxfId="65"/>
-    <tableColumn id="2" xr3:uid="{73F2BD72-9B36-4BC4-9408-D4D83DAED46B}" name="#length" dataDxfId="64"/>
-    <tableColumn id="3" xr3:uid="{256650DF-5A48-4411-8444-32116323383E}" name="#haridashi" dataDxfId="63">
+    <tableColumn id="1" xr3:uid="{DADD43D4-3823-4AAF-A2AE-265B1D4A415A}" name="#palette" dataDxfId="66"/>
+    <tableColumn id="2" xr3:uid="{73F2BD72-9B36-4BC4-9408-D4D83DAED46B}" name="#length" dataDxfId="65"/>
+    <tableColumn id="3" xr3:uid="{256650DF-5A48-4411-8444-32116323383E}" name="#haridashi" dataDxfId="64">
       <calculatedColumnFormula>テーブル4[[#This Row],['#length]]/2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{0D20E067-D4A8-4678-8CF6-EE36EC74070C}" name="#fixedPoint" dataDxfId="62"/>
-    <tableColumn id="5" xr3:uid="{254E8622-947D-4A7A-8CC9-9678DAFCBD5D}" name="#fixingHight" dataDxfId="61"/>
-    <tableColumn id="6" xr3:uid="{B1AE96B8-72E2-45AB-A65A-28CC5A39F5B0}" name="#fixingWidth" dataDxfId="60"/>
-    <tableColumn id="10" xr3:uid="{DDCA0989-DFE4-451A-AFAD-5F50F6B3E5CE}" name="#fixedPointBX" dataDxfId="59"/>
-    <tableColumn id="9" xr3:uid="{6AB232C2-8AA1-4BE6-9ED3-FCE0F10D7750}" name="#fixedPointTX" dataDxfId="58"/>
+    <tableColumn id="4" xr3:uid="{0D20E067-D4A8-4678-8CF6-EE36EC74070C}" name="#fixedPoint" dataDxfId="63"/>
+    <tableColumn id="5" xr3:uid="{254E8622-947D-4A7A-8CC9-9678DAFCBD5D}" name="#fixingHight" dataDxfId="62"/>
+    <tableColumn id="6" xr3:uid="{B1AE96B8-72E2-45AB-A65A-28CC5A39F5B0}" name="#fixingWidth" dataDxfId="61"/>
+    <tableColumn id="10" xr3:uid="{DDCA0989-DFE4-451A-AFAD-5F50F6B3E5CE}" name="#fixedPointBX" dataDxfId="60"/>
+    <tableColumn id="9" xr3:uid="{6AB232C2-8AA1-4BE6-9ED3-FCE0F10D7750}" name="#fixedPointTX" dataDxfId="59"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{84F2650A-011E-4D4A-AC8E-9B77A25CD334}" name="テーブル1" displayName="テーブル1" ref="A1:C25" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{84F2650A-011E-4D4A-AC8E-9B77A25CD334}" name="テーブル1" displayName="テーブル1" ref="A1:C25" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57">
   <autoFilter ref="A1:C25" xr:uid="{84F2650A-011E-4D4A-AC8E-9B77A25CD334}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C25">
     <sortCondition ref="A1:A25"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{508307B6-91DE-4D5D-A41E-EA3E5488C8CC}" name="#program" dataDxfId="55"/>
-    <tableColumn id="2" xr3:uid="{2294E81D-5C1D-4C34-A722-57344553455E}" name="#cycleTime" dataDxfId="54"/>
-    <tableColumn id="6" xr3:uid="{F6AA9104-E34E-4196-8563-02BE967ECEE4}" name="#cycleTimeS" dataDxfId="53">
+    <tableColumn id="1" xr3:uid="{508307B6-91DE-4D5D-A41E-EA3E5488C8CC}" name="#program" dataDxfId="56"/>
+    <tableColumn id="2" xr3:uid="{2294E81D-5C1D-4C34-A722-57344553455E}" name="#cycleTime" dataDxfId="55"/>
+    <tableColumn id="6" xr3:uid="{F6AA9104-E34E-4196-8563-02BE967ECEE4}" name="#cycleTimeS" dataDxfId="54">
       <calculatedColumnFormula>LEFT(テーブル1[[#This Row],['#cycleTime]],2)*60+RIGHT(テーブル1[[#This Row],['#cycleTime]], 2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15746,71 +15814,71 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="C3">
-    <cfRule type="expression" dxfId="16" priority="6">
+    <cfRule type="expression" dxfId="53" priority="6">
       <formula>G9^2&lt;4*G10^2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="15" priority="5">
+    <cfRule type="expression" dxfId="52" priority="5">
       <formula>$C$4&lt;=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="14" priority="1">
+    <cfRule type="expression" dxfId="51" priority="1">
       <formula>C5&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="13" priority="10">
+    <cfRule type="expression" dxfId="50" priority="10">
       <formula>OR(C5&gt;C6, C6&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="12" priority="9">
+    <cfRule type="expression" dxfId="49" priority="9">
       <formula>AND(C7&lt;&gt;330, C7&lt;&gt;270, C7&lt;&gt;250)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="11" priority="8">
+    <cfRule type="expression" dxfId="48" priority="8">
       <formula>C8&lt;&gt;40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="10" priority="7">
+    <cfRule type="expression" dxfId="47" priority="7">
       <formula>C9&lt;&gt;100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K4">
-    <cfRule type="expression" dxfId="9" priority="15">
+    <cfRule type="expression" dxfId="46" priority="15">
       <formula>OR(($K$8&gt;($C$5+$C$6-2*$C$7)),$K$3&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3:M32">
-    <cfRule type="expression" dxfId="8" priority="2">
+    <cfRule type="expression" dxfId="45" priority="2">
       <formula>Q3&gt;=1000000</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="13">
+    <cfRule type="expression" dxfId="44" priority="13">
       <formula>Q3=MIN($Q$3:$Q32)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:O32">
-    <cfRule type="expression" dxfId="6" priority="3">
+    <cfRule type="expression" dxfId="43" priority="3">
       <formula>Q3&gt;=1000000</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="12">
+    <cfRule type="expression" dxfId="42" priority="12">
       <formula>Q3=MIN($Q$3:$Q32)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:P32">
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="41" priority="4">
       <formula>Q3&gt;=1000000</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="11">
+    <cfRule type="expression" dxfId="40" priority="11">
       <formula>Q3=MIN($Q$3:$Q32)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R3:R32">
-    <cfRule type="expression" dxfId="2" priority="14">
+    <cfRule type="expression" dxfId="39" priority="14">
       <formula>Q3=MIN($Q$3:$Q32)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15824,10 +15892,10 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A42FC29-DC21-4B73-8FB9-EE84D8C0B11F}">
   <sheetPr codeName="Sheet16"/>
-  <dimension ref="A1:R168"/>
+  <dimension ref="A1:R170"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>
@@ -15839,7 +15907,8 @@
     <col min="5" max="5" width="4.125" style="55" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30.375" style="53" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="2.375" style="55" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="8.375" style="55" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.375" style="55" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="1.625" style="53" customWidth="1"/>
     <col min="11" max="11" width="4.125" style="55" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.625" style="97" customWidth="1"/>
@@ -15899,7 +15968,7 @@
         <v>138</v>
       </c>
       <c r="Q2" s="62">
-        <f>C4+N152</f>
+        <f>C4+N154</f>
         <v>500.00000001278181</v>
       </c>
       <c r="R2" s="62">
@@ -16082,7 +16151,7 @@
         <v>108</v>
       </c>
       <c r="Q6" s="70">
-        <f>N147-N148</f>
+        <f>N149-N150</f>
         <v>7.1067335242896661</v>
       </c>
     </row>
@@ -16165,7 +16234,7 @@
         <v>142</v>
       </c>
       <c r="Q8" s="62">
-        <f>-C61+(N16+N17)/2+C6/2-N151</f>
+        <f>-C61+(N16+N17)/2+C6/2-N153</f>
         <v>-8.3385574269177596</v>
       </c>
       <c r="R8" s="62">
@@ -16201,7 +16270,7 @@
         <v>96</v>
       </c>
       <c r="Q9" s="62">
-        <f>-C61+N15+C6/2-N151</f>
+        <f>-C61+N15+C6/2-N153</f>
         <v>-8.337590837638345</v>
       </c>
       <c r="R9" s="62">
@@ -16239,7 +16308,7 @@
         <v>143</v>
       </c>
       <c r="Q10" s="62">
-        <f>C61-(N19+N20)/2-C6/2+N151</f>
+        <f>C61-(N19+N20)/2-C6/2+N153</f>
         <v>19.565491184843268</v>
       </c>
       <c r="R10" s="62">
@@ -16278,7 +16347,7 @@
         <v>99</v>
       </c>
       <c r="Q11" s="62">
-        <f>C61-N18-C6/2+N151</f>
+        <f>C61-N18-C6/2+N153</f>
         <v>19.56330812012493</v>
       </c>
       <c r="R11" s="62">
@@ -16323,7 +16392,7 @@
         <v>151</v>
       </c>
       <c r="Q12" s="62" t="e">
-        <f>C61-(N19+N20)/2-C6/2+N151-#REF!/2-C34+C35/2</f>
+        <f>C61-(N19+N20)/2-C6/2+N153-#REF!/2-C34+C35/2</f>
         <v>#REF!</v>
       </c>
       <c r="R12" s="62" t="e">
@@ -16417,7 +16486,7 @@
         <v>147</v>
       </c>
       <c r="Q14" s="62" t="e">
-        <f>-C61+(N16+N17)/2+C6/2-N151+#REF!/2+C38-C39/2</f>
+        <f>-C61+(N16+N17)/2+C6/2-N153+#REF!/2+C38-C39/2</f>
         <v>#REF!</v>
       </c>
       <c r="R14" s="62" t="e">
@@ -16532,7 +16601,7 @@
         <v>131</v>
       </c>
       <c r="Q17" s="62">
-        <f>N25-C61+C6/2-N151</f>
+        <f>N25-C61+C6/2-N153</f>
         <v>-7.6307545676227164</v>
       </c>
       <c r="R17" s="62">
@@ -16616,7 +16685,7 @@
         <v>125</v>
       </c>
       <c r="Q19" s="62">
-        <f>N26-C17-C13/2+N153-N13</f>
+        <f>N26-C17-C13/2+N155-N13</f>
         <v>-7.6318892500185029</v>
       </c>
       <c r="R19" s="62">
@@ -16773,7 +16842,7 @@
         <v>384</v>
       </c>
       <c r="B23" s="66" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C23" s="67">
         <v>102</v>
@@ -16816,7 +16885,7 @@
         <v>385</v>
       </c>
       <c r="B24" s="66" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C24" s="67">
         <v>85</v>
@@ -18093,7 +18162,7 @@
       <c r="G62" s="65" t="s">
         <v>203</v>
       </c>
-      <c r="H62" s="65">
+      <c r="H62" s="112">
         <f>IF($C$25&gt;=3,$H$3-$C$20,"-")</f>
         <v>410.01603829462465</v>
       </c>
@@ -18134,7 +18203,7 @@
       <c r="G63" s="65" t="s">
         <v>203</v>
       </c>
-      <c r="H63" s="65">
+      <c r="H63" s="112">
         <f>IF($C$25&gt;=4,$H$3-$C$20-$C$21,"-")</f>
         <v>390.01603829462465</v>
       </c>
@@ -18172,7 +18241,7 @@
       <c r="G64" s="65" t="s">
         <v>203</v>
       </c>
-      <c r="H64" s="65">
+      <c r="H64" s="112">
         <f>IF($C$25&gt;=5,$H$3-$C$20-2*$C$21,"-")</f>
         <v>370.01603829462465</v>
       </c>
@@ -18181,7 +18250,7 @@
         <v>-779.95796170537528</v>
       </c>
       <c r="K64" s="55">
-        <f t="shared" ref="K64:K152" si="2">ROW(K64)</f>
+        <f t="shared" ref="K64:K154" si="2">ROW(K64)</f>
         <v>64</v>
       </c>
       <c r="L64" s="97" t="s">
@@ -18210,7 +18279,7 @@
       <c r="G65" s="65" t="s">
         <v>203</v>
       </c>
-      <c r="H65" s="65">
+      <c r="H65" s="112">
         <f>IF($C$25&gt;=6,$H$3-$C$20-3*$C$21,"-")</f>
         <v>350.01603829462465</v>
       </c>
@@ -18248,7 +18317,7 @@
       <c r="G66" s="65" t="s">
         <v>203</v>
       </c>
-      <c r="H66" s="65" t="str">
+      <c r="H66" s="112" t="str">
         <f>IF($C$25&gt;=7,$H$3-$C$20-4*$C$21,"-")</f>
         <v>-</v>
       </c>
@@ -18280,7 +18349,7 @@
       <c r="G67" s="65" t="s">
         <v>203</v>
       </c>
-      <c r="H67" s="65" t="str">
+      <c r="H67" s="112" t="str">
         <f>IF($C$25&gt;=8,$H$3-$C$20-5*$C$21,"-")</f>
         <v>-</v>
       </c>
@@ -18312,7 +18381,7 @@
       <c r="G68" s="65" t="s">
         <v>203</v>
       </c>
-      <c r="H68" s="65">
+      <c r="H68" s="112">
         <f>$H$3-$C$20-($C$25-2)*$C$21</f>
         <v>330.01603829462465</v>
       </c>
@@ -18345,7 +18414,7 @@
       <c r="G69" s="65" t="s">
         <v>203</v>
       </c>
-      <c r="H69" s="65">
+      <c r="H69" s="112">
         <f>$H$3-$C$20-($C$25-1)*$C$21</f>
         <v>310.01603829462465</v>
       </c>
@@ -18467,8 +18536,8 @@
         <v>204</v>
       </c>
       <c r="H73" s="82">
-        <f ca="1">DEGREES($N$99)</f>
-        <v>2.1297929364604395</v>
+        <f ca="1">ROUND(DEGREES($N$99),3)</f>
+        <v>2.13</v>
       </c>
       <c r="I73" s="57"/>
       <c r="K73" s="55">
@@ -18499,11 +18568,11 @@
       </c>
       <c r="H74" s="82">
         <f ca="1">$H$7+$H$73</f>
-        <v>2.7717929364604394</v>
+        <v>2.7719999999999998</v>
       </c>
       <c r="I74" s="82">
         <f ca="1">$C$65+$H$74</f>
-        <v>2.8447929364604394</v>
+        <v>2.8449999999999998</v>
       </c>
       <c r="K74" s="55">
         <f t="shared" si="2"/>
@@ -18532,7 +18601,7 @@
         <v>204</v>
       </c>
       <c r="H75" s="108">
-        <f ca="1">DEGREES($N$105)</f>
+        <f ca="1">DEGREES($N$107)</f>
         <v>1.8081075579837422</v>
       </c>
       <c r="K75" s="55">
@@ -18592,7 +18661,7 @@
         <v>206</v>
       </c>
       <c r="H77" s="82">
-        <f ca="1">MIN($N$108, $N$109)</f>
+        <f ca="1">MIN($N$110, $N$111)</f>
         <v>21.495936780292737</v>
       </c>
       <c r="K77" s="55">
@@ -18618,7 +18687,7 @@
         <v>205</v>
       </c>
       <c r="H78" s="82">
-        <f ca="1">($N$61*$N$125+$N$69*$N$117)/($N$53-$N$45)+$C$30*2</f>
+        <f ca="1">($N$61*$N$127+$N$69*$N$119)/($N$53-$N$45)+$C$30*2</f>
         <v>154.14839999999998</v>
       </c>
       <c r="K78" s="55">
@@ -18658,15 +18727,16 @@
       </c>
     </row>
     <row r="80" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="F80" s="61" t="s">
-        <v>472</v>
+      <c r="F80" s="62" t="str">
+        <f>IF($C$25&gt;=3,"内面溝1列目-トップ端 湾曲中心間X距離", "-")</f>
+        <v>内面溝1列目-トップ端 湾曲中心間X距離</v>
       </c>
       <c r="G80" s="65" t="s">
         <v>206</v>
       </c>
       <c r="H80" s="82">
-        <f>$H$14</f>
-        <v>-11.90443964239239</v>
+        <f ca="1">IF($C$25&gt;=$C$66-5,$H$54*$N$101-$C$20*$N$100, "-")</f>
+        <v>0.23613623834420849</v>
       </c>
       <c r="K80" s="55">
         <f t="shared" si="2"/>
@@ -18685,15 +18755,16 @@
       </c>
     </row>
     <row r="81" spans="6:14" x14ac:dyDescent="0.4">
-      <c r="F81" s="61" t="s">
-        <v>473</v>
+      <c r="F81" s="62" t="str">
+        <f>IF($C$25&gt;=4,"内面溝2列目-トップ端 湾曲中心間X距離", "-")</f>
+        <v>内面溝2列目-トップ端 湾曲中心間X距離</v>
       </c>
       <c r="G81" s="65" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H81" s="82">
-        <f>$H$3</f>
-        <v>500.01603829462465</v>
+        <f ca="1">IF($C$25&gt;=$C$66-4,$H$55*$N$101-($C$20+$C21)*$N$100, "-")</f>
+        <v>0.16515537313498907</v>
       </c>
       <c r="K81" s="55">
         <f t="shared" si="2"/>
@@ -18712,6 +18783,17 @@
       </c>
     </row>
     <row r="82" spans="6:14" x14ac:dyDescent="0.4">
+      <c r="F82" s="62" t="str">
+        <f>IF($C$25&gt;=5,"内面溝3列目-トップ端 湾曲中心間X距離", "-")</f>
+        <v>内面溝3列目-トップ端 湾曲中心間X距離</v>
+      </c>
+      <c r="G82" s="65" t="s">
+        <v>206</v>
+      </c>
+      <c r="H82" s="82">
+        <f ca="1">IF($C$25&gt;=$C$66-3,$H$56*$N$101-($C$20+2*$C$21)*$N$100, "-")</f>
+        <v>4.930486789530697E-2</v>
+      </c>
       <c r="K82" s="55">
         <f t="shared" si="2"/>
         <v>82</v>
@@ -18729,6 +18811,17 @@
       </c>
     </row>
     <row r="83" spans="6:14" x14ac:dyDescent="0.4">
+      <c r="F83" s="62" t="str">
+        <f>IF($C$25&gt;=6,"内面溝4列目-トップ端 湾曲中心間X距離", "-")</f>
+        <v>内面溝4列目-トップ端 湾曲中心間X距離</v>
+      </c>
+      <c r="G83" s="65" t="s">
+        <v>206</v>
+      </c>
+      <c r="H83" s="82">
+        <f ca="1">IF($C$25&gt;=$C$66-2,$H$57*$N$101-($C$20+3*$C$21)*$N$100, "-")</f>
+        <v>-0.11140580074584783</v>
+      </c>
       <c r="K83" s="55">
         <f t="shared" si="2"/>
         <v>83</v>
@@ -18746,6 +18839,17 @@
       </c>
     </row>
     <row r="84" spans="6:14" x14ac:dyDescent="0.4">
+      <c r="F84" s="62" t="str">
+        <f>IF($C$25&gt;=7,"内面溝5列目-トップ端 湾曲中心間X距離", "-")</f>
+        <v>-</v>
+      </c>
+      <c r="G84" s="65" t="s">
+        <v>206</v>
+      </c>
+      <c r="H84" s="82" t="str">
+        <f>IF($C$25&gt;=$C$66-1,$H$58*$N$101-($C$20+4*$C$21)*$N$100, "-")</f>
+        <v>-</v>
+      </c>
       <c r="K84" s="55">
         <f t="shared" si="2"/>
         <v>84</v>
@@ -18762,6 +18866,17 @@
       </c>
     </row>
     <row r="85" spans="6:14" x14ac:dyDescent="0.4">
+      <c r="F85" s="62" t="str">
+        <f>IF($C$25&gt;=8,"内面溝6列目-トップ端 湾曲中心間X距離", "-")</f>
+        <v>-</v>
+      </c>
+      <c r="G85" s="65" t="s">
+        <v>206</v>
+      </c>
+      <c r="H85" s="82" t="str">
+        <f>IF($C$25&gt;=$C$66,$H$59*$N$101-($C$20+5*$C$21)*$N$100, "-")</f>
+        <v>-</v>
+      </c>
       <c r="K85" s="55">
         <f t="shared" si="2"/>
         <v>85</v>
@@ -18778,6 +18893,16 @@
       </c>
     </row>
     <row r="86" spans="6:14" x14ac:dyDescent="0.4">
+      <c r="F86" s="62" t="s">
+        <v>350</v>
+      </c>
+      <c r="G86" s="65" t="s">
+        <v>206</v>
+      </c>
+      <c r="H86" s="82">
+        <f ca="1">$H$60*$N$101-($C$20+($C$25-2)*$C$21)*$N$100</f>
+        <v>-0.31696783604237844</v>
+      </c>
       <c r="K86" s="55">
         <f t="shared" si="2"/>
         <v>86</v>
@@ -18795,6 +18920,16 @@
       </c>
     </row>
     <row r="87" spans="6:14" x14ac:dyDescent="0.4">
+      <c r="F87" s="62" t="s">
+        <v>349</v>
+      </c>
+      <c r="G87" s="65" t="s">
+        <v>206</v>
+      </c>
+      <c r="H87" s="82">
+        <f ca="1">$H$61*$N$101-($C$20+($C$25-1)*$C$21)*$N$100</f>
+        <v>-0.56737312047669697</v>
+      </c>
       <c r="K87" s="55">
         <f t="shared" si="2"/>
         <v>87</v>
@@ -18812,6 +18947,17 @@
       </c>
     </row>
     <row r="88" spans="6:14" x14ac:dyDescent="0.4">
+      <c r="F88" s="62" t="str">
+        <f>IF($C$25&gt;=3,"内面溝1列目-トップ端 湾曲中心間Z距離", "-")</f>
+        <v>内面溝1列目-トップ端 湾曲中心間Z距離</v>
+      </c>
+      <c r="G88" s="65" t="s">
+        <v>203</v>
+      </c>
+      <c r="H88" s="82">
+        <f ca="1">IF($C$25&gt;=$C$66-5,$H$54*$N$100+$C$20*$N$101, "-")</f>
+        <v>90.071009208980442</v>
+      </c>
       <c r="K88" s="55">
         <f t="shared" si="2"/>
         <v>88</v>
@@ -18829,6 +18975,17 @@
       </c>
     </row>
     <row r="89" spans="6:14" x14ac:dyDescent="0.4">
+      <c r="F89" s="62" t="str">
+        <f>IF($C$25&gt;=4,"内面溝2列目-トップ端 湾曲中心間Z距離", "-")</f>
+        <v>内面溝2列目-トップ端 湾曲中心間Z距離</v>
+      </c>
+      <c r="G89" s="65" t="s">
+        <v>203</v>
+      </c>
+      <c r="H89" s="82">
+        <f ca="1">IF($C$25&gt;=$C$66-4,$H$55*$N$100+($C$20+$C$21)*$N$101, "-")</f>
+        <v>110.08219739305159</v>
+      </c>
       <c r="K89" s="55">
         <f t="shared" si="2"/>
         <v>89</v>
@@ -18846,6 +19003,17 @@
       </c>
     </row>
     <row r="90" spans="6:14" x14ac:dyDescent="0.4">
+      <c r="F90" s="62" t="str">
+        <f>IF($C$25&gt;=5,"内面溝3列目-トップ端 湾曲中心間Z距離", "-")</f>
+        <v>内面溝3列目-トップ端 湾曲中心間Z距離</v>
+      </c>
+      <c r="G90" s="65" t="s">
+        <v>203</v>
+      </c>
+      <c r="H90" s="82">
+        <f ca="1">IF($C$25&gt;=$C$66-3,$H$56*$N$100+($C$20+2*$C$21)*$N$101, "-")</f>
+        <v>130.09171675638208</v>
+      </c>
       <c r="K90" s="55">
         <f t="shared" si="2"/>
         <v>90</v>
@@ -18863,6 +19031,17 @@
       </c>
     </row>
     <row r="91" spans="6:14" x14ac:dyDescent="0.4">
+      <c r="F91" s="62" t="str">
+        <f>IF($C$25&gt;=6,"内面溝4列目-トップ端 湾曲中心間Z距離", "-")</f>
+        <v>内面溝4列目-トップ端 湾曲中心間Z距離</v>
+      </c>
+      <c r="G91" s="65" t="s">
+        <v>203</v>
+      </c>
+      <c r="H91" s="82">
+        <f ca="1">IF($C$25&gt;=$C$66-2,$H$57*$N$100+($C$20+3*$C$21)*$N$101, "-")</f>
+        <v>150.09956765143286</v>
+      </c>
       <c r="K91" s="55">
         <f t="shared" si="2"/>
         <v>91</v>
@@ -18880,6 +19059,17 @@
       </c>
     </row>
     <row r="92" spans="6:14" x14ac:dyDescent="0.4">
+      <c r="F92" s="62" t="str">
+        <f>IF($C$25&gt;=7,"内面溝5列目-トップ端 湾曲中心間Z距離", "-")</f>
+        <v>-</v>
+      </c>
+      <c r="G92" s="65" t="s">
+        <v>203</v>
+      </c>
+      <c r="H92" s="82" t="str">
+        <f>IF($C$25&gt;=$C$66-1,$H$58*$N$100+($C$20+4*$C$21)*$N$101, "-")</f>
+        <v>-</v>
+      </c>
       <c r="K92" s="55">
         <f t="shared" si="2"/>
         <v>92</v>
@@ -18896,6 +19086,17 @@
       </c>
     </row>
     <row r="93" spans="6:14" x14ac:dyDescent="0.4">
+      <c r="F93" s="62" t="str">
+        <f>IF($C$25&gt;=8,"内面溝6列目-トップ端 湾曲中心間Z距離", "-")</f>
+        <v>-</v>
+      </c>
+      <c r="G93" s="65" t="s">
+        <v>203</v>
+      </c>
+      <c r="H93" s="82" t="str">
+        <f>IF($C$25&gt;=$C$66-0,$H$59*$N$100+($C$20+5*$C$21)*$N$101, "-")</f>
+        <v>-</v>
+      </c>
       <c r="K93" s="55">
         <f t="shared" si="2"/>
         <v>93</v>
@@ -18912,6 +19113,16 @@
       </c>
     </row>
     <row r="94" spans="6:14" x14ac:dyDescent="0.4">
+      <c r="F94" s="62" t="s">
+        <v>476</v>
+      </c>
+      <c r="G94" s="65" t="s">
+        <v>203</v>
+      </c>
+      <c r="H94" s="82">
+        <f ca="1">$H$60*$N$100+($C$20+($C$25-2)*$C$21)*$N$101</f>
+        <v>170.10575040537816</v>
+      </c>
       <c r="K94" s="55">
         <f t="shared" si="2"/>
         <v>94</v>
@@ -18928,6 +19139,16 @@
       </c>
     </row>
     <row r="95" spans="6:14" x14ac:dyDescent="0.4">
+      <c r="F95" s="62" t="s">
+        <v>477</v>
+      </c>
+      <c r="G95" s="65" t="s">
+        <v>203</v>
+      </c>
+      <c r="H95" s="82">
+        <f ca="1">$H$61*$N$100+($C$20+($C$25-1)*$C$21)*$N$101</f>
+        <v>190.11026532013003</v>
+      </c>
       <c r="K95" s="55">
         <f t="shared" si="2"/>
         <v>95</v>
@@ -18983,6 +19204,9 @@
       <c r="L98" s="97" t="s">
         <v>263</v>
       </c>
+      <c r="M98" s="106" t="s">
+        <v>263</v>
+      </c>
       <c r="N98" s="54">
         <f ca="1">($N$96-$N$97)/$C$20</f>
         <v>3.7189029353147718E-2</v>
@@ -19006,66 +19230,66 @@
     </row>
     <row r="100" spans="11:14" x14ac:dyDescent="0.4">
       <c r="K100" s="55">
-        <f t="shared" si="2"/>
+        <f>ROW(K100)</f>
         <v>100</v>
       </c>
       <c r="L100" s="97" t="s">
+        <v>475</v>
+      </c>
+      <c r="M100" s="106" t="s">
+        <v>475</v>
+      </c>
+      <c r="N100" s="54">
+        <f ca="1">SIN(RADIANS($H$73))</f>
+        <v>3.7166950783010577E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="11:14" x14ac:dyDescent="0.4">
+      <c r="K101" s="55">
+        <f>ROW(K101)</f>
+        <v>101</v>
+      </c>
+      <c r="L101" s="97" t="s">
+        <v>474</v>
+      </c>
+      <c r="M101" s="106" t="s">
+        <v>474</v>
+      </c>
+      <c r="N101" s="54">
+        <f ca="1">COS(RADIANS($H$73))</f>
+        <v>0.9993090701927474</v>
+      </c>
+    </row>
+    <row r="102" spans="11:14" x14ac:dyDescent="0.4">
+      <c r="K102" s="55">
+        <f>ROW(K102)</f>
+        <v>102</v>
+      </c>
+      <c r="L102" s="97" t="s">
         <v>393</v>
       </c>
-      <c r="M100" s="106" t="s">
+      <c r="M102" s="106" t="s">
         <v>224</v>
       </c>
-      <c r="N100" s="54">
+      <c r="N102" s="54">
         <f ca="1">$C$3-$H$71/2</f>
         <v>8844.4037000000008</v>
       </c>
     </row>
-    <row r="101" spans="11:14" x14ac:dyDescent="0.4">
-      <c r="K101" s="55">
-        <f t="shared" si="2"/>
-        <v>101</v>
-      </c>
-      <c r="L101" s="97" t="s">
+    <row r="103" spans="11:14" x14ac:dyDescent="0.4">
+      <c r="K103" s="55">
+        <f>ROW(K103)</f>
+        <v>103</v>
+      </c>
+      <c r="L103" s="97" t="s">
         <v>394</v>
       </c>
-      <c r="M101" s="106" t="s">
+      <c r="M103" s="106" t="s">
         <v>225</v>
       </c>
-      <c r="N101" s="54">
+      <c r="N103" s="54">
         <f ca="1">$C$3-$H$72/2</f>
         <v>8844.6194000000014</v>
-      </c>
-    </row>
-    <row r="102" spans="11:14" x14ac:dyDescent="0.4">
-      <c r="K102" s="55">
-        <f t="shared" si="2"/>
-        <v>102</v>
-      </c>
-      <c r="L102" s="97" t="s">
-        <v>397</v>
-      </c>
-      <c r="M102" s="106" t="s">
-        <v>276</v>
-      </c>
-      <c r="N102" s="54">
-        <f ca="1">SQRT($N$101^2-$N$37^2)</f>
-        <v>8842.1260074066122</v>
-      </c>
-    </row>
-    <row r="103" spans="11:14" x14ac:dyDescent="0.4">
-      <c r="K103" s="55">
-        <f t="shared" si="2"/>
-        <v>103</v>
-      </c>
-      <c r="L103" s="97" t="s">
-        <v>398</v>
-      </c>
-      <c r="M103" s="106" t="s">
-        <v>276</v>
-      </c>
-      <c r="N103" s="54">
-        <f ca="1">SQRT($N$100^2-$N$30^2)</f>
-        <v>8838.9692164060452</v>
       </c>
     </row>
     <row r="104" spans="11:14" x14ac:dyDescent="0.4">
@@ -19074,11 +19298,14 @@
         <v>104</v>
       </c>
       <c r="L104" s="97" t="s">
-        <v>265</v>
+        <v>397</v>
+      </c>
+      <c r="M104" s="106" t="s">
+        <v>276</v>
       </c>
       <c r="N104" s="54">
-        <f ca="1">($N102-$N103)/($N$30-$N$37)</f>
-        <v>3.1567910005669546E-2</v>
+        <f ca="1">SQRT($N$103^2-$N$37^2)</f>
+        <v>8842.1260074066122</v>
       </c>
     </row>
     <row r="105" spans="11:14" x14ac:dyDescent="0.4">
@@ -19087,30 +19314,27 @@
         <v>105</v>
       </c>
       <c r="L105" s="97" t="s">
-        <v>266</v>
+        <v>398</v>
       </c>
       <c r="M105" s="106" t="s">
-        <v>232</v>
+        <v>276</v>
       </c>
       <c r="N105" s="54">
-        <f ca="1">ATAN($N$104)</f>
-        <v>3.1557430117010586E-2</v>
+        <f ca="1">SQRT($N$102^2-$N$30^2)</f>
+        <v>8838.9692164060452</v>
       </c>
     </row>
     <row r="106" spans="11:14" x14ac:dyDescent="0.4">
       <c r="K106" s="55">
-        <f>ROW(K106)</f>
+        <f t="shared" si="2"/>
         <v>106</v>
       </c>
       <c r="L106" s="97" t="s">
-        <v>268</v>
-      </c>
-      <c r="M106" s="106" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="N106" s="54">
-        <f>IF(MOD($C$25, 2)=0, $C$23, $C$24)</f>
-        <v>102</v>
+        <f ca="1">($N104-$N105)/($N$30-$N$37)</f>
+        <v>3.1567910005669546E-2</v>
       </c>
     </row>
     <row r="107" spans="11:14" x14ac:dyDescent="0.4">
@@ -19119,30 +19343,30 @@
         <v>107</v>
       </c>
       <c r="L107" s="97" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M107" s="106" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="N107" s="54">
-        <f>IF(MOD($C$25, 2)=0, $C$24, $C$23)</f>
-        <v>85</v>
+        <f ca="1">ATAN($N$106)</f>
+        <v>3.1557430117010586E-2</v>
       </c>
     </row>
     <row r="108" spans="11:14" x14ac:dyDescent="0.4">
       <c r="K108" s="55">
-        <f t="shared" si="2"/>
+        <f>ROW(K108)</f>
         <v>108</v>
       </c>
       <c r="L108" s="97" t="s">
-        <v>400</v>
+        <v>268</v>
       </c>
       <c r="M108" s="106" t="s">
-        <v>278</v>
+        <v>236</v>
       </c>
       <c r="N108" s="54">
-        <f ca="1">$H$70/2-$H$60-$N$106/2</f>
-        <v>21.495936780292737</v>
+        <f>IF(MOD($C$25, 2)=0, $C$23, $C$24)</f>
+        <v>102</v>
       </c>
     </row>
     <row r="109" spans="11:14" x14ac:dyDescent="0.4">
@@ -19151,14 +19375,14 @@
         <v>109</v>
       </c>
       <c r="L109" s="97" t="s">
-        <v>401</v>
+        <v>267</v>
       </c>
       <c r="M109" s="106" t="s">
-        <v>279</v>
+        <v>235</v>
       </c>
       <c r="N109" s="54">
-        <f ca="1">$H$70/2-$H$61-$N$107/2</f>
-        <v>29.502662230977563</v>
+        <f>IF(MOD($C$25, 2)=0, $C$24, $C$23)</f>
+        <v>85</v>
       </c>
     </row>
     <row r="110" spans="11:14" x14ac:dyDescent="0.4">
@@ -19167,15 +19391,14 @@
         <v>110</v>
       </c>
       <c r="L110" s="97" t="s">
-        <v>405</v>
-      </c>
-      <c r="M110" s="106" t="str">
-        <f>IF($C$25&gt;=3,"λj ≦ q &lt; λj+1 の wBj", "-")</f>
-        <v>λj ≦ q &lt; λj+1 の wBj</v>
-      </c>
-      <c r="N110" s="96">
-        <f ca="1">IF($C$25&gt;=3, INDEX(INDIRECT($H$52&amp;"!C:C"), MATCH($N$38, INDIRECT($H$52&amp;"!A:A"), 0)),"-")</f>
-        <v>154.501</v>
+        <v>400</v>
+      </c>
+      <c r="M110" s="106" t="s">
+        <v>278</v>
+      </c>
+      <c r="N110" s="54">
+        <f ca="1">$H$70/2-$H$60-$N$108/2</f>
+        <v>21.495936780292737</v>
       </c>
     </row>
     <row r="111" spans="11:14" x14ac:dyDescent="0.4">
@@ -19184,15 +19407,14 @@
         <v>111</v>
       </c>
       <c r="L111" s="97" t="s">
-        <v>406</v>
-      </c>
-      <c r="M111" s="106" t="str">
-        <f>IF($C$25&gt;=4,"λj ≦ q+pz &lt; λj+1 の wBj", "-")</f>
-        <v>λj ≦ q+pz &lt; λj+1 の wBj</v>
-      </c>
-      <c r="N111" s="96">
-        <f ca="1">IF($C$25&gt;=4, INDEX(INDIRECT($H$52&amp;"!C:C"), MATCH($N$39, INDIRECT($H$52&amp;"!A:A"), 0)),"-")</f>
-        <v>154.38900000000001</v>
+        <v>401</v>
+      </c>
+      <c r="M111" s="106" t="s">
+        <v>279</v>
+      </c>
+      <c r="N111" s="54">
+        <f ca="1">$H$70/2-$H$61-$N$109/2</f>
+        <v>29.502662230977563</v>
       </c>
     </row>
     <row r="112" spans="11:14" x14ac:dyDescent="0.4">
@@ -19201,15 +19423,15 @@
         <v>112</v>
       </c>
       <c r="L112" s="97" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="M112" s="106" t="str">
-        <f>IF($C$25&gt;=5,"λj ≦ q+2pz &lt; λj+1 の wBj", "-")</f>
-        <v>λj ≦ q+2pz &lt; λj+1 の wBj</v>
+        <f>IF($C$25&gt;=3,"λj ≦ q &lt; λj+1 の wBj", "-")</f>
+        <v>λj ≦ q &lt; λj+1 の wBj</v>
       </c>
       <c r="N112" s="96">
-        <f ca="1">IF($C$25&gt;=5, INDEX(INDIRECT($H$52&amp;"!C:C"), MATCH($N$40, INDIRECT($H$52&amp;"!A:A"), 0)),"-")</f>
-        <v>154.27600000000001</v>
+        <f ca="1">IF($C$25&gt;=3, INDEX(INDIRECT($H$52&amp;"!C:C"), MATCH($N$38, INDIRECT($H$52&amp;"!A:A"), 0)),"-")</f>
+        <v>154.501</v>
       </c>
     </row>
     <row r="113" spans="11:14" x14ac:dyDescent="0.4">
@@ -19218,15 +19440,15 @@
         <v>113</v>
       </c>
       <c r="L113" s="97" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="M113" s="106" t="str">
-        <f>IF($C$25&gt;=6,"λj ≦ q+3pz &lt; λj+1 の wBj", "-")</f>
-        <v>λj ≦ q+3pz &lt; λj+1 の wBj</v>
+        <f>IF($C$25&gt;=4,"λj ≦ q+pz &lt; λj+1 の wBj", "-")</f>
+        <v>λj ≦ q+pz &lt; λj+1 の wBj</v>
       </c>
       <c r="N113" s="96">
-        <f ca="1">IF($C$25&gt;=6, INDEX(INDIRECT($H$52&amp;"!C:C"), MATCH($N$41, INDIRECT($H$52&amp;"!A:A"), 0)),"-")</f>
-        <v>154.16399999999999</v>
+        <f ca="1">IF($C$25&gt;=4, INDEX(INDIRECT($H$52&amp;"!C:C"), MATCH($N$39, INDIRECT($H$52&amp;"!A:A"), 0)),"-")</f>
+        <v>154.38900000000001</v>
       </c>
     </row>
     <row r="114" spans="11:14" x14ac:dyDescent="0.4">
@@ -19235,15 +19457,15 @@
         <v>114</v>
       </c>
       <c r="L114" s="97" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="M114" s="106" t="str">
-        <f>IF($C$25&gt;=7,"λj ≦ q+4pz &lt; λj+1 の wBj", "-")</f>
-        <v>-</v>
-      </c>
-      <c r="N114" s="96" t="str">
-        <f ca="1">IF($C$25&gt;=7, INDEX(INDIRECT($H$52&amp;"!C:C"), MATCH($N$42, INDIRECT($H$52&amp;"!A:A"), 0)),"-")</f>
-        <v>-</v>
+        <f>IF($C$25&gt;=5,"λj ≦ q+2pz &lt; λj+1 の wBj", "-")</f>
+        <v>λj ≦ q+2pz &lt; λj+1 の wBj</v>
+      </c>
+      <c r="N114" s="96">
+        <f ca="1">IF($C$25&gt;=5, INDEX(INDIRECT($H$52&amp;"!C:C"), MATCH($N$40, INDIRECT($H$52&amp;"!A:A"), 0)),"-")</f>
+        <v>154.27600000000001</v>
       </c>
     </row>
     <row r="115" spans="11:14" x14ac:dyDescent="0.4">
@@ -19252,15 +19474,15 @@
         <v>115</v>
       </c>
       <c r="L115" s="97" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="M115" s="106" t="str">
-        <f>IF($C$25&gt;=8,"λj ≦ q+5pz &lt; λj+1 の wBj", "-")</f>
-        <v>-</v>
-      </c>
-      <c r="N115" s="96" t="str">
-        <f ca="1">IF($C$25&gt;=8, INDEX(INDIRECT($H$52&amp;"!C:C"), MATCH($N$43, INDIRECT($H$52&amp;"!A:A"), 0)),"-")</f>
-        <v>-</v>
+        <f>IF($C$25&gt;=6,"λj ≦ q+3pz &lt; λj+1 の wBj", "-")</f>
+        <v>λj ≦ q+3pz &lt; λj+1 の wBj</v>
+      </c>
+      <c r="N115" s="96">
+        <f ca="1">IF($C$25&gt;=6, INDEX(INDIRECT($H$52&amp;"!C:C"), MATCH($N$41, INDIRECT($H$52&amp;"!A:A"), 0)),"-")</f>
+        <v>154.16399999999999</v>
       </c>
     </row>
     <row r="116" spans="11:14" x14ac:dyDescent="0.4">
@@ -19269,14 +19491,15 @@
         <v>116</v>
       </c>
       <c r="L116" s="97" t="s">
-        <v>411</v>
-      </c>
-      <c r="M116" s="106" t="s">
-        <v>421</v>
-      </c>
-      <c r="N116" s="96">
-        <f ca="1">INDEX(INDIRECT($H$52&amp;"!C:C"), MATCH($N$44, INDIRECT($H$52&amp;"!A:A"), 0))</f>
-        <v>154.16399999999999</v>
+        <v>409</v>
+      </c>
+      <c r="M116" s="106" t="str">
+        <f>IF($C$25&gt;=7,"λj ≦ q+4pz &lt; λj+1 の wBj", "-")</f>
+        <v>-</v>
+      </c>
+      <c r="N116" s="96" t="str">
+        <f ca="1">IF($C$25&gt;=7, INDEX(INDIRECT($H$52&amp;"!C:C"), MATCH($N$42, INDIRECT($H$52&amp;"!A:A"), 0)),"-")</f>
+        <v>-</v>
       </c>
     </row>
     <row r="117" spans="11:14" x14ac:dyDescent="0.4">
@@ -19285,14 +19508,15 @@
         <v>117</v>
       </c>
       <c r="L117" s="97" t="s">
-        <v>412</v>
-      </c>
-      <c r="M117" s="106" t="s">
-        <v>422</v>
-      </c>
-      <c r="N117" s="96">
-        <f ca="1">INDEX(INDIRECT($H$52&amp;"!C:C"), MATCH($N$45, INDIRECT($H$52&amp;"!A:A"), 0))</f>
-        <v>154.06299999999999</v>
+        <v>410</v>
+      </c>
+      <c r="M117" s="106" t="str">
+        <f>IF($C$25&gt;=8,"λj ≦ q+5pz &lt; λj+1 の wBj", "-")</f>
+        <v>-</v>
+      </c>
+      <c r="N117" s="96" t="str">
+        <f ca="1">IF($C$25&gt;=8, INDEX(INDIRECT($H$52&amp;"!C:C"), MATCH($N$43, INDIRECT($H$52&amp;"!A:A"), 0)),"-")</f>
+        <v>-</v>
       </c>
     </row>
     <row r="118" spans="11:14" x14ac:dyDescent="0.4">
@@ -19301,15 +19525,14 @@
         <v>118</v>
       </c>
       <c r="L118" s="97" t="s">
-        <v>413</v>
-      </c>
-      <c r="M118" s="106" t="str">
-        <f>IF($C$25&gt;=3,"λj ≦ q &lt; λj+1 の wBj+1", "-")</f>
-        <v>λj ≦ q &lt; λj+1 の wBj+1</v>
+        <v>411</v>
+      </c>
+      <c r="M118" s="106" t="s">
+        <v>421</v>
       </c>
       <c r="N118" s="96">
-        <f ca="1">IF($C$25&gt;=3, INDEX(INDIRECT($H$52&amp;"!C:C"), MATCH($N$46, INDIRECT($H$52&amp;"!A:A"), 0)),"-")</f>
-        <v>154.38900000000001</v>
+        <f ca="1">INDEX(INDIRECT($H$52&amp;"!C:C"), MATCH($N$44, INDIRECT($H$52&amp;"!A:A"), 0))</f>
+        <v>154.16399999999999</v>
       </c>
     </row>
     <row r="119" spans="11:14" x14ac:dyDescent="0.4">
@@ -19318,15 +19541,14 @@
         <v>119</v>
       </c>
       <c r="L119" s="97" t="s">
-        <v>414</v>
-      </c>
-      <c r="M119" s="106" t="str">
-        <f>IF($C$25&gt;=4,"λj ≦ q+pz &lt; λj+1 の wBj+1", "-")</f>
-        <v>λj ≦ q+pz &lt; λj+1 の wBj+1</v>
+        <v>412</v>
+      </c>
+      <c r="M119" s="106" t="s">
+        <v>422</v>
       </c>
       <c r="N119" s="96">
-        <f ca="1">IF($C$25&gt;=4, INDEX(INDIRECT($H$52&amp;"!C:C"), MATCH($N$47, INDIRECT($H$52&amp;"!A:A"), 0)),"-")</f>
-        <v>154.27600000000001</v>
+        <f ca="1">INDEX(INDIRECT($H$52&amp;"!C:C"), MATCH($N$45, INDIRECT($H$52&amp;"!A:A"), 0))</f>
+        <v>154.06299999999999</v>
       </c>
     </row>
     <row r="120" spans="11:14" x14ac:dyDescent="0.4">
@@ -19335,15 +19557,15 @@
         <v>120</v>
       </c>
       <c r="L120" s="97" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="M120" s="106" t="str">
-        <f>IF($C$25&gt;=5,"λj ≦ q+2pz &lt; λj+1 の wBj+1", "-")</f>
-        <v>λj ≦ q+2pz &lt; λj+1 の wBj+1</v>
+        <f>IF($C$25&gt;=3,"λj ≦ q &lt; λj+1 の wBj+1", "-")</f>
+        <v>λj ≦ q &lt; λj+1 の wBj+1</v>
       </c>
       <c r="N120" s="96">
-        <f ca="1">IF($C$25&gt;=5, INDEX(INDIRECT($H$52&amp;"!C:C"), MATCH($N$48, INDIRECT($H$52&amp;"!A:A"), 0)),"-")</f>
-        <v>154.16399999999999</v>
+        <f ca="1">IF($C$25&gt;=3, INDEX(INDIRECT($H$52&amp;"!C:C"), MATCH($N$46, INDIRECT($H$52&amp;"!A:A"), 0)),"-")</f>
+        <v>154.38900000000001</v>
       </c>
     </row>
     <row r="121" spans="11:14" x14ac:dyDescent="0.4">
@@ -19352,15 +19574,15 @@
         <v>121</v>
       </c>
       <c r="L121" s="97" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="M121" s="106" t="str">
-        <f>IF($C$25&gt;=6,"λj ≦ q+3pz &lt; λj+1 の wBj+1", "-")</f>
-        <v>λj ≦ q+3pz &lt; λj+1 の wBj+1</v>
+        <f>IF($C$25&gt;=4,"λj ≦ q+pz &lt; λj+1 の wBj+1", "-")</f>
+        <v>λj ≦ q+pz &lt; λj+1 の wBj+1</v>
       </c>
       <c r="N121" s="96">
-        <f ca="1">IF($C$25&gt;=6, INDEX(INDIRECT($H$52&amp;"!C:C"), MATCH($N$49, INDIRECT($H$52&amp;"!A:A"), 0)),"-")</f>
-        <v>154.06299999999999</v>
+        <f ca="1">IF($C$25&gt;=4, INDEX(INDIRECT($H$52&amp;"!C:C"), MATCH($N$47, INDIRECT($H$52&amp;"!A:A"), 0)),"-")</f>
+        <v>154.27600000000001</v>
       </c>
     </row>
     <row r="122" spans="11:14" x14ac:dyDescent="0.4">
@@ -19369,15 +19591,15 @@
         <v>122</v>
       </c>
       <c r="L122" s="97" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="M122" s="106" t="str">
-        <f>IF($C$25&gt;=7,"λj ≦ q+4pz &lt; λj+1 の wBj+1", "-")</f>
-        <v>-</v>
-      </c>
-      <c r="N122" s="96" t="str">
-        <f ca="1">IF($C$25&gt;=7, INDEX(INDIRECT($H$52&amp;"!C:C"), MATCH($N$50, INDIRECT($H$52&amp;"!A:A"), 0)),"-")</f>
-        <v>-</v>
+        <f>IF($C$25&gt;=5,"λj ≦ q+2pz &lt; λj+1 の wBj+1", "-")</f>
+        <v>λj ≦ q+2pz &lt; λj+1 の wBj+1</v>
+      </c>
+      <c r="N122" s="96">
+        <f ca="1">IF($C$25&gt;=5, INDEX(INDIRECT($H$52&amp;"!C:C"), MATCH($N$48, INDIRECT($H$52&amp;"!A:A"), 0)),"-")</f>
+        <v>154.16399999999999</v>
       </c>
     </row>
     <row r="123" spans="11:14" x14ac:dyDescent="0.4">
@@ -19386,15 +19608,15 @@
         <v>123</v>
       </c>
       <c r="L123" s="97" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="M123" s="106" t="str">
-        <f>IF($C$25&gt;=8,"λj ≦ q+5pz &lt; λj+1 の wBj+1", "-")</f>
-        <v>-</v>
-      </c>
-      <c r="N123" s="96" t="str">
-        <f ca="1">IF($C$25&gt;=8, INDEX(INDIRECT($H$52&amp;"!C:C"), MATCH($N$51, INDIRECT($H$52&amp;"!A:A"), 0)),"-")</f>
-        <v>-</v>
+        <f>IF($C$25&gt;=6,"λj ≦ q+3pz &lt; λj+1 の wBj+1", "-")</f>
+        <v>λj ≦ q+3pz &lt; λj+1 の wBj+1</v>
+      </c>
+      <c r="N123" s="96">
+        <f ca="1">IF($C$25&gt;=6, INDEX(INDIRECT($H$52&amp;"!C:C"), MATCH($N$49, INDIRECT($H$52&amp;"!A:A"), 0)),"-")</f>
+        <v>154.06299999999999</v>
       </c>
     </row>
     <row r="124" spans="11:14" x14ac:dyDescent="0.4">
@@ -19403,14 +19625,15 @@
         <v>124</v>
       </c>
       <c r="L124" s="97" t="s">
-        <v>419</v>
-      </c>
-      <c r="M124" s="106" t="s">
-        <v>423</v>
-      </c>
-      <c r="N124" s="54">
-        <f ca="1">INDEX(INDIRECT($H$52&amp;"!C:C"), MATCH($N$52, INDIRECT($H$52&amp;"!A:A"), 0))</f>
-        <v>154.06299999999999</v>
+        <v>417</v>
+      </c>
+      <c r="M124" s="106" t="str">
+        <f>IF($C$25&gt;=7,"λj ≦ q+4pz &lt; λj+1 の wBj+1", "-")</f>
+        <v>-</v>
+      </c>
+      <c r="N124" s="96" t="str">
+        <f ca="1">IF($C$25&gt;=7, INDEX(INDIRECT($H$52&amp;"!C:C"), MATCH($N$50, INDIRECT($H$52&amp;"!A:A"), 0)),"-")</f>
+        <v>-</v>
       </c>
     </row>
     <row r="125" spans="11:14" x14ac:dyDescent="0.4">
@@ -19419,14 +19642,15 @@
         <v>125</v>
       </c>
       <c r="L125" s="97" t="s">
-        <v>420</v>
-      </c>
-      <c r="M125" s="106" t="s">
-        <v>424</v>
-      </c>
-      <c r="N125" s="54">
-        <f ca="1">INDEX(INDIRECT($H$52&amp;"!C:C"), MATCH($N$53, INDIRECT($H$52&amp;"!A:A"), 0))</f>
-        <v>153.97200000000001</v>
+        <v>418</v>
+      </c>
+      <c r="M125" s="106" t="str">
+        <f>IF($C$25&gt;=8,"λj ≦ q+5pz &lt; λj+1 の wBj+1", "-")</f>
+        <v>-</v>
+      </c>
+      <c r="N125" s="96" t="str">
+        <f ca="1">IF($C$25&gt;=8, INDEX(INDIRECT($H$52&amp;"!C:C"), MATCH($N$51, INDIRECT($H$52&amp;"!A:A"), 0)),"-")</f>
+        <v>-</v>
       </c>
     </row>
     <row r="126" spans="11:14" x14ac:dyDescent="0.4">
@@ -19435,15 +19659,14 @@
         <v>126</v>
       </c>
       <c r="L126" s="97" t="s">
-        <v>441</v>
-      </c>
-      <c r="M126" s="107" t="str">
-        <f>IF($C$25&gt;=4,"2列目AC内径（水平・めっき含・概算）","-")</f>
-        <v>2列目AC内径（水平・めっき含・概算）</v>
-      </c>
-      <c r="N126" s="96">
-        <f ca="1">IF($C$25&gt;=4,($N$55*$N$87+$N$63*$N$79)/($N$47-$N$39)+$C$30*2,"-")</f>
-        <v>156.50139999999999</v>
+        <v>419</v>
+      </c>
+      <c r="M126" s="106" t="s">
+        <v>423</v>
+      </c>
+      <c r="N126" s="54">
+        <f ca="1">INDEX(INDIRECT($H$52&amp;"!C:C"), MATCH($N$52, INDIRECT($H$52&amp;"!A:A"), 0))</f>
+        <v>154.06299999999999</v>
       </c>
     </row>
     <row r="127" spans="11:14" x14ac:dyDescent="0.4">
@@ -19452,15 +19675,14 @@
         <v>127</v>
       </c>
       <c r="L127" s="97" t="s">
-        <v>442</v>
-      </c>
-      <c r="M127" s="107" t="str">
-        <f>IF($C$25&gt;=5,"3列目AC内径（水平・めっき含・概算）","-")</f>
-        <v>3列目AC内径（水平・めっき含・概算）</v>
-      </c>
-      <c r="N127" s="96">
-        <f ca="1">IF($C$25&gt;=5,($N$56*$N$88+$N$64*$N$80)/($N$48-$N$40)+$C$30*2,"-")</f>
-        <v>156.4102</v>
+        <v>420</v>
+      </c>
+      <c r="M127" s="106" t="s">
+        <v>424</v>
+      </c>
+      <c r="N127" s="54">
+        <f ca="1">INDEX(INDIRECT($H$52&amp;"!C:C"), MATCH($N$53, INDIRECT($H$52&amp;"!A:A"), 0))</f>
+        <v>153.97200000000001</v>
       </c>
     </row>
     <row r="128" spans="11:14" x14ac:dyDescent="0.4">
@@ -19469,15 +19691,15 @@
         <v>128</v>
       </c>
       <c r="L128" s="97" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="M128" s="107" t="str">
-        <f>IF($C$25&gt;=6,"4列目AC内径（水平・めっき含・概算）","-")</f>
-        <v>4列目AC内径（水平・めっき含・概算）</v>
+        <f>IF($C$25&gt;=4,"2列目AC内径（水平・めっき含・概算）","-")</f>
+        <v>2列目AC内径（水平・めっき含・概算）</v>
       </c>
       <c r="N128" s="96">
-        <f ca="1">IF($C$25&gt;=6,($N$57*$N$89+$N$65*$N$81)/($N$49-$N$41)+$C$30*2,"-")</f>
-        <v>156.31899999999999</v>
+        <f ca="1">IF($C$25&gt;=4,($N$55*$N$87+$N$63*$N$79)/($N$47-$N$39)+$C$30*2,"-")</f>
+        <v>156.50139999999999</v>
       </c>
     </row>
     <row r="129" spans="11:14" x14ac:dyDescent="0.4">
@@ -19486,15 +19708,15 @@
         <v>129</v>
       </c>
       <c r="L129" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="M129" s="107" t="str">
-        <f>IF($C$25&gt;=7,"5列目AC内径（水平・めっき含・概算）","-")</f>
-        <v>-</v>
-      </c>
-      <c r="N129" s="96" t="str">
-        <f>IF($C$25&gt;=7,($N$58*$N$90+$N$66*$N$82)/($N$50-$N$42)+$C$30*2,"-")</f>
-        <v>-</v>
+        <f>IF($C$25&gt;=5,"3列目AC内径（水平・めっき含・概算）","-")</f>
+        <v>3列目AC内径（水平・めっき含・概算）</v>
+      </c>
+      <c r="N129" s="96">
+        <f ca="1">IF($C$25&gt;=5,($N$56*$N$88+$N$64*$N$80)/($N$48-$N$40)+$C$30*2,"-")</f>
+        <v>156.4102</v>
       </c>
     </row>
     <row r="130" spans="11:14" x14ac:dyDescent="0.4">
@@ -19503,15 +19725,15 @@
         <v>130</v>
       </c>
       <c r="L130" s="97" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="M130" s="107" t="str">
-        <f>IF($C$25&gt;=8,"6列目AC内径（水平・めっき含・概算）","-")</f>
-        <v>-</v>
-      </c>
-      <c r="N130" s="96" t="str">
-        <f>IF($C$25&gt;=8,($N$59*$N$91+$N$67*$N$83)/($N$51-$N$43)+$C$30*2,"-")</f>
-        <v>-</v>
+        <f>IF($C$25&gt;=6,"4列目AC内径（水平・めっき含・概算）","-")</f>
+        <v>4列目AC内径（水平・めっき含・概算）</v>
+      </c>
+      <c r="N130" s="96">
+        <f ca="1">IF($C$25&gt;=6,($N$57*$N$89+$N$65*$N$81)/($N$49-$N$41)+$C$30*2,"-")</f>
+        <v>156.31899999999999</v>
       </c>
     </row>
     <row r="131" spans="11:14" x14ac:dyDescent="0.4">
@@ -19520,14 +19742,15 @@
         <v>131</v>
       </c>
       <c r="L131" s="97" t="s">
-        <v>446</v>
-      </c>
-      <c r="M131" s="107" t="s">
-        <v>431</v>
-      </c>
-      <c r="N131" s="54">
-        <f ca="1">($N$60*$N$92+$N$68*$N$84)/($N$52-$N$44)+$C$30*2</f>
-        <v>156.23739999999998</v>
+        <v>444</v>
+      </c>
+      <c r="M131" s="107" t="str">
+        <f>IF($C$25&gt;=7,"5列目AC内径（水平・めっき含・概算）","-")</f>
+        <v>-</v>
+      </c>
+      <c r="N131" s="96" t="str">
+        <f>IF($C$25&gt;=7,($N$58*$N$90+$N$66*$N$82)/($N$50-$N$42)+$C$30*2,"-")</f>
+        <v>-</v>
       </c>
     </row>
     <row r="132" spans="11:14" x14ac:dyDescent="0.4">
@@ -19536,14 +19759,15 @@
         <v>132</v>
       </c>
       <c r="L132" s="97" t="s">
-        <v>387</v>
-      </c>
-      <c r="M132" s="107" t="s">
-        <v>433</v>
-      </c>
-      <c r="N132" s="54">
-        <f ca="1">INDEX(INDIRECT($H$52&amp;"!C:C"), MATCH(0, INDIRECT($H$52&amp;"!A:A"), 0))+$C$30*2</f>
-        <v>154.97899999999998</v>
+        <v>445</v>
+      </c>
+      <c r="M132" s="107" t="str">
+        <f>IF($C$25&gt;=8,"6列目AC内径（水平・めっき含・概算）","-")</f>
+        <v>-</v>
+      </c>
+      <c r="N132" s="96" t="str">
+        <f>IF($C$25&gt;=8,($N$59*$N$91+$N$67*$N$83)/($N$51-$N$43)+$C$30*2,"-")</f>
+        <v>-</v>
       </c>
     </row>
     <row r="133" spans="11:14" x14ac:dyDescent="0.4">
@@ -19552,15 +19776,14 @@
         <v>133</v>
       </c>
       <c r="L133" s="97" t="s">
-        <v>430</v>
-      </c>
-      <c r="M133" s="107" t="str">
-        <f>IF($C$25&gt;=3,"1列目 BD内径（めっき含・概算）","-")</f>
-        <v>1列目 BD内径（めっき含・概算）</v>
-      </c>
-      <c r="N133" s="96">
-        <f ca="1">IF($C$25&gt;=3,($N$54*$N$118+$N$62*$N$110)/($N$46-$N$38)+$C$30*2,"-")</f>
-        <v>154.57380000000001</v>
+        <v>446</v>
+      </c>
+      <c r="M133" s="107" t="s">
+        <v>431</v>
+      </c>
+      <c r="N133" s="54">
+        <f ca="1">($N$60*$N$92+$N$68*$N$84)/($N$52-$N$44)+$C$30*2</f>
+        <v>156.23739999999998</v>
       </c>
     </row>
     <row r="134" spans="11:14" x14ac:dyDescent="0.4">
@@ -19569,15 +19792,14 @@
         <v>134</v>
       </c>
       <c r="L134" s="97" t="s">
-        <v>435</v>
-      </c>
-      <c r="M134" s="107" t="str">
-        <f>IF($C$25&gt;=4,"2列目 BD内径（めっき含・概算）","-")</f>
-        <v>2列目 BD内径（めっき含・概算）</v>
-      </c>
-      <c r="N134" s="96">
-        <f ca="1">IF($C$25&gt;=4,($N$55*$N$119+$N$63*$N$111)/($N$47-$N$39)+$C$30*2,"-")</f>
-        <v>154.4838</v>
+        <v>387</v>
+      </c>
+      <c r="M134" s="107" t="s">
+        <v>433</v>
+      </c>
+      <c r="N134" s="54">
+        <f ca="1">INDEX(INDIRECT($H$52&amp;"!C:C"), MATCH(0, INDIRECT($H$52&amp;"!A:A"), 0))+$C$30*2</f>
+        <v>154.97899999999998</v>
       </c>
     </row>
     <row r="135" spans="11:14" x14ac:dyDescent="0.4">
@@ -19586,15 +19808,15 @@
         <v>135</v>
       </c>
       <c r="L135" s="97" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="M135" s="107" t="str">
-        <f>IF($C$25&gt;=5,"3列目 BD内径（めっき含・概算）","-")</f>
-        <v>3列目 BD内径（めっき含・概算）</v>
+        <f>IF($C$25&gt;=3,"1列目 BD内径（めっき含・概算）","-")</f>
+        <v>1列目 BD内径（めっき含・概算）</v>
       </c>
       <c r="N135" s="96">
-        <f ca="1">IF($C$25&gt;=5,($N$56*$N$120+$N$64*$N$112)/($N$48-$N$40)+$C$30*2,"-")</f>
-        <v>154.39359999999999</v>
+        <f ca="1">IF($C$25&gt;=3,($N$54*$N$120+$N$62*$N$112)/($N$46-$N$38)+$C$30*2,"-")</f>
+        <v>154.57380000000001</v>
       </c>
     </row>
     <row r="136" spans="11:14" x14ac:dyDescent="0.4">
@@ -19603,15 +19825,15 @@
         <v>136</v>
       </c>
       <c r="L136" s="97" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="M136" s="107" t="str">
-        <f>IF($C$25&gt;=6,"4列目 BD内径（めっき含・概算）","-")</f>
-        <v>4列目 BD内径（めっき含・概算）</v>
+        <f>IF($C$25&gt;=4,"2列目 BD内径（めっき含・概算）","-")</f>
+        <v>2列目 BD内径（めっき含・概算）</v>
       </c>
       <c r="N136" s="96">
-        <f ca="1">IF($C$25&gt;=6,($N$57*$N$121+$N$65*$N$113)/($N$49-$N$41)+$C$30*2,"-")</f>
-        <v>154.30399999999997</v>
+        <f ca="1">IF($C$25&gt;=4,($N$55*$N$121+$N$63*$N$113)/($N$47-$N$39)+$C$30*2,"-")</f>
+        <v>154.4838</v>
       </c>
     </row>
     <row r="137" spans="11:14" x14ac:dyDescent="0.4">
@@ -19620,15 +19842,15 @@
         <v>137</v>
       </c>
       <c r="L137" s="97" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="M137" s="107" t="str">
-        <f>IF($C$25&gt;=7,"5列目 BD内径（めっき含・概算）","-")</f>
-        <v>-</v>
-      </c>
-      <c r="N137" s="96" t="str">
-        <f>IF($C$25&gt;=7,($N$58*$N$122+$N$66*$N$114)/($N$50-$N$42)+$C$30*2,"-")</f>
-        <v>-</v>
+        <f>IF($C$25&gt;=5,"3列目 BD内径（めっき含・概算）","-")</f>
+        <v>3列目 BD内径（めっき含・概算）</v>
+      </c>
+      <c r="N137" s="96">
+        <f ca="1">IF($C$25&gt;=5,($N$56*$N$122+$N$64*$N$114)/($N$48-$N$40)+$C$30*2,"-")</f>
+        <v>154.39359999999999</v>
       </c>
     </row>
     <row r="138" spans="11:14" x14ac:dyDescent="0.4">
@@ -19637,15 +19859,15 @@
         <v>138</v>
       </c>
       <c r="L138" s="97" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="M138" s="107" t="str">
-        <f>IF($C$25&gt;=8,"6列目 BD内径（めっき含・概算）","-")</f>
-        <v>-</v>
-      </c>
-      <c r="N138" s="96" t="str">
-        <f>IF($C$25&gt;=8,($N$59*$N$123+$N$67*$N$115)/($N$51-$N$43)+$C$30*2,"-")</f>
-        <v>-</v>
+        <f>IF($C$25&gt;=6,"4列目 BD内径（めっき含・概算）","-")</f>
+        <v>4列目 BD内径（めっき含・概算）</v>
+      </c>
+      <c r="N138" s="96">
+        <f ca="1">IF($C$25&gt;=6,($N$57*$N$123+$N$65*$N$115)/($N$49-$N$41)+$C$30*2,"-")</f>
+        <v>154.30399999999997</v>
       </c>
     </row>
     <row r="139" spans="11:14" x14ac:dyDescent="0.4">
@@ -19654,14 +19876,15 @@
         <v>139</v>
       </c>
       <c r="L139" s="97" t="s">
-        <v>440</v>
-      </c>
-      <c r="M139" s="107" t="s">
-        <v>434</v>
-      </c>
-      <c r="N139" s="54">
-        <f ca="1">($N$60*$N$124+$N$68*$N$116)/($N$52-$N$44)+$C$30*2</f>
-        <v>154.22319999999999</v>
+        <v>438</v>
+      </c>
+      <c r="M139" s="107" t="str">
+        <f>IF($C$25&gt;=7,"5列目 BD内径（めっき含・概算）","-")</f>
+        <v>-</v>
+      </c>
+      <c r="N139" s="96" t="str">
+        <f>IF($C$25&gt;=7,($N$58*$N$124+$N$66*$N$116)/($N$50-$N$42)+$C$30*2,"-")</f>
+        <v>-</v>
       </c>
     </row>
     <row r="140" spans="11:14" x14ac:dyDescent="0.4">
@@ -19669,12 +19892,33 @@
         <f t="shared" si="2"/>
         <v>140</v>
       </c>
+      <c r="L140" s="97" t="s">
+        <v>439</v>
+      </c>
+      <c r="M140" s="107" t="str">
+        <f>IF($C$25&gt;=8,"6列目 BD内径（めっき含・概算）","-")</f>
+        <v>-</v>
+      </c>
+      <c r="N140" s="96" t="str">
+        <f>IF($C$25&gt;=8,($N$59*$N$125+$N$67*$N$117)/($N$51-$N$43)+$C$30*2,"-")</f>
+        <v>-</v>
+      </c>
     </row>
     <row r="141" spans="11:14" x14ac:dyDescent="0.4">
       <c r="K141" s="55">
         <f t="shared" si="2"/>
         <v>141</v>
       </c>
+      <c r="L141" s="97" t="s">
+        <v>440</v>
+      </c>
+      <c r="M141" s="107" t="s">
+        <v>434</v>
+      </c>
+      <c r="N141" s="54">
+        <f ca="1">($N$60*$N$126+$N$68*$N$118)/($N$52-$N$44)+$C$30*2</f>
+        <v>154.22319999999999</v>
+      </c>
     </row>
     <row r="142" spans="11:14" x14ac:dyDescent="0.4">
       <c r="K142" s="55">
@@ -19687,29 +19931,12 @@
         <f t="shared" si="2"/>
         <v>143</v>
       </c>
-      <c r="L143" s="97" t="s">
-        <v>269</v>
-      </c>
-      <c r="N143" s="54">
-        <f>C6^2+(2*N9)^2</f>
-        <v>384450.50566139817</v>
-      </c>
     </row>
     <row r="144" spans="11:14" x14ac:dyDescent="0.4">
       <c r="K144" s="55">
         <f t="shared" si="2"/>
         <v>144</v>
       </c>
-      <c r="L144" s="97" t="s">
-        <v>270</v>
-      </c>
-      <c r="M144" s="106" t="s">
-        <v>109</v>
-      </c>
-      <c r="N144" s="54">
-        <f>SQRT(N143)</f>
-        <v>620.04072903430961</v>
-      </c>
     </row>
     <row r="145" spans="11:14" x14ac:dyDescent="0.4">
       <c r="K145" s="55">
@@ -19717,14 +19944,11 @@
         <v>145</v>
       </c>
       <c r="L145" s="97" t="s">
-        <v>144</v>
-      </c>
-      <c r="M145" s="106" t="s">
-        <v>110</v>
+        <v>269</v>
       </c>
       <c r="N145" s="54">
-        <f>2*N9/N144</f>
-        <v>0.99993431232433228</v>
+        <f>C6^2+(2*N9)^2</f>
+        <v>384450.50566139817</v>
       </c>
     </row>
     <row r="146" spans="11:14" x14ac:dyDescent="0.4">
@@ -19733,14 +19957,14 @@
         <v>146</v>
       </c>
       <c r="L146" s="97" t="s">
-        <v>145</v>
+        <v>270</v>
       </c>
       <c r="M146" s="106" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N146" s="54">
-        <f>C6/N144</f>
-        <v>1.1461720484501746E-2</v>
+        <f>SQRT(N145)</f>
+        <v>620.04072903430961</v>
       </c>
     </row>
     <row r="147" spans="11:14" x14ac:dyDescent="0.4">
@@ -19749,11 +19973,14 @@
         <v>147</v>
       </c>
       <c r="L147" s="97" t="s">
-        <v>271</v>
+        <v>144</v>
+      </c>
+      <c r="M147" s="106" t="s">
+        <v>110</v>
       </c>
       <c r="N147" s="54">
-        <f>SQRT(N8^2-(N9-N12)^2)</f>
-        <v>8727.6739192066525</v>
+        <f>2*N9/N146</f>
+        <v>0.99993431232433228</v>
       </c>
     </row>
     <row r="148" spans="11:14" x14ac:dyDescent="0.4">
@@ -19762,11 +19989,14 @@
         <v>148</v>
       </c>
       <c r="L148" s="97" t="s">
-        <v>272</v>
+        <v>145</v>
+      </c>
+      <c r="M148" s="106" t="s">
+        <v>111</v>
       </c>
       <c r="N148" s="54">
-        <f>SQRT(N8^2-(N9+N12)^2)</f>
-        <v>8720.5671856823628</v>
+        <f>C6/N146</f>
+        <v>1.1461720484501746E-2</v>
       </c>
     </row>
     <row r="149" spans="11:14" x14ac:dyDescent="0.4">
@@ -19775,11 +20005,11 @@
         <v>149</v>
       </c>
       <c r="L149" s="97" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="N149" s="54">
-        <f>N12*N9</f>
-        <v>31000</v>
+        <f>SQRT(N8^2-(N9-N12)^2)</f>
+        <v>8727.6739192066525</v>
       </c>
     </row>
     <row r="150" spans="11:14" x14ac:dyDescent="0.4">
@@ -19788,11 +20018,11 @@
         <v>150</v>
       </c>
       <c r="L150" s="97" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="N150" s="54">
-        <f>SQRT(N8^2-N143/4)</f>
-        <v>8724.693657291622</v>
+        <f>SQRT(N8^2-(N9+N12)^2)</f>
+        <v>8720.5671856823628</v>
       </c>
     </row>
     <row r="151" spans="11:14" x14ac:dyDescent="0.4">
@@ -19801,11 +20031,11 @@
         <v>151</v>
       </c>
       <c r="L151" s="97" t="s">
-        <v>155</v>
+        <v>273</v>
       </c>
       <c r="N151" s="54">
-        <f>N150*N145</f>
-        <v>8724.1205524443612</v>
+        <f>N12*N9</f>
+        <v>31000</v>
       </c>
     </row>
     <row r="152" spans="11:14" x14ac:dyDescent="0.4">
@@ -19814,215 +20044,246 @@
         <v>152</v>
       </c>
       <c r="L152" s="97" t="s">
-        <v>156</v>
-      </c>
-      <c r="M152" s="106" t="s">
-        <v>107</v>
+        <v>274</v>
       </c>
       <c r="N152" s="54">
-        <f>N150*N146</f>
-        <v>100.00000001278184</v>
+        <f>SQRT(N8^2-N145/4)</f>
+        <v>8724.693657291622</v>
       </c>
     </row>
     <row r="153" spans="11:14" x14ac:dyDescent="0.4">
       <c r="K153" s="55">
-        <f t="shared" ref="K153" si="3">ROW(K153)</f>
+        <f t="shared" si="2"/>
         <v>153</v>
       </c>
       <c r="L153" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="N153" s="54">
+        <f>N152*N147</f>
+        <v>8724.1205524443612</v>
+      </c>
+    </row>
+    <row r="154" spans="11:14" x14ac:dyDescent="0.4">
+      <c r="K154" s="55">
+        <f t="shared" si="2"/>
+        <v>154</v>
+      </c>
+      <c r="L154" s="97" t="s">
+        <v>156</v>
+      </c>
+      <c r="M154" s="106" t="s">
+        <v>107</v>
+      </c>
+      <c r="N154" s="54">
+        <f>N152*N148</f>
+        <v>100.00000001278184</v>
+      </c>
+    </row>
+    <row r="155" spans="11:14" x14ac:dyDescent="0.4">
+      <c r="K155" s="55">
+        <f t="shared" ref="K155" si="3">ROW(K155)</f>
+        <v>155</v>
+      </c>
+      <c r="L155" s="97" t="s">
         <v>122</v>
       </c>
-      <c r="M153" s="106" t="s">
+      <c r="M155" s="106" t="s">
         <v>106</v>
       </c>
-      <c r="N153" s="54">
-        <f>C6/2+N7-N151</f>
+      <c r="N155" s="54">
+        <f>C6/2+N7-N153</f>
         <v>4.12719521204599</v>
       </c>
     </row>
-    <row r="168" spans="12:14" x14ac:dyDescent="0.4">
-      <c r="L168" s="106"/>
-      <c r="M168" s="107"/>
-      <c r="N168" s="53"/>
+    <row r="170" spans="12:14" x14ac:dyDescent="0.4">
+      <c r="L170" s="106"/>
+      <c r="M170" s="107"/>
+      <c r="N170" s="53"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="C3">
-    <cfRule type="expression" dxfId="52" priority="121">
-      <formula>#REF!^2&lt;4*N149^2</formula>
+    <cfRule type="expression" dxfId="38" priority="122">
+      <formula>#REF!^2&lt;4*N151^2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="51" priority="41">
+    <cfRule type="expression" dxfId="37" priority="42">
       <formula>C4&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="50" priority="17">
+    <cfRule type="expression" dxfId="36" priority="18">
       <formula>$C$6&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="49" priority="45">
+    <cfRule type="expression" dxfId="35" priority="46">
       <formula>$C$9&lt;=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:C11">
-    <cfRule type="expression" dxfId="48" priority="18">
+    <cfRule type="expression" dxfId="34" priority="19">
       <formula>$C$10&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="47" priority="96">
+    <cfRule type="expression" dxfId="33" priority="97">
       <formula>OR(C15&lt;=0, C15&gt;Q2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34">
-    <cfRule type="expression" dxfId="46" priority="40">
+    <cfRule type="expression" dxfId="32" priority="41">
       <formula>C34&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35">
-    <cfRule type="expression" dxfId="45" priority="55">
+    <cfRule type="expression" dxfId="31" priority="56">
       <formula>OR($C$35&lt;0, $C$35&gt;=$C$9)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36">
-    <cfRule type="expression" dxfId="44" priority="14">
+    <cfRule type="expression" dxfId="30" priority="15">
       <formula>OR($C$36&lt;0, $C$36&gt;=$C$10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37">
-    <cfRule type="expression" dxfId="43" priority="118">
+    <cfRule type="expression" dxfId="29" priority="119">
       <formula>OR(C37&lt;0, C37&gt;=C9)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38">
-    <cfRule type="expression" dxfId="42" priority="125">
+    <cfRule type="expression" dxfId="28" priority="126">
       <formula>OR(C38&lt;0, C38&gt;=C4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41">
-    <cfRule type="expression" dxfId="41" priority="126">
+    <cfRule type="expression" dxfId="27" priority="127">
       <formula>OR(C41&lt;0, C41&gt;=C4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58">
-    <cfRule type="expression" dxfId="40" priority="49">
+    <cfRule type="expression" dxfId="26" priority="50">
       <formula>AND(C58&lt;&gt;330, C58&lt;&gt;270, C58&lt;&gt;250)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59">
-    <cfRule type="expression" dxfId="39" priority="48">
+    <cfRule type="expression" dxfId="25" priority="49">
       <formula>C59&lt;&gt;40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="38" priority="25">
+    <cfRule type="expression" dxfId="24" priority="26">
       <formula>OR(C62&gt;0, ABS(ABS(C62)-740)&gt;=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="37" priority="38">
+    <cfRule type="expression" dxfId="23" priority="39">
       <formula>OR(C63&gt;0, ABS(ABS(C63)-550)&gt;=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C64">
-    <cfRule type="expression" dxfId="36" priority="31">
+    <cfRule type="expression" dxfId="22" priority="32">
       <formula>OR(C64&gt;0, ABS(ABS(C64)-1150)&gt;=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C65">
-    <cfRule type="expression" dxfId="35" priority="37">
+    <cfRule type="expression" dxfId="21" priority="38">
       <formula>OR(ABS(C65)&gt;=0.2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48">
-    <cfRule type="expression" dxfId="34" priority="21">
+    <cfRule type="expression" dxfId="20" priority="22">
       <formula>OR($H$48&lt;=1, INT($H$48)&lt;&gt;$H$48)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52">
-    <cfRule type="expression" dxfId="33" priority="13">
+    <cfRule type="expression" dxfId="19" priority="14">
       <formula>ISERROR(INDIRECT($H$52&amp;"!$G$45"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="32" priority="234">
+    <cfRule type="expression" dxfId="18" priority="235">
       <formula>OR(C25-QUOTIENT(C25,1)&lt;&gt;0, C25&lt;0, C25&gt;$C$66)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50">
-    <cfRule type="expression" dxfId="31" priority="9">
+    <cfRule type="expression" dxfId="17" priority="10">
       <formula>$H$50&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H78 H51:H52 H54:H72">
-    <cfRule type="expression" dxfId="30" priority="8">
+    <cfRule type="expression" dxfId="16" priority="9">
       <formula>$H$51&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="29" priority="252">
+    <cfRule type="expression" dxfId="15" priority="253">
       <formula>OR($C$23&lt;=0, MOD($C$23,$C$22)&lt;&gt;0, $C$23&gt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="expression" dxfId="28" priority="260">
+    <cfRule type="expression" dxfId="14" priority="261">
       <formula>OR($C$26&lt;=0, $C$26&gt;=#REF!/2, $C$26&gt;=#REF!/2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="27" priority="269">
+    <cfRule type="expression" dxfId="13" priority="270">
       <formula>OR($C$13&gt;=$C$9, $C$13&gt;=$C$39)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="26" priority="270">
+    <cfRule type="expression" dxfId="12" priority="271">
       <formula>OR($C$14&gt;=$C$10, $C$14&gt;=$C$39)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="25" priority="271">
+    <cfRule type="expression" dxfId="11" priority="272">
       <formula>OR($C$17&lt;=0, $C$17&gt;=($C$9-#REF!)/2, $C$17&gt;=($C$35-#REF!)/2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N126:N131">
-    <cfRule type="expression" dxfId="24" priority="7">
+  <conditionalFormatting sqref="N128:N133">
+    <cfRule type="expression" dxfId="10" priority="8">
       <formula>$H$51&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N132:N139">
-    <cfRule type="expression" dxfId="23" priority="6">
+  <conditionalFormatting sqref="N134:N141">
+    <cfRule type="expression" dxfId="9" priority="7">
       <formula>$H$51&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="22" priority="272">
+    <cfRule type="expression" dxfId="8" priority="273">
       <formula>OR(C16&lt;=0, C16+C15&gt;Q2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H77">
-    <cfRule type="expression" dxfId="21" priority="273">
+    <cfRule type="expression" dxfId="7" priority="274">
       <formula>$H$77&lt;=$C$26/2+$C$27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="expression" dxfId="20" priority="1">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>G1="X"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="2">
+    <cfRule type="expression" dxfId="5" priority="3">
       <formula>G1="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="3">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>G1="Z"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="4">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>G1="B"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H80:H95">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>$H$51&lt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation imeMode="disabled" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C57:C66 H78 N126:N139 C3:C31 C46:C49 C52:C55 H54:H72 G1:G1048576" xr:uid="{5A8FA8E9-E7FC-48D2-B40E-E90D3C7D1F03}"/>
+    <dataValidation imeMode="disabled" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C57:C66 H78 N128:N141 C3:C31 C46:C49 C52:C55 H54:H72 G1:G1048576 H80:H95" xr:uid="{5A8FA8E9-E7FC-48D2-B40E-E90D3C7D1F03}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -20034,9 +20295,7 @@
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.4"/>
   <cols>

--- a/Mould_Database/Mould_DB.xlsx
+++ b/Mould_Database/Mould_DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user01\Documents\kurahashi nobuaki\LaTeX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6EA6551-F26E-4D02-8D2B-E42900B35F2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690E1EB1-ED7C-4174-9C86-0D5AA57F2164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19020" windowHeight="15600" tabRatio="638" firstSheet="13" activeTab="15" xr2:uid="{331D296A-DE97-4357-9338-22F5C8F49D08}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20085" windowHeight="15600" tabRatio="638" firstSheet="13" activeTab="15" xr2:uid="{331D296A-DE97-4357-9338-22F5C8F49D08}"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="2" r:id="rId1"/>
@@ -15894,9 +15894,7 @@
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:R170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>
   <cols>
@@ -19166,7 +19164,7 @@
     </row>
     <row r="96" spans="6:14" x14ac:dyDescent="0.4">
       <c r="K96" s="55">
-        <f>ROW(K96)</f>
+        <f t="shared" ref="K96:K103" si="3">ROW(K96)</f>
         <v>96</v>
       </c>
       <c r="L96" s="97" t="s">
@@ -19182,7 +19180,7 @@
     </row>
     <row r="97" spans="11:14" x14ac:dyDescent="0.4">
       <c r="K97" s="55">
-        <f>ROW(K97)</f>
+        <f t="shared" si="3"/>
         <v>97</v>
       </c>
       <c r="L97" s="97" t="s">
@@ -19198,7 +19196,7 @@
     </row>
     <row r="98" spans="11:14" x14ac:dyDescent="0.4">
       <c r="K98" s="55">
-        <f>ROW(K98)</f>
+        <f t="shared" si="3"/>
         <v>98</v>
       </c>
       <c r="L98" s="97" t="s">
@@ -19214,7 +19212,7 @@
     </row>
     <row r="99" spans="11:14" x14ac:dyDescent="0.4">
       <c r="K99" s="55">
-        <f>ROW(K99)</f>
+        <f t="shared" si="3"/>
         <v>99</v>
       </c>
       <c r="L99" s="97" t="s">
@@ -19230,7 +19228,7 @@
     </row>
     <row r="100" spans="11:14" x14ac:dyDescent="0.4">
       <c r="K100" s="55">
-        <f>ROW(K100)</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="L100" s="97" t="s">
@@ -19246,7 +19244,7 @@
     </row>
     <row r="101" spans="11:14" x14ac:dyDescent="0.4">
       <c r="K101" s="55">
-        <f>ROW(K101)</f>
+        <f t="shared" si="3"/>
         <v>101</v>
       </c>
       <c r="L101" s="97" t="s">
@@ -19262,7 +19260,7 @@
     </row>
     <row r="102" spans="11:14" x14ac:dyDescent="0.4">
       <c r="K102" s="55">
-        <f>ROW(K102)</f>
+        <f t="shared" si="3"/>
         <v>102</v>
       </c>
       <c r="L102" s="97" t="s">
@@ -19278,7 +19276,7 @@
     </row>
     <row r="103" spans="11:14" x14ac:dyDescent="0.4">
       <c r="K103" s="55">
-        <f>ROW(K103)</f>
+        <f t="shared" si="3"/>
         <v>103</v>
       </c>
       <c r="L103" s="97" t="s">
@@ -20082,7 +20080,7 @@
     </row>
     <row r="155" spans="11:14" x14ac:dyDescent="0.4">
       <c r="K155" s="55">
-        <f t="shared" ref="K155" si="3">ROW(K155)</f>
+        <f t="shared" ref="K155" si="4">ROW(K155)</f>
         <v>155</v>
       </c>
       <c r="L155" s="97" t="s">
@@ -20283,7 +20281,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation imeMode="disabled" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C57:C66 H78 N128:N141 C3:C31 C46:C49 C52:C55 H54:H72 G1:G1048576 H80:H95" xr:uid="{5A8FA8E9-E7FC-48D2-B40E-E90D3C7D1F03}"/>
+    <dataValidation imeMode="disabled" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C57:C66 H78 N128:N141 C3:C31 C46:C49 C52:C55 H54:H72 H80:H95 G1:G1048576" xr:uid="{5A8FA8E9-E7FC-48D2-B40E-E90D3C7D1F03}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -20295,7 +20293,9 @@
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.4"/>
   <cols>

--- a/Mould_Database/Mould_DB.xlsx
+++ b/Mould_Database/Mould_DB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user01\Documents\kurahashi nobuaki\LaTeX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690E1EB1-ED7C-4174-9C86-0D5AA57F2164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB2B7FE-E551-40EE-BC1E-6D1CBCC06487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20085" windowHeight="15600" tabRatio="638" firstSheet="13" activeTab="15" xr2:uid="{331D296A-DE97-4357-9338-22F5C8F49D08}"/>
   </bookViews>
@@ -15894,7 +15894,9 @@
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:R170"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>
   <cols>

--- a/Mould_Database/Mould_DB.xlsx
+++ b/Mould_Database/Mould_DB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user01\Documents\kurahashi nobuaki\LaTeX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gm001\Documents\GitHub\mould_moji\Mould_Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB2B7FE-E551-40EE-BC1E-6D1CBCC06487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E96A9A0-C4FE-4E88-A070-439A14547280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20085" windowHeight="15600" tabRatio="638" firstSheet="13" activeTab="15" xr2:uid="{331D296A-DE97-4357-9338-22F5C8F49D08}"/>
+    <workbookView xWindow="-37470" yWindow="-2700" windowWidth="19770" windowHeight="21600" tabRatio="638" firstSheet="13" activeTab="15" xr2:uid="{331D296A-DE97-4357-9338-22F5C8F49D08}"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="2" r:id="rId1"/>
@@ -36,28 +36,19 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -72,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="479">
   <si>
     <t>列1</t>
   </si>
@@ -5063,16 +5054,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>工具（orシャンク）直径</t>
-    <rPh sb="0" eb="2">
-      <t>コウグ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>チョッケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>内面溝加工用傾き角A（deg, 相対）</t>
     <rPh sb="0" eb="3">
       <t>ナイ</t>
@@ -12214,6 +12195,29 @@
     </rPh>
     <rPh sb="18" eb="20">
       <t>キョリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>工具（刃）直径</t>
+    <rPh sb="0" eb="2">
+      <t>コウグ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>チョッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>工具（シャンク）直径</t>
+    <rPh sb="0" eb="2">
+      <t>コウグ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>チョッケイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -13015,18 +13019,46 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="78">
+  <dxfs count="79">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -13062,34 +13094,6 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -13288,7 +13292,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -13491,12 +13502,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{930C37C7-60F8-4ECF-BFC0-8D1FBF229D9E}" name="テーブル2" displayName="テーブル2" ref="A1:O34" totalsRowShown="0" headerRowDxfId="77">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{930C37C7-60F8-4ECF-BFC0-8D1FBF229D9E}" name="テーブル2" displayName="テーブル2" ref="A1:O34" totalsRowShown="0" headerRowDxfId="78">
   <autoFilter ref="A1:O34" xr:uid="{930C37C7-60F8-4ECF-BFC0-8D1FBF229D9E}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{8506785A-7890-47E7-A8BD-4A0F82BDB757}" name="#zumen" dataDxfId="76"/>
-    <tableColumn id="2" xr3:uid="{F1A7F9CC-0192-4A97-ADD1-658F8F5B6686}" name="#program" dataDxfId="75"/>
-    <tableColumn id="9" xr3:uid="{D7C1D5F3-2999-4087-B4CA-13BFDB223D3E}" name="#wankyoku" dataDxfId="74"/>
+    <tableColumn id="1" xr3:uid="{8506785A-7890-47E7-A8BD-4A0F82BDB757}" name="#zumen" dataDxfId="77"/>
+    <tableColumn id="2" xr3:uid="{F1A7F9CC-0192-4A97-ADD1-658F8F5B6686}" name="#program" dataDxfId="76"/>
+    <tableColumn id="9" xr3:uid="{D7C1D5F3-2999-4087-B4CA-13BFDB223D3E}" name="#wankyoku" dataDxfId="75"/>
     <tableColumn id="3" xr3:uid="{E7259851-675D-4DCE-8389-F98935C8D8AA}" name="#huriwake"/>
     <tableColumn id="7" xr3:uid="{D9F075D9-AC94-4188-BB69-E3CE71099F41}" name="#gaikei"/>
     <tableColumn id="6" xr3:uid="{12B03DE5-82A2-4552-A525-F308D4F75E6A}" name="#naikei"/>
@@ -13508,52 +13519,52 @@
     <tableColumn id="8" xr3:uid="{6DBDF68B-76FA-4191-B512-A73C0EE3C573}" name="#dimle"/>
     <tableColumn id="15" xr3:uid="{EF803FDE-DD7D-4372-9E3F-25D35D3C753A}" name="#nigashi"/>
     <tableColumn id="12" xr3:uid="{AC54FD41-113A-4285-BD4B-8CC65DD163D3}" name="#zaguri"/>
-    <tableColumn id="5" xr3:uid="{F59F9AFA-52D3-4BBB-AE00-820B40C29BDB}" name="#palette" dataDxfId="73"/>
+    <tableColumn id="5" xr3:uid="{F59F9AFA-52D3-4BBB-AE00-820B40C29BDB}" name="#palette" dataDxfId="74"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{94AE3BD2-EFE7-457E-B899-E9CDBC550254}" name="テーブル24" displayName="テーブル24" ref="A1:B8" totalsRowShown="0" headerRowDxfId="72" dataDxfId="71">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{94AE3BD2-EFE7-457E-B899-E9CDBC550254}" name="テーブル24" displayName="テーブル24" ref="A1:B8" totalsRowShown="0" headerRowDxfId="73" dataDxfId="72">
   <autoFilter ref="A1:B8" xr:uid="{94AE3BD2-EFE7-457E-B899-E9CDBC550254}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{DD1AAD38-FB24-4129-B8D0-D2194F7F54D1}" name="sp#" dataDxfId="70"/>
-    <tableColumn id="2" xr3:uid="{B120DFEE-67CD-48C9-B60E-A1386DC60788}" name="列1" dataDxfId="69"/>
+    <tableColumn id="1" xr3:uid="{DD1AAD38-FB24-4129-B8D0-D2194F7F54D1}" name="sp#" dataDxfId="71"/>
+    <tableColumn id="2" xr3:uid="{B120DFEE-67CD-48C9-B60E-A1386DC60788}" name="列1" dataDxfId="70"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{77557FFB-0B5A-443D-AB71-C42CDBDC9141}" name="テーブル4" displayName="テーブル4" ref="A1:H4" totalsRowShown="0" headerRowDxfId="68" dataDxfId="67">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{77557FFB-0B5A-443D-AB71-C42CDBDC9141}" name="テーブル4" displayName="テーブル4" ref="A1:H4" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68">
   <autoFilter ref="A1:H4" xr:uid="{77557FFB-0B5A-443D-AB71-C42CDBDC9141}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{DADD43D4-3823-4AAF-A2AE-265B1D4A415A}" name="#palette" dataDxfId="66"/>
-    <tableColumn id="2" xr3:uid="{73F2BD72-9B36-4BC4-9408-D4D83DAED46B}" name="#length" dataDxfId="65"/>
-    <tableColumn id="3" xr3:uid="{256650DF-5A48-4411-8444-32116323383E}" name="#haridashi" dataDxfId="64">
+    <tableColumn id="1" xr3:uid="{DADD43D4-3823-4AAF-A2AE-265B1D4A415A}" name="#palette" dataDxfId="67"/>
+    <tableColumn id="2" xr3:uid="{73F2BD72-9B36-4BC4-9408-D4D83DAED46B}" name="#length" dataDxfId="66"/>
+    <tableColumn id="3" xr3:uid="{256650DF-5A48-4411-8444-32116323383E}" name="#haridashi" dataDxfId="65">
       <calculatedColumnFormula>テーブル4[[#This Row],['#length]]/2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{0D20E067-D4A8-4678-8CF6-EE36EC74070C}" name="#fixedPoint" dataDxfId="63"/>
-    <tableColumn id="5" xr3:uid="{254E8622-947D-4A7A-8CC9-9678DAFCBD5D}" name="#fixingHight" dataDxfId="62"/>
-    <tableColumn id="6" xr3:uid="{B1AE96B8-72E2-45AB-A65A-28CC5A39F5B0}" name="#fixingWidth" dataDxfId="61"/>
-    <tableColumn id="10" xr3:uid="{DDCA0989-DFE4-451A-AFAD-5F50F6B3E5CE}" name="#fixedPointBX" dataDxfId="60"/>
-    <tableColumn id="9" xr3:uid="{6AB232C2-8AA1-4BE6-9ED3-FCE0F10D7750}" name="#fixedPointTX" dataDxfId="59"/>
+    <tableColumn id="4" xr3:uid="{0D20E067-D4A8-4678-8CF6-EE36EC74070C}" name="#fixedPoint" dataDxfId="64"/>
+    <tableColumn id="5" xr3:uid="{254E8622-947D-4A7A-8CC9-9678DAFCBD5D}" name="#fixingHight" dataDxfId="63"/>
+    <tableColumn id="6" xr3:uid="{B1AE96B8-72E2-45AB-A65A-28CC5A39F5B0}" name="#fixingWidth" dataDxfId="62"/>
+    <tableColumn id="10" xr3:uid="{DDCA0989-DFE4-451A-AFAD-5F50F6B3E5CE}" name="#fixedPointBX" dataDxfId="61"/>
+    <tableColumn id="9" xr3:uid="{6AB232C2-8AA1-4BE6-9ED3-FCE0F10D7750}" name="#fixedPointTX" dataDxfId="60"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{84F2650A-011E-4D4A-AC8E-9B77A25CD334}" name="テーブル1" displayName="テーブル1" ref="A1:C25" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{84F2650A-011E-4D4A-AC8E-9B77A25CD334}" name="テーブル1" displayName="テーブル1" ref="A1:C25" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
   <autoFilter ref="A1:C25" xr:uid="{84F2650A-011E-4D4A-AC8E-9B77A25CD334}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C25">
     <sortCondition ref="A1:A25"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{508307B6-91DE-4D5D-A41E-EA3E5488C8CC}" name="#program" dataDxfId="56"/>
-    <tableColumn id="2" xr3:uid="{2294E81D-5C1D-4C34-A722-57344553455E}" name="#cycleTime" dataDxfId="55"/>
-    <tableColumn id="6" xr3:uid="{F6AA9104-E34E-4196-8563-02BE967ECEE4}" name="#cycleTimeS" dataDxfId="54">
+    <tableColumn id="1" xr3:uid="{508307B6-91DE-4D5D-A41E-EA3E5488C8CC}" name="#program" dataDxfId="57"/>
+    <tableColumn id="2" xr3:uid="{2294E81D-5C1D-4C34-A722-57344553455E}" name="#cycleTime" dataDxfId="56"/>
+    <tableColumn id="6" xr3:uid="{F6AA9104-E34E-4196-8563-02BE967ECEE4}" name="#cycleTimeS" dataDxfId="55">
       <calculatedColumnFormula>LEFT(テーブル1[[#This Row],['#cycleTime]],2)*60+RIGHT(テーブル1[[#This Row],['#cycleTime]], 2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15814,71 +15825,71 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="C3">
-    <cfRule type="expression" dxfId="53" priority="6">
+    <cfRule type="expression" dxfId="54" priority="6">
       <formula>G9^2&lt;4*G10^2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="52" priority="5">
+    <cfRule type="expression" dxfId="53" priority="5">
       <formula>$C$4&lt;=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="51" priority="1">
+    <cfRule type="expression" dxfId="52" priority="1">
       <formula>C5&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="50" priority="10">
+    <cfRule type="expression" dxfId="51" priority="10">
       <formula>OR(C5&gt;C6, C6&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="49" priority="9">
+    <cfRule type="expression" dxfId="50" priority="9">
       <formula>AND(C7&lt;&gt;330, C7&lt;&gt;270, C7&lt;&gt;250)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="48" priority="8">
+    <cfRule type="expression" dxfId="49" priority="8">
       <formula>C8&lt;&gt;40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="47" priority="7">
+    <cfRule type="expression" dxfId="48" priority="7">
       <formula>C9&lt;&gt;100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K4">
-    <cfRule type="expression" dxfId="46" priority="15">
+    <cfRule type="expression" dxfId="47" priority="15">
       <formula>OR(($K$8&gt;($C$5+$C$6-2*$C$7)),$K$3&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3:M32">
-    <cfRule type="expression" dxfId="45" priority="2">
+    <cfRule type="expression" dxfId="46" priority="2">
       <formula>Q3&gt;=1000000</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="13">
+    <cfRule type="expression" dxfId="45" priority="13">
       <formula>Q3=MIN($Q$3:$Q32)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:O32">
-    <cfRule type="expression" dxfId="43" priority="3">
+    <cfRule type="expression" dxfId="44" priority="3">
       <formula>Q3&gt;=1000000</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="12">
+    <cfRule type="expression" dxfId="43" priority="12">
       <formula>Q3=MIN($Q$3:$Q32)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:P32">
-    <cfRule type="expression" dxfId="41" priority="4">
+    <cfRule type="expression" dxfId="42" priority="4">
       <formula>Q3&gt;=1000000</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="11">
+    <cfRule type="expression" dxfId="41" priority="11">
       <formula>Q3=MIN($Q$3:$Q32)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R3:R32">
-    <cfRule type="expression" dxfId="39" priority="14">
+    <cfRule type="expression" dxfId="40" priority="14">
       <formula>Q3=MIN($Q$3:$Q32)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15894,9 +15905,7 @@
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:R170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>
   <cols>
@@ -15955,7 +15964,7 @@
         <v>2</v>
       </c>
       <c r="L2" s="97" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="M2" s="106" t="s">
         <v>160</v>
@@ -15972,7 +15981,7 @@
         <v>500.00000001278181</v>
       </c>
       <c r="R2" s="62">
-        <f>C64+Q2</f>
+        <f>C65+Q2</f>
         <v>-649.97399998721812</v>
       </c>
     </row>
@@ -15987,10 +15996,10 @@
         <v>8922.7000000000007</v>
       </c>
       <c r="E3" s="55" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F3" s="61" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G3" s="65" t="s">
         <v>203</v>
@@ -16000,7 +16009,7 @@
         <v>500.01603829462465</v>
       </c>
       <c r="I3" s="82">
-        <f>$C$64+H3</f>
+        <f>$C$65+H3</f>
         <v>-649.95796170537528</v>
       </c>
       <c r="K3" s="55">
@@ -16008,7 +16017,7 @@
         <v>3</v>
       </c>
       <c r="L3" s="97" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="M3" s="106" t="s">
         <v>161</v>
@@ -16025,7 +16034,7 @@
         <v>499.99999998721819</v>
       </c>
       <c r="R3" s="62">
-        <f>C64+Q3</f>
+        <f>C65+Q3</f>
         <v>-649.97400001278174</v>
       </c>
     </row>
@@ -16040,10 +16049,10 @@
         <v>400</v>
       </c>
       <c r="E4" s="55" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F4" s="61" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G4" s="65" t="s">
         <v>203</v>
@@ -16053,7 +16062,7 @@
         <v>499.98396170537535</v>
       </c>
       <c r="I4" s="82">
-        <f>$C$64+H4</f>
+        <f>$C$65+H4</f>
         <v>-649.99003829462458</v>
       </c>
       <c r="K4" s="55">
@@ -16061,10 +16070,10 @@
         <v>4</v>
       </c>
       <c r="L4" s="97" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="M4" s="106" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="N4" s="54">
         <f>DEGREES($N$3)</f>
@@ -16074,7 +16083,7 @@
         <v>140</v>
       </c>
       <c r="Q4" s="62">
-        <f>Q2-C58</f>
+        <f>Q2-C59</f>
         <v>170.00000001278181</v>
       </c>
     </row>
@@ -16090,13 +16099,13 @@
       </c>
       <c r="D5" s="54"/>
       <c r="F5" s="61" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G5" s="65" t="s">
         <v>203</v>
       </c>
       <c r="H5" s="82">
-        <f>$H$3-$C$58</f>
+        <f>$H$3-$C$59</f>
         <v>170.01603829462465</v>
       </c>
       <c r="K5" s="55">
@@ -16114,7 +16123,7 @@
         <v>141</v>
       </c>
       <c r="Q5" s="62">
-        <f>Q3-C58</f>
+        <f>Q3-C59</f>
         <v>169.99999998721819</v>
       </c>
     </row>
@@ -16127,13 +16136,13 @@
       </c>
       <c r="D6" s="68"/>
       <c r="F6" s="61" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G6" s="65" t="s">
         <v>203</v>
       </c>
       <c r="H6" s="102">
-        <f>$H$4-$C$58</f>
+        <f>$H$4-$C$59</f>
         <v>169.98396170537535</v>
       </c>
       <c r="K6" s="55">
@@ -16162,7 +16171,7 @@
         <v>159</v>
       </c>
       <c r="F7" s="69" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G7" s="72" t="s">
         <v>204</v>
@@ -16172,7 +16181,7 @@
         <v>0.64200000000000002</v>
       </c>
       <c r="I7" s="82">
-        <f>$C$65+$H$7</f>
+        <f>$C$66+$H$7</f>
         <v>0.71499999999999997</v>
       </c>
       <c r="K7" s="55">
@@ -16190,7 +16199,7 @@
         <v>153</v>
       </c>
       <c r="Q7" s="70">
-        <f>C62+C10/2</f>
+        <f>C63+C10/2</f>
         <v>-648.5</v>
       </c>
     </row>
@@ -16203,7 +16212,7 @@
         <v>159</v>
       </c>
       <c r="F8" s="109" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G8" s="110" t="s">
         <v>204</v>
@@ -16213,7 +16222,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="108">
-        <f>$C$65+$H$8</f>
+        <f>$C$66+$H$8</f>
         <v>1.073</v>
       </c>
       <c r="K8" s="55">
@@ -16227,18 +16236,18 @@
         <v>98</v>
       </c>
       <c r="N8" s="54">
-        <f>$N$10-$C$60</f>
+        <f>$N$10-$C$61</f>
         <v>8730.2000000000007</v>
       </c>
       <c r="P8" s="61" t="s">
         <v>142</v>
       </c>
       <c r="Q8" s="62">
-        <f>-C61+(N16+N17)/2+C6/2-N153</f>
+        <f>-C62+(N16+N17)/2+C6/2-N153</f>
         <v>-8.3385574269177596</v>
       </c>
       <c r="R8" s="62">
-        <f t="shared" ref="R8:R14" si="1">$C$63+Q8</f>
+        <f t="shared" ref="R8:R14" si="1">$C$64+Q8</f>
         <v>-558.35755742691777</v>
       </c>
     </row>
@@ -16263,14 +16272,14 @@
         <v>157</v>
       </c>
       <c r="N9" s="54">
-        <f>$C$58-$C$59/2</f>
+        <f>$C$59-$C$60/2</f>
         <v>310</v>
       </c>
       <c r="P9" s="61" t="s">
         <v>96</v>
       </c>
       <c r="Q9" s="62">
-        <f>-C61+N15+C6/2-N153</f>
+        <f>-C62+N15+C6/2-N153</f>
         <v>-8.337590837638345</v>
       </c>
       <c r="R9" s="62">
@@ -16308,7 +16317,7 @@
         <v>143</v>
       </c>
       <c r="Q10" s="62">
-        <f>C61-(N19+N20)/2-C6/2+N153</f>
+        <f>C62-(N19+N20)/2-C6/2+N153</f>
         <v>19.565491184843268</v>
       </c>
       <c r="R10" s="62">
@@ -16326,7 +16335,7 @@
         <v>205</v>
       </c>
       <c r="H11" s="82">
-        <f>$C$62+C10/2</f>
+        <f>$C$63+C10/2</f>
         <v>-648.5</v>
       </c>
       <c r="K11" s="55">
@@ -16347,7 +16356,7 @@
         <v>99</v>
       </c>
       <c r="Q11" s="62">
-        <f>C61-N18-C6/2+N153</f>
+        <f>C62-N18-C6/2+N153</f>
         <v>19.56330812012493</v>
       </c>
       <c r="R11" s="62">
@@ -16371,7 +16380,7 @@
         <v>-11.905406231671805</v>
       </c>
       <c r="I12" s="82">
-        <f>$C$63+H12</f>
+        <f>$C$64+H12</f>
         <v>-561.92440623167181</v>
       </c>
       <c r="K12" s="55">
@@ -16382,7 +16391,7 @@
         <v>245</v>
       </c>
       <c r="M12" s="106" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="N12" s="54">
         <f>($C$5-$C$4)/2</f>
@@ -16392,7 +16401,7 @@
         <v>151</v>
       </c>
       <c r="Q12" s="62" t="e">
-        <f>C61-(N19+N20)/2-C6/2+N153-#REF!/2-C34+C35/2</f>
+        <f>C62-(N19+N20)/2-C6/2+N153-#REF!/2-C35+C36/2</f>
         <v>#REF!</v>
       </c>
       <c r="R12" s="62" t="e">
@@ -16418,7 +16427,7 @@
         <v>23.132339989597313</v>
       </c>
       <c r="I13" s="82">
-        <f>$C$63+H13</f>
+        <f>$C$64+H13</f>
         <v>-526.88666001040269</v>
       </c>
       <c r="K13" s="55">
@@ -16432,14 +16441,14 @@
         <v>174</v>
       </c>
       <c r="N13" s="54">
-        <f>$C$61+$N$7</f>
+        <f>$C$62+$N$7</f>
         <v>8926.1943808938086</v>
       </c>
       <c r="P13" s="61" t="s">
         <v>146</v>
       </c>
       <c r="Q13" s="62" t="e">
-        <f>-Q12+C43</f>
+        <f>-Q12+C44</f>
         <v>#REF!</v>
       </c>
       <c r="R13" s="62" t="e">
@@ -16465,7 +16474,7 @@
         <v>-11.90443964239239</v>
       </c>
       <c r="I14" s="82">
-        <f>$C$63+H14</f>
+        <f>$C$64+H14</f>
         <v>-561.9234396423924</v>
       </c>
       <c r="K14" s="55">
@@ -16486,7 +16495,7 @@
         <v>147</v>
       </c>
       <c r="Q14" s="62" t="e">
-        <f>-C61+(N16+N17)/2+C6/2-N153+#REF!/2+C38-C39/2</f>
+        <f>-C62+(N16+N17)/2+C6/2-N153+#REF!/2+C39-C40/2</f>
         <v>#REF!</v>
       </c>
       <c r="R14" s="62" t="e">
@@ -16513,7 +16522,7 @@
         <v>23.130156924878975</v>
       </c>
       <c r="I15" s="82">
-        <f>$C$63+H15</f>
+        <f>$C$64+H15</f>
         <v>-526.88884307512103</v>
       </c>
       <c r="K15" s="55">
@@ -16601,11 +16610,11 @@
         <v>131</v>
       </c>
       <c r="Q17" s="62">
-        <f>N25-C61+C6/2-N153</f>
+        <f>N25-C62+C6/2-N153</f>
         <v>-7.6307545676227164</v>
       </c>
       <c r="R17" s="62">
-        <f>$C$63+Q17</f>
+        <f>$C$64+Q17</f>
         <v>-557.64975456762272</v>
       </c>
     </row>
@@ -16642,11 +16651,11 @@
         <v>126</v>
       </c>
       <c r="Q18" s="62" t="e">
-        <f>-Q12+C43</f>
+        <f>-Q12+C44</f>
         <v>#REF!</v>
       </c>
       <c r="R18" s="62" t="e">
-        <f>$C$63+Q18</f>
+        <f>$C$64+Q18</f>
         <v>#REF!</v>
       </c>
     </row>
@@ -16663,7 +16672,7 @@
         <v>206</v>
       </c>
       <c r="H19" s="82">
-        <f>-$C$35/2+$C$34-$C$30</f>
+        <f>-$C$36/2+$C$35-$C$31</f>
         <v>-76.724999999999994</v>
       </c>
       <c r="I19" s="104"/>
@@ -16689,7 +16698,7 @@
         <v>-7.6318892500185029</v>
       </c>
       <c r="R19" s="62">
-        <f>$C$63+Q19</f>
+        <f>$C$64+Q19</f>
         <v>-557.65088925001851</v>
       </c>
     </row>
@@ -16711,11 +16720,11 @@
         <v>206</v>
       </c>
       <c r="H20" s="82">
-        <f ca="1">$H$13-$H$18/2-$C$34+$C$39/2</f>
+        <f ca="1">$H$13-$H$18/2-$C$35+$C$40/2</f>
         <v>22.287339989597314</v>
       </c>
       <c r="I20" s="82">
-        <f ca="1">$C$63+H20</f>
+        <f ca="1">$C$64+H20</f>
         <v>-527.73166001040272</v>
       </c>
       <c r="K20" s="55">
@@ -16740,7 +16749,7 @@
         <v>483.9249999872182</v>
       </c>
       <c r="R20" s="62">
-        <f>C64+Q20</f>
+        <f>C65+Q20</f>
         <v>-666.04900001278179</v>
       </c>
     </row>
@@ -16762,11 +16771,11 @@
         <v>206</v>
       </c>
       <c r="H21" s="82">
-        <f ca="1">-$H$20+$C$43</f>
+        <f ca="1">-$H$20+$C$44</f>
         <v>-11.287339989597314</v>
       </c>
       <c r="I21" s="82">
-        <f ca="1">$C$63+H21</f>
+        <f ca="1">$C$64+H21</f>
         <v>-561.30633998959729</v>
       </c>
       <c r="K21" s="55">
@@ -16774,7 +16783,7 @@
         <v>21</v>
       </c>
       <c r="L21" s="97" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="M21" s="106" t="s">
         <v>170</v>
@@ -16820,7 +16829,7 @@
         <v>22</v>
       </c>
       <c r="L22" s="97" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="M22" s="106" t="s">
         <v>169</v>
@@ -16839,10 +16848,10 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A23" s="55" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B23" s="66" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C23" s="67">
         <v>102</v>
@@ -16854,7 +16863,7 @@
         <v>206</v>
       </c>
       <c r="H23" s="82">
-        <f>$C$39/2-$C$38+$C$30</f>
+        <f>$C$40/2-$C$39+$C$31</f>
         <v>77.799999999999983</v>
       </c>
       <c r="I23" s="104"/>
@@ -16882,10 +16891,10 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A24" s="55" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B24" s="66" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C24" s="67">
         <v>85</v>
@@ -16897,11 +16906,11 @@
         <v>206</v>
       </c>
       <c r="H24" s="82">
-        <f ca="1">-$N$13*$N$6+$N$21+$H$22/2+$C$38-$C$39/2</f>
+        <f ca="1">-$N$13*$N$6+$N$21+$H$22/2+$C$39-$C$40/2</f>
         <v>-11.203906231671795</v>
       </c>
       <c r="I24" s="82">
-        <f ca="1">$C$63+H24</f>
+        <f ca="1">$C$64+H24</f>
         <v>-561.2229062316718</v>
       </c>
       <c r="K24" s="55">
@@ -16943,11 +16952,11 @@
         <v>203</v>
       </c>
       <c r="H25" s="82">
-        <f>$H$3-$C$40</f>
+        <f>$H$3-$C$41</f>
         <v>468.01603829462465</v>
       </c>
       <c r="I25" s="82">
-        <f>$C$64+H25</f>
+        <f>$C$65+H25</f>
         <v>-681.95796170537528</v>
       </c>
       <c r="K25" s="55">
@@ -16955,7 +16964,7 @@
         <v>25</v>
       </c>
       <c r="L25" s="97" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="M25" s="106" t="s">
         <v>124</v>
@@ -16974,10 +16983,10 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B26" s="66" t="s">
-        <v>305</v>
+        <v>477</v>
       </c>
       <c r="C26" s="71">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F26" s="61" t="s">
         <v>188</v>
@@ -16986,11 +16995,11 @@
         <v>203</v>
       </c>
       <c r="H26" s="82">
-        <f>$H$4-$C$37</f>
+        <f>$H$4-$C$38</f>
         <v>474.98396170537535</v>
       </c>
       <c r="I26" s="82">
-        <f>$C$64+H26</f>
+        <f>$C$65+H26</f>
         <v>-674.99003829462458</v>
       </c>
       <c r="K26" s="55">
@@ -16998,7 +17007,7 @@
         <v>26</v>
       </c>
       <c r="L26" s="97" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="M26" s="106" t="s">
         <v>172</v>
@@ -17010,10 +17019,10 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B27" s="66" t="s">
-        <v>298</v>
+        <v>478</v>
       </c>
       <c r="C27" s="71">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="H27" s="57"/>
       <c r="I27" s="57"/>
@@ -17022,7 +17031,7 @@
         <v>27</v>
       </c>
       <c r="L27" s="97" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="M27" s="106" t="s">
         <v>173</v>
@@ -17034,8 +17043,12 @@
       <c r="P27" s="54"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="B28" s="73"/>
-      <c r="C28" s="74"/>
+      <c r="B28" s="66" t="s">
+        <v>298</v>
+      </c>
+      <c r="C28" s="71">
+        <v>3</v>
+      </c>
       <c r="F28" s="77" t="s">
         <v>191</v>
       </c>
@@ -17047,22 +17060,20 @@
         <v>28</v>
       </c>
       <c r="L28" s="97" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M28" s="106" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="N28" s="54">
-        <f>$C$5-$C$48</f>
+        <f>$C$5-$C$49</f>
         <v>590</v>
       </c>
       <c r="P28" s="54"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="B29" s="77" t="s">
-        <v>299</v>
-      </c>
-      <c r="C29" s="80"/>
+      <c r="B29" s="73"/>
+      <c r="C29" s="74"/>
       <c r="F29" s="61" t="s">
         <v>118</v>
       </c>
@@ -17074,7 +17085,7 @@
         <v>487.96603829462464</v>
       </c>
       <c r="I29" s="82">
-        <f>$C$64+H29</f>
+        <f>$C$65+H29</f>
         <v>-662.00796170537524</v>
       </c>
       <c r="K29" s="55">
@@ -17082,10 +17093,10 @@
         <v>29</v>
       </c>
       <c r="L29" s="97" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="M29" s="106" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="N29" s="54">
         <f>SQRT($C$3^2-$N$28^2)</f>
@@ -17093,15 +17104,10 @@
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A30" s="55" t="s">
-        <v>300</v>
-      </c>
-      <c r="B30" s="66" t="s">
-        <v>100</v>
-      </c>
-      <c r="C30" s="67">
-        <v>7.0000000000000007E-2</v>
-      </c>
+      <c r="B30" s="77" t="s">
+        <v>299</v>
+      </c>
+      <c r="C30" s="80"/>
       <c r="F30" s="61" t="s">
         <v>179</v>
       </c>
@@ -17113,7 +17119,7 @@
         <v>479.91603829462463</v>
       </c>
       <c r="I30" s="82">
-        <f>$C$64+H30</f>
+        <f>$C$65+H30</f>
         <v>-670.05796170537531</v>
       </c>
       <c r="K30" s="55">
@@ -17133,11 +17139,14 @@
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A31" s="55" t="s">
+        <v>300</v>
+      </c>
       <c r="B31" s="66" t="s">
-        <v>301</v>
-      </c>
-      <c r="C31" s="91" t="s">
-        <v>302</v>
+        <v>100</v>
+      </c>
+      <c r="C31" s="67">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F31" s="61" t="s">
         <v>166</v>
@@ -17150,7 +17159,7 @@
         <v>483.94103829462466</v>
       </c>
       <c r="I31" s="82">
-        <f>$C$64+H31</f>
+        <f>$C$65+H31</f>
         <v>-666.03296170537533</v>
       </c>
       <c r="K31" s="55">
@@ -17158,7 +17167,7 @@
         <v>31</v>
       </c>
       <c r="L31" s="97" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M31" s="106" t="str">
         <f>IF($C$25&gt;=4, "振分中心-内面溝2列目間距離", "-")</f>
@@ -17170,6 +17179,12 @@
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B32" s="66" t="s">
+        <v>301</v>
+      </c>
+      <c r="C32" s="91" t="s">
+        <v>302</v>
+      </c>
       <c r="F32" s="62" t="s">
         <v>167</v>
       </c>
@@ -17185,7 +17200,7 @@
         <v>32</v>
       </c>
       <c r="L32" s="97" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="M32" s="106" t="str">
         <f>IF($C$25&gt;=5, "振分中心-内面溝3列目間距離", "-")</f>
@@ -17197,9 +17212,6 @@
       </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B33" s="56" t="s">
-        <v>193</v>
-      </c>
       <c r="F33" s="62" t="s">
         <v>131</v>
       </c>
@@ -17211,7 +17223,7 @@
         <v>-11.197603372376761</v>
       </c>
       <c r="I33" s="82">
-        <f>$C$63+H33</f>
+        <f>$C$64+H33</f>
         <v>-561.21660337237677</v>
       </c>
       <c r="K33" s="55">
@@ -17219,7 +17231,7 @@
         <v>33</v>
       </c>
       <c r="L33" s="97" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M33" s="106" t="str">
         <f>IF($C$25&gt;=6, "振分中心-内面溝4列目間距離", "-")</f>
@@ -17231,11 +17243,8 @@
       </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B34" s="66" t="s">
-        <v>101</v>
-      </c>
-      <c r="C34" s="85">
-        <v>13.82</v>
+      <c r="B34" s="56" t="s">
+        <v>193</v>
       </c>
       <c r="F34" s="62" t="s">
         <v>126</v>
@@ -17248,7 +17257,7 @@
         <v>-11.287339989597314</v>
       </c>
       <c r="I34" s="82">
-        <f ca="1">$C$63+H34</f>
+        <f ca="1">$C$64+H34</f>
         <v>-561.30633998959729</v>
       </c>
       <c r="K34" s="55">
@@ -17256,7 +17265,7 @@
         <v>34</v>
       </c>
       <c r="L34" s="97" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M34" s="106" t="str">
         <f>IF($C$25&gt;=7, "振分中心-内面溝5列目間距離", "-")</f>
@@ -17269,10 +17278,10 @@
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B35" s="66" t="s">
-        <v>282</v>
+        <v>101</v>
       </c>
       <c r="C35" s="85">
-        <v>180.95</v>
+        <v>13.82</v>
       </c>
       <c r="F35" s="62" t="s">
         <v>209</v>
@@ -17285,7 +17294,7 @@
         <v>-11.759084462064493</v>
       </c>
       <c r="I35" s="82">
-        <f>$C$63+H35</f>
+        <f>$C$64+H35</f>
         <v>-561.7780844620645</v>
       </c>
       <c r="K35" s="55">
@@ -17293,7 +17302,7 @@
         <v>35</v>
       </c>
       <c r="L35" s="97" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="M35" s="106" t="str">
         <f>IF($C$25&gt;=8, "振分中心-内面溝6列目間距離", "-")</f>
@@ -17306,7 +17315,7 @@
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B36" s="66" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C36" s="85">
         <v>180.95</v>
@@ -17338,10 +17347,10 @@
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B37" s="66" t="s">
-        <v>177</v>
+        <v>283</v>
       </c>
       <c r="C37" s="85">
-        <v>25</v>
+        <v>180.95</v>
       </c>
       <c r="F37" s="62" t="s">
         <v>171</v>
@@ -17354,7 +17363,7 @@
         <v>-11.203906231671795</v>
       </c>
       <c r="I37" s="82">
-        <f ca="1">$C$63+H37</f>
+        <f ca="1">$C$64+H37</f>
         <v>-561.2229062316718</v>
       </c>
       <c r="K37" s="55">
@@ -17374,11 +17383,10 @@
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B38" s="66" t="s">
-        <v>105</v>
+        <v>177</v>
       </c>
       <c r="C38" s="85">
-        <f>12.745</f>
-        <v>12.744999999999999</v>
+        <v>25</v>
       </c>
       <c r="F38" s="54"/>
       <c r="G38" s="57"/>
@@ -17402,10 +17410,11 @@
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B39" s="66" t="s">
-        <v>465</v>
+        <v>105</v>
       </c>
       <c r="C39" s="85">
-        <v>180.95</v>
+        <f>12.745</f>
+        <v>12.744999999999999</v>
       </c>
       <c r="F39" s="84" t="s">
         <v>207</v>
@@ -17418,7 +17427,7 @@
         <v>39</v>
       </c>
       <c r="L39" s="97" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M39" s="106" t="str">
         <f>IF($C$25&gt;=4,"λj ≦ q+pz &lt; λj+1 の λj", "-")</f>
@@ -17431,10 +17440,10 @@
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B40" s="66" t="s">
-        <v>176</v>
+        <v>464</v>
       </c>
       <c r="C40" s="85">
-        <v>32</v>
+        <v>180.95</v>
       </c>
       <c r="F40" s="62" t="s">
         <v>181</v>
@@ -17443,11 +17452,11 @@
         <v>203</v>
       </c>
       <c r="H40" s="82">
-        <f>$H$3-$C$52</f>
+        <f>$H$3-$C$53</f>
         <v>499.01603829462465</v>
       </c>
       <c r="I40" s="82">
-        <f>$C$64+H40</f>
+        <f>$C$65+H40</f>
         <v>-650.95796170537528</v>
       </c>
       <c r="K40" s="55">
@@ -17455,7 +17464,7 @@
         <v>40</v>
       </c>
       <c r="L40" s="97" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M40" s="106" t="str">
         <f>IF($C$25&gt;=5,"λj ≦ q+2pz &lt; λj+1 の λj", "-")</f>
@@ -17468,6 +17477,12 @@
       <c r="P40" s="54"/>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B41" s="66" t="s">
+        <v>176</v>
+      </c>
+      <c r="C41" s="85">
+        <v>32</v>
+      </c>
       <c r="F41" s="62" t="s">
         <v>180</v>
       </c>
@@ -17475,11 +17490,11 @@
         <v>203</v>
       </c>
       <c r="H41" s="82">
-        <f>$H$3-$C$54</f>
+        <f>$H$3-$C$55</f>
         <v>499.51603829462465</v>
       </c>
       <c r="I41" s="82">
-        <f>$C$64+H41</f>
+        <f>$C$65+H41</f>
         <v>-650.45796170537528</v>
       </c>
       <c r="K41" s="55">
@@ -17487,7 +17502,7 @@
         <v>41</v>
       </c>
       <c r="L41" s="97" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M41" s="106" t="str">
         <f>IF($C$25&gt;=6,"λj ≦ q+3pz &lt; λj+1 の λj", "-")</f>
@@ -17499,9 +17514,6 @@
       </c>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B42" s="56" t="s">
-        <v>194</v>
-      </c>
       <c r="F42" s="62" t="s">
         <v>182</v>
       </c>
@@ -17509,11 +17521,11 @@
         <v>203</v>
       </c>
       <c r="H42" s="82">
-        <f>$H$4-$C$46</f>
+        <f>$H$4-$C$47</f>
         <v>495.98396170537535</v>
       </c>
       <c r="I42" s="82">
-        <f>$C$64+H42</f>
+        <f>$C$65+H42</f>
         <v>-653.99003829462458</v>
       </c>
       <c r="K42" s="55">
@@ -17521,7 +17533,7 @@
         <v>42</v>
       </c>
       <c r="L42" s="97" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M42" s="106" t="str">
         <f>IF($C$25&gt;=7,"λj ≦ q+4pz &lt; λj+1 の λj", "-")</f>
@@ -17533,11 +17545,8 @@
       </c>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B43" s="66" t="s">
-        <v>102</v>
-      </c>
-      <c r="C43" s="85">
-        <v>11</v>
+      <c r="B43" s="56" t="s">
+        <v>194</v>
       </c>
       <c r="F43" s="62" t="s">
         <v>183</v>
@@ -17546,11 +17555,11 @@
         <v>203</v>
       </c>
       <c r="H43" s="82">
-        <f>$H$4-$C$48</f>
+        <f>$H$4-$C$49</f>
         <v>489.98396170537535</v>
       </c>
       <c r="I43" s="82">
-        <f>$C$64+H43</f>
+        <f>$C$65+H43</f>
         <v>-659.99003829462458</v>
       </c>
       <c r="K43" s="55">
@@ -17558,7 +17567,7 @@
         <v>43</v>
       </c>
       <c r="L43" s="97" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M43" s="106" t="str">
         <f>IF($C$25&gt;=8,"λj ≦ q+5pz &lt; λj+1 の λj", "-")</f>
@@ -17570,8 +17579,14 @@
       </c>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B44" s="66" t="s">
+        <v>102</v>
+      </c>
+      <c r="C44" s="85">
+        <v>11</v>
+      </c>
       <c r="F44" s="62" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G44" s="82" t="s">
         <v>206</v>
@@ -17583,10 +17598,10 @@
         <v>44</v>
       </c>
       <c r="L44" s="97" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="M44" s="106" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="N44" s="54">
         <f ca="1">LOOKUP($C$20+($C$25-2)*$C$21, INDIRECT($H$52&amp;"!$A:$A"))</f>
@@ -17594,9 +17609,6 @@
       </c>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B45" s="56" t="s">
-        <v>466</v>
-      </c>
       <c r="F45" s="62" t="s">
         <v>189</v>
       </c>
@@ -17613,10 +17625,10 @@
         <v>45</v>
       </c>
       <c r="L45" s="97" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M45" s="106" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="N45" s="54">
         <f ca="1">LOOKUP($C$20+($C$25-1)*$C$21, INDIRECT($H$52&amp;"!$A:$A"))</f>
@@ -17624,11 +17636,8 @@
       </c>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B46" s="66" t="s">
-        <v>213</v>
-      </c>
-      <c r="C46" s="67">
-        <v>4</v>
+      <c r="B46" s="56" t="s">
+        <v>465</v>
       </c>
       <c r="F46" s="76"/>
       <c r="G46" s="74"/>
@@ -17652,10 +17661,10 @@
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B47" s="66" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C47" s="67">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F47" s="86" t="s">
         <v>192</v>
@@ -17667,7 +17676,7 @@
         <v>47</v>
       </c>
       <c r="L47" s="97" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="M47" s="106" t="str">
         <f>IF($C$25&gt;=4,"λj ≦ q+pz &lt; λj+1 の λj+1", "-")</f>
@@ -17680,13 +17689,13 @@
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B48" s="66" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C48" s="67">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E48" s="55" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F48" s="87" t="s">
         <v>136</v>
@@ -17703,7 +17712,7 @@
         <v>48</v>
       </c>
       <c r="L48" s="97" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M48" s="106" t="str">
         <f>IF($C$25&gt;=5,"λj ≦ q+2pz &lt; λj+1 の λj+1", "-")</f>
@@ -17716,13 +17725,13 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B49" s="66" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C49" s="67">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E49" s="55" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F49" s="62" t="s">
         <v>137</v>
@@ -17739,7 +17748,7 @@
         <v>49</v>
       </c>
       <c r="L49" s="97" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M49" s="106" t="str">
         <f>IF($C$25&gt;=6,"λj ≦ q+3pz &lt; λj+1 の λj+1", "-")</f>
@@ -17751,8 +17760,14 @@
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B50" s="66" t="s">
+        <v>216</v>
+      </c>
+      <c r="C50" s="67">
+        <v>15</v>
+      </c>
       <c r="F50" s="62" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G50" s="82" t="s">
         <v>197</v>
@@ -17766,7 +17781,7 @@
         <v>50</v>
       </c>
       <c r="L50" s="97" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="M50" s="106" t="str">
         <f>IF($C$25&gt;=7,"λj ≦ q+4pz &lt; λj+1 の λj+1", "-")</f>
@@ -17778,11 +17793,8 @@
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B51" s="56" t="s">
-        <v>467</v>
-      </c>
       <c r="F51" s="62" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G51" s="82" t="s">
         <v>197</v>
@@ -17796,7 +17808,7 @@
         <v>51</v>
       </c>
       <c r="L51" s="97" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="M51" s="106" t="str">
         <f>IF($C$25&gt;=8,"λj ≦ q+5pz &lt; λj+1 の λj+1", "-")</f>
@@ -17808,11 +17820,8 @@
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B52" s="66" t="s">
-        <v>217</v>
-      </c>
-      <c r="C52" s="67">
-        <v>1</v>
+      <c r="B52" s="56" t="s">
+        <v>466</v>
       </c>
       <c r="F52" s="62" t="s">
         <v>301</v>
@@ -17821,7 +17830,7 @@
         <v>197</v>
       </c>
       <c r="H52" s="82" t="str">
-        <f>IF(ISNUMBER(VALUE(LEFT($C$31, 1))), TEXT($C$31, "00000"), LEFT($C$31, 1) &amp; TEXT(MID($C$31, 2, LEN($C$31) - 1), "00000"))</f>
+        <f>IF(ISNUMBER(VALUE(LEFT($C$32, 1))), TEXT($C$32, "00000"), LEFT($C$32, 1) &amp; TEXT(MID($C$32, 2, LEN($C$32) - 1), "00000"))</f>
         <v>e00937</v>
       </c>
       <c r="K52" s="55">
@@ -17829,10 +17838,10 @@
         <v>52</v>
       </c>
       <c r="L52" s="97" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="M52" s="106" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="N52" s="96" cm="1">
         <f t="array" aca="1" ref="N52" ca="1">INDEX(INDIRECT($H$52&amp;"!$A:$A"), MATCH($N44, INDIRECT($H$52&amp;"!$A:$A"), 0) +1)</f>
@@ -17841,20 +17850,20 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B53" s="66" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C53" s="67">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="F53" s="84" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="K53" s="55">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="L53" s="97" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M53" s="106" t="s">
         <v>227</v>
@@ -17866,13 +17875,13 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B54" s="66" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C54" s="67">
-        <v>0.5</v>
+        <v>45</v>
       </c>
       <c r="E54" s="55" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F54" s="62" t="str">
         <f>IF($C$25&gt;=3,"内面溝1列目-トップ端 湾曲中心間X距離", "-")</f>
@@ -17882,7 +17891,7 @@
         <v>206</v>
       </c>
       <c r="H54" s="82">
-        <f>IF($C$25&gt;=$C$66-5,$N$70-$N$15, "-")</f>
+        <f>IF($C$25&gt;=$C$67-5,$N$70-$N$15, "-")</f>
         <v>3.5836378510248323</v>
       </c>
       <c r="K54" s="55">
@@ -17903,13 +17912,13 @@
     </row>
     <row r="55" spans="1:14" ht="16.5" x14ac:dyDescent="0.4">
       <c r="B55" s="66" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="C55" s="67">
-        <v>45</v>
+        <v>0.5</v>
       </c>
       <c r="E55" s="55" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F55" s="62" t="str">
         <f>IF($C$25&gt;=4,"内面溝2列目-トップ端 湾曲中心間X距離", "-")</f>
@@ -17919,7 +17928,7 @@
         <v>206</v>
       </c>
       <c r="H55" s="82">
-        <f>IF($C$25&gt;=$C66-4,$N$71-$N$15, "-")</f>
+        <f>IF($C$25&gt;=$C67-4,$N$71-$N$15, "-")</f>
         <v>4.2564608749580657</v>
       </c>
       <c r="K55" s="55">
@@ -17927,7 +17936,7 @@
         <v>55</v>
       </c>
       <c r="L55" s="97" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="M55" s="106" t="str">
         <f>IF($C$25&gt;=4,"q+pz-λj","")</f>
@@ -17939,6 +17948,12 @@
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B56" s="66" t="s">
+        <v>212</v>
+      </c>
+      <c r="C56" s="67">
+        <v>45</v>
+      </c>
       <c r="F56" s="62" t="str">
         <f>IF($C$25&gt;=5,"内面溝3列目-トップ端 湾曲中心間X距離", "-")</f>
         <v>内面溝3列目-トップ端 湾曲中心間X距離</v>
@@ -17947,7 +17962,7 @@
         <v>206</v>
       </c>
       <c r="H56" s="82">
-        <f>IF($C$25&gt;=$C$66-3,$N$72-$N$15, "-")</f>
+        <f>IF($C$25&gt;=$C$67-3,$N$72-$N$15, "-")</f>
         <v>4.8843832356542407</v>
       </c>
       <c r="K56" s="55">
@@ -17955,7 +17970,7 @@
         <v>56</v>
       </c>
       <c r="L56" s="97" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="M56" s="106" t="str">
         <f>IF($C$25&gt;=5,"q+2pz-λj","")</f>
@@ -17967,10 +17982,6 @@
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B57" s="77" t="s">
-        <v>211</v>
-      </c>
-      <c r="C57" s="80"/>
       <c r="F57" s="62" t="str">
         <f>IF($C$25&gt;=6,"内面溝4列目-トップ端 湾曲中心間X距離", "-")</f>
         <v>内面溝4列目-トップ端 湾曲中心間X距離</v>
@@ -17979,7 +17990,7 @@
         <v>206</v>
       </c>
       <c r="H57" s="82">
-        <f>IF($C$25&gt;=$C$66-2,$N$73-$N$15, "-")</f>
+        <f>IF($C$25&gt;=$C$67-2,$N$73-$N$15, "-")</f>
         <v>5.4674144162945595</v>
       </c>
       <c r="K57" s="55">
@@ -17987,7 +17998,7 @@
         <v>57</v>
       </c>
       <c r="L57" s="97" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="M57" s="106" t="str">
         <f>IF($C$25&gt;=6,"q+3pz-λj","")</f>
@@ -17999,15 +18010,10 @@
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A58" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="B58" s="66" t="s">
-        <v>26</v>
-      </c>
-      <c r="C58" s="71">
-        <v>330</v>
-      </c>
+      <c r="B58" s="77" t="s">
+        <v>211</v>
+      </c>
+      <c r="C58" s="80"/>
       <c r="F58" s="62" t="str">
         <f>IF($C$25&gt;=7,"内面溝5列目-トップ端 湾曲中心間X距離", "-")</f>
         <v>-</v>
@@ -18016,7 +18022,7 @@
         <v>206</v>
       </c>
       <c r="H58" s="82" t="str">
-        <f>IF($C$25&gt;=$C66-1,$N$74-$N$15, "-")</f>
+        <f>IF($C$25&gt;=$C67-1,$N$74-$N$15, "-")</f>
         <v>-</v>
       </c>
       <c r="K58" s="55">
@@ -18024,7 +18030,7 @@
         <v>58</v>
       </c>
       <c r="L58" s="97" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="M58" s="106" t="str">
         <f>IF($C$25&gt;=7,"q+4pz-λj","-")</f>
@@ -18037,13 +18043,13 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A59" s="55" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B59" s="66" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C59" s="71">
-        <v>40</v>
+        <v>330</v>
       </c>
       <c r="F59" s="62" t="str">
         <f>IF($C$25&gt;=8,"内面溝6列目-トップ端 湾曲中心間X距離", "-")</f>
@@ -18053,7 +18059,7 @@
         <v>206</v>
       </c>
       <c r="H59" s="82" t="str">
-        <f>IF($C$25&gt;=$C66,$N$75-$N$15, "-")</f>
+        <f>IF($C$25&gt;=$C67,$N$75-$N$15, "-")</f>
         <v>-</v>
       </c>
       <c r="K59" s="55">
@@ -18061,7 +18067,7 @@
         <v>59</v>
       </c>
       <c r="L59" s="97" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M59" s="106" t="str">
         <f>IF($C$25&gt;=8,"q+5pz-λj","-")</f>
@@ -18074,16 +18080,16 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A60" s="55" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B60" s="66" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C60" s="71">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="F60" s="62" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G60" s="65" t="s">
         <v>206</v>
@@ -18097,10 +18103,10 @@
         <v>60</v>
       </c>
       <c r="L60" s="97" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M60" s="106" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="N60" s="96">
         <f ca="1">$C$20+($C$25-2)*$C$21-$N$44</f>
@@ -18109,19 +18115,19 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A61" s="55" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B61" s="66" t="s">
-        <v>95</v>
-      </c>
-      <c r="C61" s="89">
-        <v>201.5</v>
+        <v>31</v>
+      </c>
+      <c r="C61" s="71">
+        <v>100</v>
       </c>
       <c r="E61" s="55" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F61" s="62" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G61" s="65" t="s">
         <v>206</v>
@@ -18146,14 +18152,17 @@
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A62" s="55" t="s">
+        <v>45</v>
+      </c>
       <c r="B62" s="66" t="s">
-        <v>152</v>
+        <v>95</v>
       </c>
       <c r="C62" s="89">
-        <v>-740</v>
+        <v>201.5</v>
       </c>
       <c r="E62" s="55" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F62" s="61" t="str">
         <f>IF($C$25&gt;=3,"（傾き前）1列目Z座標","-")</f>
@@ -18167,7 +18176,7 @@
         <v>410.01603829462465</v>
       </c>
       <c r="I62" s="82">
-        <f>IF($C$25&gt;=3,$C$64+H62,"-")</f>
+        <f>IF($C$25&gt;=3,$C$65+H62,"-")</f>
         <v>-739.95796170537528</v>
       </c>
       <c r="K62" s="55">
@@ -18188,13 +18197,13 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B63" s="66" t="s">
-        <v>103</v>
+        <v>152</v>
       </c>
       <c r="C63" s="89">
-        <v>-550.01900000000001</v>
+        <v>-740</v>
       </c>
       <c r="E63" s="55" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F63" s="61" t="str">
         <f>IF($C$25&gt;=4,"（傾き前）2列目Z座標","-")</f>
@@ -18208,7 +18217,7 @@
         <v>390.01603829462465</v>
       </c>
       <c r="I63" s="82">
-        <f>IF($C$25&gt;=4,$C$64+H63,"-")</f>
+        <f>IF($C$25&gt;=4,$C$65+H63,"-")</f>
         <v>-759.95796170537528</v>
       </c>
       <c r="K63" s="55">
@@ -18216,7 +18225,7 @@
         <v>63</v>
       </c>
       <c r="L63" s="97" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M63" s="106" t="str">
         <f>IF($C$25&gt;=4, "λj+1-q-pz", "-")</f>
@@ -18229,10 +18238,10 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B64" s="66" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C64" s="89">
-        <v>-1149.9739999999999</v>
+        <v>-550.01900000000001</v>
       </c>
       <c r="F64" s="61" t="str">
         <f>IF($C$25&gt;=5,"（傾き前）3列目Z座標","-")</f>
@@ -18246,7 +18255,7 @@
         <v>370.01603829462465</v>
       </c>
       <c r="I64" s="82">
-        <f>IF($C$25&gt;=5,$C$64+H64,"-")</f>
+        <f>IF($C$25&gt;=5,$C$65+H64,"-")</f>
         <v>-779.95796170537528</v>
       </c>
       <c r="K64" s="55">
@@ -18254,7 +18263,7 @@
         <v>64</v>
       </c>
       <c r="L64" s="97" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M64" s="106" t="str">
         <f>IF($C$25&gt;=5, "λj+1-q-2pz", "-")</f>
@@ -18267,10 +18276,10 @@
     </row>
     <row r="65" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B65" s="66" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="C65" s="89">
-        <v>7.2999999999999995E-2</v>
+        <v>-1149.9739999999999</v>
       </c>
       <c r="F65" s="61" t="str">
         <f>IF($C$25&gt;=6,"（傾き前）4列目Z座標","-")</f>
@@ -18284,7 +18293,7 @@
         <v>350.01603829462465</v>
       </c>
       <c r="I65" s="82">
-        <f>IF($C$25&gt;=6,$C$64+H65,"-")</f>
+        <f>IF($C$25&gt;=6,$C$65+H65,"-")</f>
         <v>-799.95796170537528</v>
       </c>
       <c r="K65" s="55">
@@ -18292,7 +18301,7 @@
         <v>65</v>
       </c>
       <c r="L65" s="97" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M65" s="106" t="str">
         <f>IF($C$25&gt;=6, "λj+1-q-3pz", "-")</f>
@@ -18305,10 +18314,10 @@
     </row>
     <row r="66" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B66" s="66" t="s">
-        <v>220</v>
-      </c>
-      <c r="C66" s="90">
-        <v>8</v>
+        <v>130</v>
+      </c>
+      <c r="C66" s="89">
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="F66" s="61" t="str">
         <f>IF($C$25&gt;=7,"（傾き前）5列目Z座標","-")</f>
@@ -18322,7 +18331,7 @@
         <v>-</v>
       </c>
       <c r="I66" s="82" t="str">
-        <f>IF($C$25&gt;=7,$C$64+H66,"-")</f>
+        <f>IF($C$25&gt;=7,$C$65+H66,"-")</f>
         <v>-</v>
       </c>
       <c r="K66" s="55">
@@ -18330,7 +18339,7 @@
         <v>66</v>
       </c>
       <c r="L66" s="97" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="M66" s="106" t="str">
         <f>IF($C$25&gt;=7, "λj+1-q-4pz", "-")</f>
@@ -18342,6 +18351,12 @@
       </c>
     </row>
     <row r="67" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B67" s="66" t="s">
+        <v>220</v>
+      </c>
+      <c r="C67" s="90">
+        <v>8</v>
+      </c>
       <c r="F67" s="61" t="str">
         <f>IF($C$25&gt;=8,"（傾き前）6列目Z座標","-")</f>
         <v>-</v>
@@ -18354,7 +18369,7 @@
         <v>-</v>
       </c>
       <c r="I67" s="82" t="str">
-        <f>IF($C$25&gt;=8,$C$64+H67,"-")</f>
+        <f>IF($C$25&gt;=8,$C$65+H67,"-")</f>
         <v>-</v>
       </c>
       <c r="J67" s="55"/>
@@ -18363,7 +18378,7 @@
         <v>67</v>
       </c>
       <c r="L67" s="97" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="M67" s="106" t="str">
         <f>IF($C$25&gt;=8, "λj+1-q-5pz", "-")</f>
@@ -18376,7 +18391,7 @@
     </row>
     <row r="68" spans="2:14" x14ac:dyDescent="0.4">
       <c r="F68" s="61" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G68" s="65" t="s">
         <v>203</v>
@@ -18386,7 +18401,7 @@
         <v>330.01603829462465</v>
       </c>
       <c r="I68" s="82">
-        <f>$C$64+H68</f>
+        <f>$C$65+H68</f>
         <v>-819.95796170537528</v>
       </c>
       <c r="K68" s="55">
@@ -18394,10 +18409,10 @@
         <v>68</v>
       </c>
       <c r="L68" s="97" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="M68" s="106" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N68" s="54">
         <f ca="1">$N$52-$C$20-($C$25-2)*$C$21</f>
@@ -18406,10 +18421,10 @@
     </row>
     <row r="69" spans="2:14" x14ac:dyDescent="0.4">
       <c r="E69" s="55" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F69" s="61" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G69" s="65" t="s">
         <v>203</v>
@@ -18419,7 +18434,7 @@
         <v>310.01603829462465</v>
       </c>
       <c r="I69" s="82">
-        <f>$C$64+H69</f>
+        <f>$C$65+H69</f>
         <v>-839.95796170537528</v>
       </c>
       <c r="K69" s="55">
@@ -18439,16 +18454,16 @@
     </row>
     <row r="70" spans="2:14" x14ac:dyDescent="0.4">
       <c r="E70" s="55" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F70" s="62" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G70" s="65" t="s">
         <v>206</v>
       </c>
       <c r="H70" s="82">
-        <f ca="1">$H$22+$C$30*2</f>
+        <f ca="1">$H$22+$C$31*2</f>
         <v>157.00299999999999</v>
       </c>
       <c r="K70" s="55">
@@ -18456,7 +18471,7 @@
         <v>70</v>
       </c>
       <c r="L70" s="97" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M70" s="106" t="str">
         <f>IF($C$25&gt;=3,"1列目湾曲中心X","-")</f>
@@ -18469,7 +18484,7 @@
     </row>
     <row r="71" spans="2:14" x14ac:dyDescent="0.4">
       <c r="E71" s="55" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F71" s="62" t="str">
         <f>IF($C$25&gt;=3,"1列目 AC内径（水平・めっき含・概算）","-")</f>
@@ -18479,7 +18494,7 @@
         <v>206</v>
       </c>
       <c r="H71" s="82">
-        <f ca="1">IF($C$25&gt;=3,($N$54*$N$86+$N$62*$N$78)/($N$46-$N$38)+$C$30*2,"-")</f>
+        <f ca="1">IF($C$25&gt;=3,($N$54*$N$86+$N$62*$N$78)/($N$46-$N$38)+$C$31*2,"-")</f>
         <v>156.59259999999998</v>
       </c>
       <c r="K71" s="55">
@@ -18487,7 +18502,7 @@
         <v>71</v>
       </c>
       <c r="L71" s="97" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="M71" s="106" t="str">
         <f>IF($C$25&gt;=4,"2列目湾曲中心X","-")</f>
@@ -18500,13 +18515,13 @@
     </row>
     <row r="72" spans="2:14" x14ac:dyDescent="0.4">
       <c r="F72" s="62" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G72" s="65" t="s">
         <v>206</v>
       </c>
       <c r="H72" s="82">
-        <f ca="1">($N$61*$N$93+$N$69*$N$85)/($N$53-$N$45)+$C$30*2</f>
+        <f ca="1">($N$61*$N$93+$N$69*$N$85)/($N$53-$N$45)+$C$31*2</f>
         <v>156.16120000000001</v>
       </c>
       <c r="K72" s="55">
@@ -18514,7 +18529,7 @@
         <v>72</v>
       </c>
       <c r="L72" s="97" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M72" s="106" t="str">
         <f>IF($C$25&gt;=5,"3列目湾曲中心X","-")</f>
@@ -18527,10 +18542,10 @@
     </row>
     <row r="73" spans="2:14" x14ac:dyDescent="0.4">
       <c r="E73" s="55" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F73" s="62" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G73" s="82" t="s">
         <v>204</v>
@@ -18545,7 +18560,7 @@
         <v>73</v>
       </c>
       <c r="L73" s="97" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M73" s="106" t="str">
         <f>IF($C$25&gt;=6,"4列目湾曲中心X","-")</f>
@@ -18558,10 +18573,10 @@
     </row>
     <row r="74" spans="2:14" x14ac:dyDescent="0.4">
       <c r="E74" s="55" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F74" s="62" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G74" s="82" t="s">
         <v>204</v>
@@ -18571,7 +18586,7 @@
         <v>2.7719999999999998</v>
       </c>
       <c r="I74" s="82">
-        <f ca="1">$C$65+$H$74</f>
+        <f ca="1">$C$66+$H$74</f>
         <v>2.8449999999999998</v>
       </c>
       <c r="K74" s="55">
@@ -18579,7 +18594,7 @@
         <v>74</v>
       </c>
       <c r="L74" s="97" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M74" s="106" t="str">
         <f>IF($C$25&gt;=7,"5列目湾曲中心X","-")</f>
@@ -18592,10 +18607,10 @@
     </row>
     <row r="75" spans="2:14" x14ac:dyDescent="0.4">
       <c r="E75" s="55" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F75" s="111" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G75" s="108" t="s">
         <v>204</v>
@@ -18609,7 +18624,7 @@
         <v>75</v>
       </c>
       <c r="L75" s="97" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M75" s="106" t="str">
         <f>IF($C$25&gt;=8,"6列目湾曲中心X","-")</f>
@@ -18622,10 +18637,10 @@
     </row>
     <row r="76" spans="2:14" x14ac:dyDescent="0.4">
       <c r="E76" s="55" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F76" s="111" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G76" s="108" t="s">
         <v>204</v>
@@ -18635,7 +18650,7 @@
         <v>2.4501075579837424</v>
       </c>
       <c r="I76" s="108">
-        <f ca="1">$C$65+$H$76</f>
+        <f ca="1">$C$66+$H$76</f>
         <v>2.5231075579837423</v>
       </c>
       <c r="K76" s="55">
@@ -18643,10 +18658,10 @@
         <v>76</v>
       </c>
       <c r="L76" s="97" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M76" s="106" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N76" s="99">
         <f>SQRT($C$3^2-$N$36^2)</f>
@@ -18669,10 +18684,10 @@
         <v>77</v>
       </c>
       <c r="L77" s="97" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M77" s="106" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N77" s="99">
         <f>SQRT($C$3^2-$N$37^2)</f>
@@ -18681,13 +18696,13 @@
     </row>
     <row r="78" spans="2:14" x14ac:dyDescent="0.4">
       <c r="F78" s="62" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G78" s="65" t="s">
         <v>205</v>
       </c>
       <c r="H78" s="82">
-        <f ca="1">($N$61*$N$127+$N$69*$N$119)/($N$53-$N$45)+$C$30*2</f>
+        <f ca="1">($N$61*$N$127+$N$69*$N$119)/($N$53-$N$45)+$C$31*2</f>
         <v>154.14839999999998</v>
       </c>
       <c r="K78" s="55">
@@ -18695,7 +18710,7 @@
         <v>78</v>
       </c>
       <c r="L78" s="97" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="M78" s="106" t="str">
         <f>IF($C$25&gt;=3,"λj ≦ q &lt; λj+1 の wAj", "-")</f>
@@ -18708,14 +18723,14 @@
     </row>
     <row r="79" spans="2:14" x14ac:dyDescent="0.4">
       <c r="F79" s="84" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="K79" s="55">
         <f t="shared" si="2"/>
         <v>79</v>
       </c>
       <c r="L79" s="97" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="M79" s="106" t="str">
         <f>IF($C$25&gt;=4,"λj ≦ q+pz &lt; λj+1 の wAj", "-")</f>
@@ -18735,7 +18750,7 @@
         <v>206</v>
       </c>
       <c r="H80" s="82">
-        <f ca="1">IF($C$25&gt;=$C$66-5,$H$54*$N$101-$C$20*$N$100, "-")</f>
+        <f ca="1">IF($C$25&gt;=$C$67-5,$H$54*$N$101-$C$20*$N$100, "-")</f>
         <v>0.23613623834420849</v>
       </c>
       <c r="K80" s="55">
@@ -18743,7 +18758,7 @@
         <v>80</v>
       </c>
       <c r="L80" s="97" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="M80" s="106" t="str">
         <f>IF($C$25&gt;=5,"λj ≦ q+2pz &lt; λj+1 の wAj", "-")</f>
@@ -18763,7 +18778,7 @@
         <v>206</v>
       </c>
       <c r="H81" s="82">
-        <f ca="1">IF($C$25&gt;=$C$66-4,$H$55*$N$101-($C$20+$C21)*$N$100, "-")</f>
+        <f ca="1">IF($C$25&gt;=$C$67-4,$H$55*$N$101-($C$20+$C21)*$N$100, "-")</f>
         <v>0.16515537313498907</v>
       </c>
       <c r="K81" s="55">
@@ -18771,7 +18786,7 @@
         <v>81</v>
       </c>
       <c r="L81" s="97" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="M81" s="106" t="str">
         <f>IF($C$25&gt;=6,"λj ≦ q+3pz &lt; λj+1 の wAj", "-")</f>
@@ -18791,7 +18806,7 @@
         <v>206</v>
       </c>
       <c r="H82" s="82">
-        <f ca="1">IF($C$25&gt;=$C$66-3,$H$56*$N$101-($C$20+2*$C$21)*$N$100, "-")</f>
+        <f ca="1">IF($C$25&gt;=$C$67-3,$H$56*$N$101-($C$20+2*$C$21)*$N$100, "-")</f>
         <v>4.930486789530697E-2</v>
       </c>
       <c r="K82" s="55">
@@ -18799,7 +18814,7 @@
         <v>82</v>
       </c>
       <c r="L82" s="97" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="M82" s="106" t="str">
         <f>IF($C$25&gt;=7,"λj ≦ q+4pz &lt; λj+1 の wAj", "-")</f>
@@ -18819,7 +18834,7 @@
         <v>206</v>
       </c>
       <c r="H83" s="82">
-        <f ca="1">IF($C$25&gt;=$C$66-2,$H$57*$N$101-($C$20+3*$C$21)*$N$100, "-")</f>
+        <f ca="1">IF($C$25&gt;=$C$67-2,$H$57*$N$101-($C$20+3*$C$21)*$N$100, "-")</f>
         <v>-0.11140580074584783</v>
       </c>
       <c r="K83" s="55">
@@ -18827,7 +18842,7 @@
         <v>83</v>
       </c>
       <c r="L83" s="97" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="M83" s="106" t="str">
         <f>IF($C$25&gt;=8,"λj ≦ q+5pz &lt; λj+1 の wAj", "-")</f>
@@ -18847,7 +18862,7 @@
         <v>206</v>
       </c>
       <c r="H84" s="82" t="str">
-        <f>IF($C$25&gt;=$C$66-1,$H$58*$N$101-($C$20+4*$C$21)*$N$100, "-")</f>
+        <f>IF($C$25&gt;=$C$67-1,$H$58*$N$101-($C$20+4*$C$21)*$N$100, "-")</f>
         <v>-</v>
       </c>
       <c r="K84" s="55">
@@ -18855,10 +18870,10 @@
         <v>84</v>
       </c>
       <c r="L84" s="97" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M84" s="106" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="N84" s="96">
         <f ca="1">INDEX(INDIRECT($H$52&amp;"!B:B"), MATCH($N$44, INDIRECT($H$52&amp;"!A:A"), 0))</f>
@@ -18874,7 +18889,7 @@
         <v>206</v>
       </c>
       <c r="H85" s="82" t="str">
-        <f>IF($C$25&gt;=$C$66,$H$59*$N$101-($C$20+5*$C$21)*$N$100, "-")</f>
+        <f>IF($C$25&gt;=$C$67,$H$59*$N$101-($C$20+5*$C$21)*$N$100, "-")</f>
         <v>-</v>
       </c>
       <c r="K85" s="55">
@@ -18882,10 +18897,10 @@
         <v>85</v>
       </c>
       <c r="L85" s="97" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="M85" s="106" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="N85" s="96">
         <f ca="1">INDEX(INDIRECT($H$52&amp;"!B:B"), MATCH($N$45, INDIRECT($H$52&amp;"!A:A"), 0))</f>
@@ -18894,7 +18909,7 @@
     </row>
     <row r="86" spans="6:14" x14ac:dyDescent="0.4">
       <c r="F86" s="62" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G86" s="65" t="s">
         <v>206</v>
@@ -18908,7 +18923,7 @@
         <v>86</v>
       </c>
       <c r="L86" s="97" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="M86" s="106" t="str">
         <f>IF($C$25&gt;=3,"λj ≦ q &lt; λj+1 の wAj+1", "-")</f>
@@ -18921,7 +18936,7 @@
     </row>
     <row r="87" spans="6:14" x14ac:dyDescent="0.4">
       <c r="F87" s="62" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G87" s="65" t="s">
         <v>206</v>
@@ -18935,7 +18950,7 @@
         <v>87</v>
       </c>
       <c r="L87" s="97" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M87" s="106" t="str">
         <f>IF($C$25&gt;=4,"λj ≦ q+pz &lt; λj+1 の wAj+1", "-")</f>
@@ -18955,7 +18970,7 @@
         <v>203</v>
       </c>
       <c r="H88" s="82">
-        <f ca="1">IF($C$25&gt;=$C$66-5,$H$54*$N$100+$C$20*$N$101, "-")</f>
+        <f ca="1">IF($C$25&gt;=$C$67-5,$H$54*$N$100+$C$20*$N$101, "-")</f>
         <v>90.071009208980442</v>
       </c>
       <c r="K88" s="55">
@@ -18963,7 +18978,7 @@
         <v>88</v>
       </c>
       <c r="L88" s="97" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M88" s="106" t="str">
         <f>IF($C$25&gt;=5,"λj ≦ q+2pz &lt; λj+1 の wAj+1", "-")</f>
@@ -18983,7 +18998,7 @@
         <v>203</v>
       </c>
       <c r="H89" s="82">
-        <f ca="1">IF($C$25&gt;=$C$66-4,$H$55*$N$100+($C$20+$C$21)*$N$101, "-")</f>
+        <f ca="1">IF($C$25&gt;=$C$67-4,$H$55*$N$100+($C$20+$C$21)*$N$101, "-")</f>
         <v>110.08219739305159</v>
       </c>
       <c r="K89" s="55">
@@ -18991,7 +19006,7 @@
         <v>89</v>
       </c>
       <c r="L89" s="97" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M89" s="106" t="str">
         <f>IF($C$25&gt;=6,"λj ≦ q+3pz &lt; λj+1 の wAj+1", "-")</f>
@@ -19011,7 +19026,7 @@
         <v>203</v>
       </c>
       <c r="H90" s="82">
-        <f ca="1">IF($C$25&gt;=$C$66-3,$H$56*$N$100+($C$20+2*$C$21)*$N$101, "-")</f>
+        <f ca="1">IF($C$25&gt;=$C$67-3,$H$56*$N$100+($C$20+2*$C$21)*$N$101, "-")</f>
         <v>130.09171675638208</v>
       </c>
       <c r="K90" s="55">
@@ -19019,7 +19034,7 @@
         <v>90</v>
       </c>
       <c r="L90" s="97" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="M90" s="106" t="str">
         <f>IF($C$25&gt;=7,"λj ≦ q+4pz &lt; λj+1 の wAj+1", "-")</f>
@@ -19039,7 +19054,7 @@
         <v>203</v>
       </c>
       <c r="H91" s="82">
-        <f ca="1">IF($C$25&gt;=$C$66-2,$H$57*$N$100+($C$20+3*$C$21)*$N$101, "-")</f>
+        <f ca="1">IF($C$25&gt;=$C$67-2,$H$57*$N$100+($C$20+3*$C$21)*$N$101, "-")</f>
         <v>150.09956765143286</v>
       </c>
       <c r="K91" s="55">
@@ -19047,7 +19062,7 @@
         <v>91</v>
       </c>
       <c r="L91" s="97" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M91" s="106" t="str">
         <f>IF($C$25&gt;=8,"λj ≦ q+5pz &lt; λj+1 の wAj+1", "-")</f>
@@ -19067,7 +19082,7 @@
         <v>203</v>
       </c>
       <c r="H92" s="82" t="str">
-        <f>IF($C$25&gt;=$C$66-1,$H$58*$N$100+($C$20+4*$C$21)*$N$101, "-")</f>
+        <f>IF($C$25&gt;=$C$67-1,$H$58*$N$100+($C$20+4*$C$21)*$N$101, "-")</f>
         <v>-</v>
       </c>
       <c r="K92" s="55">
@@ -19075,10 +19090,10 @@
         <v>92</v>
       </c>
       <c r="L92" s="97" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="M92" s="106" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N92" s="96">
         <f ca="1">INDEX(INDIRECT($H$52&amp;"!B:B"), MATCH($N$52, INDIRECT($H$52&amp;"!A:A"), 0))</f>
@@ -19094,7 +19109,7 @@
         <v>203</v>
       </c>
       <c r="H93" s="82" t="str">
-        <f>IF($C$25&gt;=$C$66-0,$H$59*$N$100+($C$20+5*$C$21)*$N$101, "-")</f>
+        <f>IF($C$25&gt;=$C$67-0,$H$59*$N$100+($C$20+5*$C$21)*$N$101, "-")</f>
         <v>-</v>
       </c>
       <c r="K93" s="55">
@@ -19102,10 +19117,10 @@
         <v>93</v>
       </c>
       <c r="L93" s="97" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="M93" s="106" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="N93" s="96">
         <f ca="1">INDEX(INDIRECT($H$52&amp;"!B:B"), MATCH($N$53, INDIRECT($H$52&amp;"!A:A"), 0))</f>
@@ -19114,7 +19129,7 @@
     </row>
     <row r="94" spans="6:14" x14ac:dyDescent="0.4">
       <c r="F94" s="62" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G94" s="65" t="s">
         <v>203</v>
@@ -19128,7 +19143,7 @@
         <v>94</v>
       </c>
       <c r="L94" s="97" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="M94" s="106" t="s">
         <v>303</v>
@@ -19140,7 +19155,7 @@
     </row>
     <row r="95" spans="6:14" x14ac:dyDescent="0.4">
       <c r="F95" s="62" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G95" s="65" t="s">
         <v>203</v>
@@ -19154,7 +19169,7 @@
         <v>95</v>
       </c>
       <c r="L95" s="97" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="M95" s="106" t="s">
         <v>304</v>
@@ -19170,7 +19185,7 @@
         <v>96</v>
       </c>
       <c r="L96" s="97" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="M96" s="106" t="s">
         <v>275</v>
@@ -19186,7 +19201,7 @@
         <v>97</v>
       </c>
       <c r="L97" s="97" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="M97" s="106" t="s">
         <v>275</v>
@@ -19208,7 +19223,7 @@
         <v>263</v>
       </c>
       <c r="N98" s="54">
-        <f ca="1">($N$96-$N$97)/$C$20</f>
+        <f ca="1">IF($N$96&gt;$N$97, ($N$96-$N$97)/$C$20, 0)</f>
         <v>3.7189029353147718E-2</v>
       </c>
     </row>
@@ -19234,10 +19249,10 @@
         <v>100</v>
       </c>
       <c r="L100" s="97" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="M100" s="106" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="N100" s="54">
         <f ca="1">SIN(RADIANS($H$73))</f>
@@ -19250,10 +19265,10 @@
         <v>101</v>
       </c>
       <c r="L101" s="97" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="M101" s="106" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="N101" s="54">
         <f ca="1">COS(RADIANS($H$73))</f>
@@ -19266,7 +19281,7 @@
         <v>102</v>
       </c>
       <c r="L102" s="97" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="M102" s="106" t="s">
         <v>224</v>
@@ -19282,7 +19297,7 @@
         <v>103</v>
       </c>
       <c r="L103" s="97" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="M103" s="106" t="s">
         <v>225</v>
@@ -19298,7 +19313,7 @@
         <v>104</v>
       </c>
       <c r="L104" s="97" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="M104" s="106" t="s">
         <v>276</v>
@@ -19314,7 +19329,7 @@
         <v>105</v>
       </c>
       <c r="L105" s="97" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="M105" s="106" t="s">
         <v>276</v>
@@ -19391,7 +19406,7 @@
         <v>110</v>
       </c>
       <c r="L110" s="97" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="M110" s="106" t="s">
         <v>278</v>
@@ -19407,7 +19422,7 @@
         <v>111</v>
       </c>
       <c r="L111" s="97" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="M111" s="106" t="s">
         <v>279</v>
@@ -19423,7 +19438,7 @@
         <v>112</v>
       </c>
       <c r="L112" s="97" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="M112" s="106" t="str">
         <f>IF($C$25&gt;=3,"λj ≦ q &lt; λj+1 の wBj", "-")</f>
@@ -19440,7 +19455,7 @@
         <v>113</v>
       </c>
       <c r="L113" s="97" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="M113" s="106" t="str">
         <f>IF($C$25&gt;=4,"λj ≦ q+pz &lt; λj+1 の wBj", "-")</f>
@@ -19457,7 +19472,7 @@
         <v>114</v>
       </c>
       <c r="L114" s="97" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="M114" s="106" t="str">
         <f>IF($C$25&gt;=5,"λj ≦ q+2pz &lt; λj+1 の wBj", "-")</f>
@@ -19474,7 +19489,7 @@
         <v>115</v>
       </c>
       <c r="L115" s="97" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="M115" s="106" t="str">
         <f>IF($C$25&gt;=6,"λj ≦ q+3pz &lt; λj+1 の wBj", "-")</f>
@@ -19491,7 +19506,7 @@
         <v>116</v>
       </c>
       <c r="L116" s="97" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="M116" s="106" t="str">
         <f>IF($C$25&gt;=7,"λj ≦ q+4pz &lt; λj+1 の wBj", "-")</f>
@@ -19508,7 +19523,7 @@
         <v>117</v>
       </c>
       <c r="L117" s="97" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="M117" s="106" t="str">
         <f>IF($C$25&gt;=8,"λj ≦ q+5pz &lt; λj+1 の wBj", "-")</f>
@@ -19525,10 +19540,10 @@
         <v>118</v>
       </c>
       <c r="L118" s="97" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="M118" s="106" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N118" s="96">
         <f ca="1">INDEX(INDIRECT($H$52&amp;"!C:C"), MATCH($N$44, INDIRECT($H$52&amp;"!A:A"), 0))</f>
@@ -19541,10 +19556,10 @@
         <v>119</v>
       </c>
       <c r="L119" s="97" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="M119" s="106" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N119" s="96">
         <f ca="1">INDEX(INDIRECT($H$52&amp;"!C:C"), MATCH($N$45, INDIRECT($H$52&amp;"!A:A"), 0))</f>
@@ -19557,7 +19572,7 @@
         <v>120</v>
       </c>
       <c r="L120" s="97" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="M120" s="106" t="str">
         <f>IF($C$25&gt;=3,"λj ≦ q &lt; λj+1 の wBj+1", "-")</f>
@@ -19574,7 +19589,7 @@
         <v>121</v>
       </c>
       <c r="L121" s="97" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="M121" s="106" t="str">
         <f>IF($C$25&gt;=4,"λj ≦ q+pz &lt; λj+1 の wBj+1", "-")</f>
@@ -19591,7 +19606,7 @@
         <v>122</v>
       </c>
       <c r="L122" s="97" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="M122" s="106" t="str">
         <f>IF($C$25&gt;=5,"λj ≦ q+2pz &lt; λj+1 の wBj+1", "-")</f>
@@ -19608,7 +19623,7 @@
         <v>123</v>
       </c>
       <c r="L123" s="97" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="M123" s="106" t="str">
         <f>IF($C$25&gt;=6,"λj ≦ q+3pz &lt; λj+1 の wBj+1", "-")</f>
@@ -19625,7 +19640,7 @@
         <v>124</v>
       </c>
       <c r="L124" s="97" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="M124" s="106" t="str">
         <f>IF($C$25&gt;=7,"λj ≦ q+4pz &lt; λj+1 の wBj+1", "-")</f>
@@ -19642,7 +19657,7 @@
         <v>125</v>
       </c>
       <c r="L125" s="97" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="M125" s="106" t="str">
         <f>IF($C$25&gt;=8,"λj ≦ q+5pz &lt; λj+1 の wBj+1", "-")</f>
@@ -19659,10 +19674,10 @@
         <v>126</v>
       </c>
       <c r="L126" s="97" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="M126" s="106" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="N126" s="54">
         <f ca="1">INDEX(INDIRECT($H$52&amp;"!C:C"), MATCH($N$52, INDIRECT($H$52&amp;"!A:A"), 0))</f>
@@ -19675,10 +19690,10 @@
         <v>127</v>
       </c>
       <c r="L127" s="97" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="M127" s="106" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="N127" s="54">
         <f ca="1">INDEX(INDIRECT($H$52&amp;"!C:C"), MATCH($N$53, INDIRECT($H$52&amp;"!A:A"), 0))</f>
@@ -19691,14 +19706,14 @@
         <v>128</v>
       </c>
       <c r="L128" s="97" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="M128" s="107" t="str">
         <f>IF($C$25&gt;=4,"2列目AC内径（水平・めっき含・概算）","-")</f>
         <v>2列目AC内径（水平・めっき含・概算）</v>
       </c>
       <c r="N128" s="96">
-        <f ca="1">IF($C$25&gt;=4,($N$55*$N$87+$N$63*$N$79)/($N$47-$N$39)+$C$30*2,"-")</f>
+        <f ca="1">IF($C$25&gt;=4,($N$55*$N$87+$N$63*$N$79)/($N$47-$N$39)+$C$31*2,"-")</f>
         <v>156.50139999999999</v>
       </c>
     </row>
@@ -19708,14 +19723,14 @@
         <v>129</v>
       </c>
       <c r="L129" s="97" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="M129" s="107" t="str">
         <f>IF($C$25&gt;=5,"3列目AC内径（水平・めっき含・概算）","-")</f>
         <v>3列目AC内径（水平・めっき含・概算）</v>
       </c>
       <c r="N129" s="96">
-        <f ca="1">IF($C$25&gt;=5,($N$56*$N$88+$N$64*$N$80)/($N$48-$N$40)+$C$30*2,"-")</f>
+        <f ca="1">IF($C$25&gt;=5,($N$56*$N$88+$N$64*$N$80)/($N$48-$N$40)+$C$31*2,"-")</f>
         <v>156.4102</v>
       </c>
     </row>
@@ -19725,14 +19740,14 @@
         <v>130</v>
       </c>
       <c r="L130" s="97" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="M130" s="107" t="str">
         <f>IF($C$25&gt;=6,"4列目AC内径（水平・めっき含・概算）","-")</f>
         <v>4列目AC内径（水平・めっき含・概算）</v>
       </c>
       <c r="N130" s="96">
-        <f ca="1">IF($C$25&gt;=6,($N$57*$N$89+$N$65*$N$81)/($N$49-$N$41)+$C$30*2,"-")</f>
+        <f ca="1">IF($C$25&gt;=6,($N$57*$N$89+$N$65*$N$81)/($N$49-$N$41)+$C$31*2,"-")</f>
         <v>156.31899999999999</v>
       </c>
     </row>
@@ -19742,14 +19757,14 @@
         <v>131</v>
       </c>
       <c r="L131" s="97" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="M131" s="107" t="str">
         <f>IF($C$25&gt;=7,"5列目AC内径（水平・めっき含・概算）","-")</f>
         <v>-</v>
       </c>
       <c r="N131" s="96" t="str">
-        <f>IF($C$25&gt;=7,($N$58*$N$90+$N$66*$N$82)/($N$50-$N$42)+$C$30*2,"-")</f>
+        <f>IF($C$25&gt;=7,($N$58*$N$90+$N$66*$N$82)/($N$50-$N$42)+$C$31*2,"-")</f>
         <v>-</v>
       </c>
     </row>
@@ -19759,14 +19774,14 @@
         <v>132</v>
       </c>
       <c r="L132" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="M132" s="107" t="str">
         <f>IF($C$25&gt;=8,"6列目AC内径（水平・めっき含・概算）","-")</f>
         <v>-</v>
       </c>
       <c r="N132" s="96" t="str">
-        <f>IF($C$25&gt;=8,($N$59*$N$91+$N$67*$N$83)/($N$51-$N$43)+$C$30*2,"-")</f>
+        <f>IF($C$25&gt;=8,($N$59*$N$91+$N$67*$N$83)/($N$51-$N$43)+$C$31*2,"-")</f>
         <v>-</v>
       </c>
     </row>
@@ -19776,13 +19791,13 @@
         <v>133</v>
       </c>
       <c r="L133" s="97" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="M133" s="107" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="N133" s="54">
-        <f ca="1">($N$60*$N$92+$N$68*$N$84)/($N$52-$N$44)+$C$30*2</f>
+        <f ca="1">($N$60*$N$92+$N$68*$N$84)/($N$52-$N$44)+$C$31*2</f>
         <v>156.23739999999998</v>
       </c>
     </row>
@@ -19792,13 +19807,13 @@
         <v>134</v>
       </c>
       <c r="L134" s="97" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="M134" s="107" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="N134" s="54">
-        <f ca="1">INDEX(INDIRECT($H$52&amp;"!C:C"), MATCH(0, INDIRECT($H$52&amp;"!A:A"), 0))+$C$30*2</f>
+        <f ca="1">INDEX(INDIRECT($H$52&amp;"!C:C"), MATCH(0, INDIRECT($H$52&amp;"!A:A"), 0))+$C$31*2</f>
         <v>154.97899999999998</v>
       </c>
     </row>
@@ -19808,14 +19823,14 @@
         <v>135</v>
       </c>
       <c r="L135" s="97" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="M135" s="107" t="str">
         <f>IF($C$25&gt;=3,"1列目 BD内径（めっき含・概算）","-")</f>
         <v>1列目 BD内径（めっき含・概算）</v>
       </c>
       <c r="N135" s="96">
-        <f ca="1">IF($C$25&gt;=3,($N$54*$N$120+$N$62*$N$112)/($N$46-$N$38)+$C$30*2,"-")</f>
+        <f ca="1">IF($C$25&gt;=3,($N$54*$N$120+$N$62*$N$112)/($N$46-$N$38)+$C$31*2,"-")</f>
         <v>154.57380000000001</v>
       </c>
     </row>
@@ -19825,14 +19840,14 @@
         <v>136</v>
       </c>
       <c r="L136" s="97" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="M136" s="107" t="str">
         <f>IF($C$25&gt;=4,"2列目 BD内径（めっき含・概算）","-")</f>
         <v>2列目 BD内径（めっき含・概算）</v>
       </c>
       <c r="N136" s="96">
-        <f ca="1">IF($C$25&gt;=4,($N$55*$N$121+$N$63*$N$113)/($N$47-$N$39)+$C$30*2,"-")</f>
+        <f ca="1">IF($C$25&gt;=4,($N$55*$N$121+$N$63*$N$113)/($N$47-$N$39)+$C$31*2,"-")</f>
         <v>154.4838</v>
       </c>
     </row>
@@ -19842,14 +19857,14 @@
         <v>137</v>
       </c>
       <c r="L137" s="97" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="M137" s="107" t="str">
         <f>IF($C$25&gt;=5,"3列目 BD内径（めっき含・概算）","-")</f>
         <v>3列目 BD内径（めっき含・概算）</v>
       </c>
       <c r="N137" s="96">
-        <f ca="1">IF($C$25&gt;=5,($N$56*$N$122+$N$64*$N$114)/($N$48-$N$40)+$C$30*2,"-")</f>
+        <f ca="1">IF($C$25&gt;=5,($N$56*$N$122+$N$64*$N$114)/($N$48-$N$40)+$C$31*2,"-")</f>
         <v>154.39359999999999</v>
       </c>
     </row>
@@ -19859,14 +19874,14 @@
         <v>138</v>
       </c>
       <c r="L138" s="97" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="M138" s="107" t="str">
         <f>IF($C$25&gt;=6,"4列目 BD内径（めっき含・概算）","-")</f>
         <v>4列目 BD内径（めっき含・概算）</v>
       </c>
       <c r="N138" s="96">
-        <f ca="1">IF($C$25&gt;=6,($N$57*$N$123+$N$65*$N$115)/($N$49-$N$41)+$C$30*2,"-")</f>
+        <f ca="1">IF($C$25&gt;=6,($N$57*$N$123+$N$65*$N$115)/($N$49-$N$41)+$C$31*2,"-")</f>
         <v>154.30399999999997</v>
       </c>
     </row>
@@ -19876,14 +19891,14 @@
         <v>139</v>
       </c>
       <c r="L139" s="97" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="M139" s="107" t="str">
         <f>IF($C$25&gt;=7,"5列目 BD内径（めっき含・概算）","-")</f>
         <v>-</v>
       </c>
       <c r="N139" s="96" t="str">
-        <f>IF($C$25&gt;=7,($N$58*$N$124+$N$66*$N$116)/($N$50-$N$42)+$C$30*2,"-")</f>
+        <f>IF($C$25&gt;=7,($N$58*$N$124+$N$66*$N$116)/($N$50-$N$42)+$C$31*2,"-")</f>
         <v>-</v>
       </c>
     </row>
@@ -19893,14 +19908,14 @@
         <v>140</v>
       </c>
       <c r="L140" s="97" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="M140" s="107" t="str">
         <f>IF($C$25&gt;=8,"6列目 BD内径（めっき含・概算）","-")</f>
         <v>-</v>
       </c>
       <c r="N140" s="96" t="str">
-        <f>IF($C$25&gt;=8,($N$59*$N$125+$N$67*$N$117)/($N$51-$N$43)+$C$30*2,"-")</f>
+        <f>IF($C$25&gt;=8,($N$59*$N$125+$N$67*$N$117)/($N$51-$N$43)+$C$31*2,"-")</f>
         <v>-</v>
       </c>
     </row>
@@ -19910,13 +19925,13 @@
         <v>141</v>
       </c>
       <c r="L141" s="97" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="M141" s="107" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="N141" s="54">
-        <f ca="1">($N$60*$N$126+$N$68*$N$118)/($N$52-$N$44)+$C$30*2</f>
+        <f ca="1">($N$60*$N$126+$N$68*$N$118)/($N$52-$N$44)+$C$31*2</f>
         <v>154.22319999999999</v>
       </c>
     </row>
@@ -20104,186 +20119,191 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="C3">
-    <cfRule type="expression" dxfId="38" priority="122">
-      <formula>#REF!^2&lt;4*N151^2</formula>
+    <cfRule type="expression" dxfId="0" priority="123">
+      <formula>$C$3&gt;2*N151</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="37" priority="42">
+    <cfRule type="expression" dxfId="37" priority="43">
       <formula>C4&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="36" priority="18">
+    <cfRule type="expression" dxfId="36" priority="19">
       <formula>$C$6&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="35" priority="46">
+    <cfRule type="expression" dxfId="35" priority="47">
       <formula>$C$9&lt;=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:C11">
-    <cfRule type="expression" dxfId="34" priority="19">
+    <cfRule type="expression" dxfId="34" priority="20">
       <formula>$C$10&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="33" priority="97">
+    <cfRule type="expression" dxfId="33" priority="98">
       <formula>OR(C15&lt;=0, C15&gt;Q2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
-    <cfRule type="expression" dxfId="32" priority="41">
-      <formula>C34&lt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C35">
-    <cfRule type="expression" dxfId="31" priority="56">
-      <formula>OR($C$35&lt;0, $C$35&gt;=$C$9)</formula>
+    <cfRule type="expression" dxfId="32" priority="42">
+      <formula>C35&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36">
-    <cfRule type="expression" dxfId="30" priority="15">
-      <formula>OR($C$36&lt;0, $C$36&gt;=$C$10)</formula>
+    <cfRule type="expression" dxfId="31" priority="57">
+      <formula>OR($C$36&lt;0, $C$36&gt;=$C$9)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37">
-    <cfRule type="expression" dxfId="29" priority="119">
-      <formula>OR(C37&lt;0, C37&gt;=C9)</formula>
+    <cfRule type="expression" dxfId="30" priority="16">
+      <formula>OR($C$37&lt;0, $C$37&gt;=$C$10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38">
-    <cfRule type="expression" dxfId="28" priority="126">
-      <formula>OR(C38&lt;0, C38&gt;=C4)</formula>
+    <cfRule type="expression" dxfId="29" priority="120">
+      <formula>OR(C38&lt;0, C38&gt;=C9)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C41">
-    <cfRule type="expression" dxfId="27" priority="127">
-      <formula>OR(C41&lt;0, C41&gt;=C4)</formula>
+  <conditionalFormatting sqref="C39">
+    <cfRule type="expression" dxfId="28" priority="127">
+      <formula>OR(C39&lt;0, C39&gt;=C4)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C58">
-    <cfRule type="expression" dxfId="26" priority="50">
-      <formula>AND(C58&lt;&gt;330, C58&lt;&gt;270, C58&lt;&gt;250)</formula>
+  <conditionalFormatting sqref="C42">
+    <cfRule type="expression" dxfId="27" priority="128">
+      <formula>OR(C42&lt;0, C42&gt;=C4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59">
-    <cfRule type="expression" dxfId="25" priority="49">
-      <formula>C59&lt;&gt;40</formula>
+    <cfRule type="expression" dxfId="26" priority="51">
+      <formula>AND(C59&lt;&gt;330, C59&lt;&gt;270, C59&lt;&gt;250)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="24" priority="26">
-      <formula>OR(C62&gt;0, ABS(ABS(C62)-740)&gt;=1)</formula>
+  <conditionalFormatting sqref="C60">
+    <cfRule type="expression" dxfId="25" priority="50">
+      <formula>C60&lt;&gt;40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="23" priority="39">
-      <formula>OR(C63&gt;0, ABS(ABS(C63)-550)&gt;=1)</formula>
+    <cfRule type="expression" dxfId="24" priority="27">
+      <formula>OR(C63&gt;0, ABS(ABS(C63)-740)&gt;=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C64">
-    <cfRule type="expression" dxfId="22" priority="32">
-      <formula>OR(C64&gt;0, ABS(ABS(C64)-1150)&gt;=1)</formula>
+    <cfRule type="expression" dxfId="23" priority="40">
+      <formula>OR(C64&gt;0, ABS(ABS(C64)-550)&gt;=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C65">
-    <cfRule type="expression" dxfId="21" priority="38">
-      <formula>OR(ABS(C65)&gt;=0.2)</formula>
+    <cfRule type="expression" dxfId="22" priority="33">
+      <formula>OR(C65&gt;0, ABS(ABS(C65)-1150)&gt;=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C66">
+    <cfRule type="expression" dxfId="21" priority="39">
+      <formula>OR(ABS(C66)&gt;=0.2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48">
-    <cfRule type="expression" dxfId="20" priority="22">
+    <cfRule type="expression" dxfId="20" priority="23">
       <formula>OR($H$48&lt;=1, INT($H$48)&lt;&gt;$H$48)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52">
-    <cfRule type="expression" dxfId="19" priority="14">
+    <cfRule type="expression" dxfId="19" priority="15">
       <formula>ISERROR(INDIRECT($H$52&amp;"!$G$45"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="18" priority="235">
-      <formula>OR(C25-QUOTIENT(C25,1)&lt;&gt;0, C25&lt;0, C25&gt;$C$66)</formula>
+    <cfRule type="expression" dxfId="18" priority="236">
+      <formula>OR(C25-QUOTIENT(C25,1)&lt;&gt;0, C25&lt;0, C25&gt;$C$67)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50">
-    <cfRule type="expression" dxfId="17" priority="10">
+    <cfRule type="expression" dxfId="17" priority="11">
       <formula>$H$50&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H78 H51:H52 H54:H72">
-    <cfRule type="expression" dxfId="16" priority="9">
+    <cfRule type="expression" dxfId="16" priority="10">
       <formula>$H$51&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="15" priority="253">
+    <cfRule type="expression" dxfId="15" priority="254">
       <formula>OR($C$23&lt;=0, MOD($C$23,$C$22)&lt;&gt;0, $C$23&gt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="expression" dxfId="14" priority="261">
-      <formula>OR($C$26&lt;=0, $C$26&gt;=#REF!/2, $C$26&gt;=#REF!/2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="13" priority="270">
-      <formula>OR($C$13&gt;=$C$9, $C$13&gt;=$C$39)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="12" priority="271">
-      <formula>OR($C$14&gt;=$C$10, $C$14&gt;=$C$39)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="11" priority="272">
-      <formula>OR($C$17&lt;=0, $C$17&gt;=($C$9-#REF!)/2, $C$17&gt;=($C$35-#REF!)/2)</formula>
+    <cfRule type="expression" dxfId="14" priority="262">
+      <formula>OR($C$26&lt;=0, $C$26&gt;=MIN($C$23, $C$24))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N128:N133">
-    <cfRule type="expression" dxfId="10" priority="8">
+    <cfRule type="expression" dxfId="13" priority="9">
       <formula>$H$51&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N134:N141">
-    <cfRule type="expression" dxfId="9" priority="7">
+    <cfRule type="expression" dxfId="12" priority="8">
       <formula>$H$51&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="8" priority="273">
+    <cfRule type="expression" dxfId="11" priority="274">
       <formula>OR(C16&lt;=0, C16+C15&gt;Q2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H77">
-    <cfRule type="expression" dxfId="7" priority="274">
-      <formula>$H$77&lt;=$C$26/2+$C$27</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="10" priority="3">
       <formula>G1="X"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="9" priority="4">
       <formula>G1="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="8" priority="5">
       <formula>G1="Z"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="5">
+    <cfRule type="expression" dxfId="7" priority="6">
       <formula>G1="B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H80:H95">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>$H$51&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="expression" dxfId="5" priority="276">
+      <formula>OR($C$13&gt;=$C$9, $C$13&gt;=$C$40)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="expression" dxfId="4" priority="277">
+      <formula>OR($C$14&gt;=$C$10, $C$14&gt;=$C$40)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17">
+    <cfRule type="expression" dxfId="3" priority="278">
+      <formula>OR($C$17&lt;=0, $C$17&gt;=($C$9-#REF!)/2, $C$17&gt;=($C$36-#REF!)/2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H77">
+    <cfRule type="expression" dxfId="2" priority="279">
+      <formula>$H$77&lt;=$C$27/2+$C$28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>OR($C$27&lt;=0, $C$27&gt;$C$26)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation imeMode="disabled" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C57:C66 H78 N128:N141 C3:C31 C46:C49 C52:C55 H54:H72 H80:H95 G1:G1048576" xr:uid="{5A8FA8E9-E7FC-48D2-B40E-E90D3C7D1F03}"/>
+    <dataValidation imeMode="disabled" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C58:C67 H78 N128:N141 C47:C50 C53:C56 H54:H72 H80:H95 G1:G1048576 C3:C32" xr:uid="{5A8FA8E9-E7FC-48D2-B40E-E90D3C7D1F03}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -22454,12 +22474,12 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B2:D42">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="39" priority="2">
       <formula>$A2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:N42">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="38" priority="1">
       <formula>$A2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Mould_Database/Mould_DB.xlsx
+++ b/Mould_Database/Mould_DB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gm001\Documents\GitHub\mould_moji\Mould_Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user01\Documents\GitHub\mould\Mould_Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E96A9A0-C4FE-4E88-A070-439A14547280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE051F0-33B1-4F57-9D32-5F57842F6583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37470" yWindow="-2700" windowWidth="19770" windowHeight="21600" tabRatio="638" firstSheet="13" activeTab="15" xr2:uid="{331D296A-DE97-4357-9338-22F5C8F49D08}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19305" windowHeight="15600" tabRatio="638" firstSheet="13" activeTab="15" xr2:uid="{331D296A-DE97-4357-9338-22F5C8F49D08}"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="2" r:id="rId1"/>
@@ -36,19 +36,28 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -13023,6 +13032,118 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -13237,118 +13358,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -15825,71 +15834,71 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="C3">
-    <cfRule type="expression" dxfId="54" priority="6">
+    <cfRule type="expression" dxfId="16" priority="6">
       <formula>G9^2&lt;4*G10^2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="53" priority="5">
+    <cfRule type="expression" dxfId="15" priority="5">
       <formula>$C$4&lt;=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="52" priority="1">
+    <cfRule type="expression" dxfId="14" priority="1">
       <formula>C5&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="51" priority="10">
+    <cfRule type="expression" dxfId="13" priority="10">
       <formula>OR(C5&gt;C6, C6&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="50" priority="9">
+    <cfRule type="expression" dxfId="12" priority="9">
       <formula>AND(C7&lt;&gt;330, C7&lt;&gt;270, C7&lt;&gt;250)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="49" priority="8">
+    <cfRule type="expression" dxfId="11" priority="8">
       <formula>C8&lt;&gt;40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="48" priority="7">
+    <cfRule type="expression" dxfId="10" priority="7">
       <formula>C9&lt;&gt;100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K4">
-    <cfRule type="expression" dxfId="47" priority="15">
+    <cfRule type="expression" dxfId="9" priority="15">
       <formula>OR(($K$8&gt;($C$5+$C$6-2*$C$7)),$K$3&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3:M32">
-    <cfRule type="expression" dxfId="46" priority="2">
+    <cfRule type="expression" dxfId="8" priority="2">
       <formula>Q3&gt;=1000000</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="13">
+    <cfRule type="expression" dxfId="7" priority="13">
       <formula>Q3=MIN($Q$3:$Q32)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:O32">
-    <cfRule type="expression" dxfId="44" priority="3">
+    <cfRule type="expression" dxfId="6" priority="3">
       <formula>Q3&gt;=1000000</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="12">
+    <cfRule type="expression" dxfId="5" priority="12">
       <formula>Q3=MIN($Q$3:$Q32)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:P32">
-    <cfRule type="expression" dxfId="42" priority="4">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>Q3&gt;=1000000</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="11">
+    <cfRule type="expression" dxfId="3" priority="11">
       <formula>Q3=MIN($Q$3:$Q32)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R3:R32">
-    <cfRule type="expression" dxfId="40" priority="14">
+    <cfRule type="expression" dxfId="2" priority="14">
       <formula>Q3=MIN($Q$3:$Q32)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15905,7 +15914,9 @@
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:R170"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="I76" sqref="I76"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>
   <cols>
@@ -16181,8 +16192,8 @@
         <v>0.64200000000000002</v>
       </c>
       <c r="I7" s="82">
-        <f>$C$66+$H$7</f>
-        <v>0.71499999999999997</v>
+        <f>-$C$66+$H$7</f>
+        <v>0.56900000000000006</v>
       </c>
       <c r="K7" s="55">
         <f t="shared" si="0"/>
@@ -16222,8 +16233,8 @@
         <v>1</v>
       </c>
       <c r="I8" s="108">
-        <f>$C$66+$H$8</f>
-        <v>1.073</v>
+        <f>-$C$66+$H$8</f>
+        <v>0.92700000000000005</v>
       </c>
       <c r="K8" s="55">
         <f t="shared" si="0"/>
@@ -18586,8 +18597,8 @@
         <v>2.7719999999999998</v>
       </c>
       <c r="I74" s="82">
-        <f ca="1">$C$66+$H$74</f>
-        <v>2.8449999999999998</v>
+        <f ca="1">-$C$66+$H$74</f>
+        <v>2.6989999999999998</v>
       </c>
       <c r="K74" s="55">
         <f t="shared" si="2"/>
@@ -18650,8 +18661,8 @@
         <v>2.4501075579837424</v>
       </c>
       <c r="I76" s="108">
-        <f ca="1">$C$66+$H$76</f>
-        <v>2.5231075579837423</v>
+        <f ca="1">-$C$66+$H$76</f>
+        <v>2.3771075579837424</v>
       </c>
       <c r="K76" s="55">
         <f t="shared" si="2"/>
@@ -20119,186 +20130,186 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="C3">
-    <cfRule type="expression" dxfId="0" priority="123">
+    <cfRule type="expression" dxfId="54" priority="123">
       <formula>$C$3&gt;2*N151</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="37" priority="43">
+    <cfRule type="expression" dxfId="53" priority="43">
       <formula>C4&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="36" priority="19">
+    <cfRule type="expression" dxfId="52" priority="19">
       <formula>$C$6&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="35" priority="47">
+    <cfRule type="expression" dxfId="51" priority="47">
       <formula>$C$9&lt;=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:C11">
-    <cfRule type="expression" dxfId="34" priority="20">
+    <cfRule type="expression" dxfId="50" priority="20">
       <formula>$C$10&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="33" priority="98">
+    <cfRule type="expression" dxfId="49" priority="98">
       <formula>OR(C15&lt;=0, C15&gt;Q2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35">
-    <cfRule type="expression" dxfId="32" priority="42">
+    <cfRule type="expression" dxfId="48" priority="42">
       <formula>C35&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36">
-    <cfRule type="expression" dxfId="31" priority="57">
+    <cfRule type="expression" dxfId="47" priority="57">
       <formula>OR($C$36&lt;0, $C$36&gt;=$C$9)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37">
-    <cfRule type="expression" dxfId="30" priority="16">
+    <cfRule type="expression" dxfId="46" priority="16">
       <formula>OR($C$37&lt;0, $C$37&gt;=$C$10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38">
-    <cfRule type="expression" dxfId="29" priority="120">
+    <cfRule type="expression" dxfId="45" priority="120">
       <formula>OR(C38&lt;0, C38&gt;=C9)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39">
-    <cfRule type="expression" dxfId="28" priority="127">
+    <cfRule type="expression" dxfId="44" priority="127">
       <formula>OR(C39&lt;0, C39&gt;=C4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="27" priority="128">
+    <cfRule type="expression" dxfId="43" priority="128">
       <formula>OR(C42&lt;0, C42&gt;=C4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59">
-    <cfRule type="expression" dxfId="26" priority="51">
+    <cfRule type="expression" dxfId="42" priority="51">
       <formula>AND(C59&lt;&gt;330, C59&lt;&gt;270, C59&lt;&gt;250)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60">
-    <cfRule type="expression" dxfId="25" priority="50">
+    <cfRule type="expression" dxfId="41" priority="50">
       <formula>C60&lt;&gt;40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="24" priority="27">
+    <cfRule type="expression" dxfId="40" priority="27">
       <formula>OR(C63&gt;0, ABS(ABS(C63)-740)&gt;=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C64">
-    <cfRule type="expression" dxfId="23" priority="40">
+    <cfRule type="expression" dxfId="39" priority="40">
       <formula>OR(C64&gt;0, ABS(ABS(C64)-550)&gt;=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C65">
-    <cfRule type="expression" dxfId="22" priority="33">
+    <cfRule type="expression" dxfId="38" priority="33">
       <formula>OR(C65&gt;0, ABS(ABS(C65)-1150)&gt;=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C66">
-    <cfRule type="expression" dxfId="21" priority="39">
+    <cfRule type="expression" dxfId="37" priority="39">
       <formula>OR(ABS(C66)&gt;=0.2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48">
-    <cfRule type="expression" dxfId="20" priority="23">
+    <cfRule type="expression" dxfId="36" priority="23">
       <formula>OR($H$48&lt;=1, INT($H$48)&lt;&gt;$H$48)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52">
-    <cfRule type="expression" dxfId="19" priority="15">
+    <cfRule type="expression" dxfId="35" priority="15">
       <formula>ISERROR(INDIRECT($H$52&amp;"!$G$45"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="18" priority="236">
+    <cfRule type="expression" dxfId="34" priority="236">
       <formula>OR(C25-QUOTIENT(C25,1)&lt;&gt;0, C25&lt;0, C25&gt;$C$67)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50">
-    <cfRule type="expression" dxfId="17" priority="11">
+    <cfRule type="expression" dxfId="33" priority="11">
       <formula>$H$50&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H78 H51:H52 H54:H72">
-    <cfRule type="expression" dxfId="16" priority="10">
+    <cfRule type="expression" dxfId="32" priority="10">
       <formula>$H$51&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="15" priority="254">
+    <cfRule type="expression" dxfId="31" priority="254">
       <formula>OR($C$23&lt;=0, MOD($C$23,$C$22)&lt;&gt;0, $C$23&gt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="expression" dxfId="14" priority="262">
+    <cfRule type="expression" dxfId="30" priority="262">
       <formula>OR($C$26&lt;=0, $C$26&gt;=MIN($C$23, $C$24))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N128:N133">
-    <cfRule type="expression" dxfId="13" priority="9">
+    <cfRule type="expression" dxfId="29" priority="9">
       <formula>$H$51&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N134:N141">
-    <cfRule type="expression" dxfId="12" priority="8">
+    <cfRule type="expression" dxfId="28" priority="8">
       <formula>$H$51&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="11" priority="274">
+    <cfRule type="expression" dxfId="27" priority="274">
       <formula>OR(C16&lt;=0, C16+C15&gt;Q2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="expression" dxfId="10" priority="3">
+    <cfRule type="expression" dxfId="26" priority="3">
       <formula>G1="X"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="4">
+    <cfRule type="expression" dxfId="25" priority="4">
       <formula>G1="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="5">
+    <cfRule type="expression" dxfId="24" priority="5">
       <formula>G1="Z"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="6">
+    <cfRule type="expression" dxfId="23" priority="6">
       <formula>G1="B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H80:H95">
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="22" priority="2">
       <formula>$H$51&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="5" priority="276">
+    <cfRule type="expression" dxfId="21" priority="276">
       <formula>OR($C$13&gt;=$C$9, $C$13&gt;=$C$40)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="4" priority="277">
+    <cfRule type="expression" dxfId="20" priority="277">
       <formula>OR($C$14&gt;=$C$10, $C$14&gt;=$C$40)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="3" priority="278">
+    <cfRule type="expression" dxfId="19" priority="278">
       <formula>OR($C$17&lt;=0, $C$17&gt;=($C$9-#REF!)/2, $C$17&gt;=($C$36-#REF!)/2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H77">
-    <cfRule type="expression" dxfId="2" priority="279">
+    <cfRule type="expression" dxfId="18" priority="279">
       <formula>$H$77&lt;=$C$27/2+$C$28</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="17" priority="1">
       <formula>OR($C$27&lt;=0, $C$27&gt;$C$26)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22474,12 +22485,12 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B2:D42">
-    <cfRule type="expression" dxfId="39" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$A2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:N42">
-    <cfRule type="expression" dxfId="38" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$A2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Mould_Database/Mould_DB.xlsx
+++ b/Mould_Database/Mould_DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user01\Documents\GitHub\mould\Mould_Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE051F0-33B1-4F57-9D32-5F57842F6583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF50E9B-C09B-47BF-A759-B87F0D86EB12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19305" windowHeight="15600" tabRatio="638" firstSheet="13" activeTab="15" xr2:uid="{331D296A-DE97-4357-9338-22F5C8F49D08}"/>
+    <workbookView xWindow="9360" yWindow="0" windowWidth="19440" windowHeight="15600" tabRatio="638" firstSheet="13" activeTab="15" xr2:uid="{331D296A-DE97-4357-9338-22F5C8F49D08}"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="2" r:id="rId1"/>
@@ -15914,8 +15914,8 @@
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:R170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="I76" sqref="I76"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="I80" sqref="I80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>

--- a/Mould_Database/Mould_DB.xlsx
+++ b/Mould_Database/Mould_DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user01\Documents\GitHub\mould\Mould_Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF50E9B-C09B-47BF-A759-B87F0D86EB12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E88BC5-D04E-414A-B5A7-1CB8B007E14D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9360" yWindow="0" windowWidth="19440" windowHeight="15600" tabRatio="638" firstSheet="13" activeTab="15" xr2:uid="{331D296A-DE97-4357-9338-22F5C8F49D08}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" tabRatio="638" firstSheet="13" activeTab="15" xr2:uid="{331D296A-DE97-4357-9338-22F5C8F49D08}"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="2" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="490">
   <si>
     <t>列1</t>
   </si>
@@ -12227,6 +12227,170 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>チョッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>G57X</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>G57Y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>g</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>tx</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>g</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>tz</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>g'</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>tx</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>g'</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>tz</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>傾け前後g</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>tx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>移動距離</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>カタム</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゼンゴ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>イドウキョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>G57X（傾け前）fromテーブル中心</t>
+    <rPh sb="5" eb="6">
+      <t>カタム</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>チュウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>G57Z（傾け前）fromテーブル中心</t>
+    <rPh sb="5" eb="6">
+      <t>カタム</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>チュウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>G57X（傾け後）fromテーブル中心</t>
+    <rPh sb="5" eb="6">
+      <t>カタム</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>チュウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>G57Z（傾け後）fromテーブル中心</t>
+    <rPh sb="5" eb="6">
+      <t>カタム</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>チュウシン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -13046,111 +13210,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -13358,6 +13417,111 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -15834,71 +15998,71 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="C3">
-    <cfRule type="expression" dxfId="16" priority="6">
+    <cfRule type="expression" dxfId="54" priority="6">
       <formula>G9^2&lt;4*G10^2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="15" priority="5">
+    <cfRule type="expression" dxfId="53" priority="5">
       <formula>$C$4&lt;=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="14" priority="1">
+    <cfRule type="expression" dxfId="52" priority="1">
       <formula>C5&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="13" priority="10">
+    <cfRule type="expression" dxfId="51" priority="10">
       <formula>OR(C5&gt;C6, C6&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="12" priority="9">
+    <cfRule type="expression" dxfId="50" priority="9">
       <formula>AND(C7&lt;&gt;330, C7&lt;&gt;270, C7&lt;&gt;250)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="11" priority="8">
+    <cfRule type="expression" dxfId="49" priority="8">
       <formula>C8&lt;&gt;40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="10" priority="7">
+    <cfRule type="expression" dxfId="48" priority="7">
       <formula>C9&lt;&gt;100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K4">
-    <cfRule type="expression" dxfId="9" priority="15">
+    <cfRule type="expression" dxfId="47" priority="15">
       <formula>OR(($K$8&gt;($C$5+$C$6-2*$C$7)),$K$3&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3:M32">
-    <cfRule type="expression" dxfId="8" priority="2">
+    <cfRule type="expression" dxfId="46" priority="2">
       <formula>Q3&gt;=1000000</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="13">
+    <cfRule type="expression" dxfId="45" priority="13">
       <formula>Q3=MIN($Q$3:$Q32)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:O32">
-    <cfRule type="expression" dxfId="6" priority="3">
+    <cfRule type="expression" dxfId="44" priority="3">
       <formula>Q3&gt;=1000000</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="12">
+    <cfRule type="expression" dxfId="43" priority="12">
       <formula>Q3=MIN($Q$3:$Q32)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:P32">
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="42" priority="4">
       <formula>Q3&gt;=1000000</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="11">
+    <cfRule type="expression" dxfId="41" priority="11">
       <formula>Q3=MIN($Q$3:$Q32)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R3:R32">
-    <cfRule type="expression" dxfId="2" priority="14">
+    <cfRule type="expression" dxfId="40" priority="14">
       <formula>Q3=MIN($Q$3:$Q32)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15914,8 +16078,8 @@
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:R170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="I80" sqref="I80"/>
+    <sheetView tabSelected="1" topLeftCell="D70" workbookViewId="0">
+      <selection activeCell="F89" sqref="F89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>
@@ -18431,6 +18595,12 @@
       </c>
     </row>
     <row r="69" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B69" s="53" t="s">
+        <v>479</v>
+      </c>
+      <c r="C69" s="57">
+        <v>-561.11400000000003</v>
+      </c>
       <c r="E69" s="55" t="s">
         <v>428</v>
       </c>
@@ -18464,6 +18634,12 @@
       </c>
     </row>
     <row r="70" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B70" s="53" t="s">
+        <v>480</v>
+      </c>
+      <c r="C70" s="57">
+        <v>-648.33199999999999</v>
+      </c>
       <c r="E70" s="55" t="s">
         <v>385</v>
       </c>
@@ -19206,7 +19382,24 @@
         <v>8995.6564181061131</v>
       </c>
     </row>
-    <row r="97" spans="11:14" x14ac:dyDescent="0.4">
+    <row r="97" spans="5:14" x14ac:dyDescent="0.4">
+      <c r="E97" s="55" t="s">
+        <v>481</v>
+      </c>
+      <c r="F97" s="61" t="s">
+        <v>486</v>
+      </c>
+      <c r="G97" s="65" t="s">
+        <v>206</v>
+      </c>
+      <c r="H97" s="82">
+        <f>$C$69-$C64</f>
+        <v>-11.095000000000027</v>
+      </c>
+      <c r="I97" s="82">
+        <f>$C$64+H97</f>
+        <v>-561.11400000000003</v>
+      </c>
       <c r="K97" s="55">
         <f t="shared" si="3"/>
         <v>97</v>
@@ -19222,7 +19415,24 @@
         <v>8992.3094054643298</v>
       </c>
     </row>
-    <row r="98" spans="11:14" x14ac:dyDescent="0.4">
+    <row r="98" spans="5:14" x14ac:dyDescent="0.4">
+      <c r="E98" s="55" t="s">
+        <v>482</v>
+      </c>
+      <c r="F98" s="61" t="s">
+        <v>487</v>
+      </c>
+      <c r="G98" s="65" t="s">
+        <v>203</v>
+      </c>
+      <c r="H98" s="82">
+        <f>$H$3</f>
+        <v>500.01603829462465</v>
+      </c>
+      <c r="I98" s="82">
+        <f>$C$65+H98</f>
+        <v>-649.95796170537528</v>
+      </c>
       <c r="K98" s="55">
         <f t="shared" si="3"/>
         <v>98</v>
@@ -19238,7 +19448,24 @@
         <v>3.7189029353147718E-2</v>
       </c>
     </row>
-    <row r="99" spans="11:14" x14ac:dyDescent="0.4">
+    <row r="99" spans="5:14" x14ac:dyDescent="0.4">
+      <c r="E99" s="55" t="s">
+        <v>483</v>
+      </c>
+      <c r="F99" s="61" t="s">
+        <v>488</v>
+      </c>
+      <c r="G99" s="65" t="s">
+        <v>206</v>
+      </c>
+      <c r="H99" s="82">
+        <f ca="1">$H$97*$N$101+$H$98*$N$100</f>
+        <v>7.4967373522236862</v>
+      </c>
+      <c r="I99" s="82">
+        <f ca="1">$C$64+H99</f>
+        <v>-542.5222626477763</v>
+      </c>
       <c r="K99" s="55">
         <f t="shared" si="3"/>
         <v>99</v>
@@ -19254,7 +19481,24 @@
         <v>3.7171899126953054E-2</v>
       </c>
     </row>
-    <row r="100" spans="11:14" x14ac:dyDescent="0.4">
+    <row r="100" spans="5:14" x14ac:dyDescent="0.4">
+      <c r="E100" s="55" t="s">
+        <v>484</v>
+      </c>
+      <c r="F100" s="61" t="s">
+        <v>489</v>
+      </c>
+      <c r="G100" s="65" t="s">
+        <v>203</v>
+      </c>
+      <c r="H100" s="82">
+        <f ca="1">-$H$97*$N$100+$H$98*$N$101</f>
+        <v>500.08292962860008</v>
+      </c>
+      <c r="I100" s="82">
+        <f ca="1">$C$65+H100</f>
+        <v>-649.89107037139979</v>
+      </c>
       <c r="K100" s="55">
         <f t="shared" si="3"/>
         <v>100</v>
@@ -19270,7 +19514,17 @@
         <v>3.7166950783010577E-2</v>
       </c>
     </row>
-    <row r="101" spans="11:14" x14ac:dyDescent="0.4">
+    <row r="101" spans="5:14" x14ac:dyDescent="0.4">
+      <c r="F101" s="61" t="s">
+        <v>485</v>
+      </c>
+      <c r="G101" s="65" t="s">
+        <v>206</v>
+      </c>
+      <c r="H101" s="82">
+        <f ca="1">$H$99-$H$97</f>
+        <v>18.591737352223713</v>
+      </c>
       <c r="K101" s="55">
         <f t="shared" si="3"/>
         <v>101</v>
@@ -19286,7 +19540,17 @@
         <v>0.9993090701927474</v>
       </c>
     </row>
-    <row r="102" spans="11:14" x14ac:dyDescent="0.4">
+    <row r="102" spans="5:14" x14ac:dyDescent="0.4">
+      <c r="F102" s="61" t="s">
+        <v>485</v>
+      </c>
+      <c r="G102" s="65" t="s">
+        <v>203</v>
+      </c>
+      <c r="H102" s="82">
+        <f ca="1">$H$100-$H$98</f>
+        <v>6.6891333975434009E-2</v>
+      </c>
       <c r="K102" s="55">
         <f t="shared" si="3"/>
         <v>102</v>
@@ -19302,7 +19566,7 @@
         <v>8844.4037000000008</v>
       </c>
     </row>
-    <row r="103" spans="11:14" x14ac:dyDescent="0.4">
+    <row r="103" spans="5:14" x14ac:dyDescent="0.4">
       <c r="K103" s="55">
         <f t="shared" si="3"/>
         <v>103</v>
@@ -19318,7 +19582,7 @@
         <v>8844.6194000000014</v>
       </c>
     </row>
-    <row r="104" spans="11:14" x14ac:dyDescent="0.4">
+    <row r="104" spans="5:14" x14ac:dyDescent="0.4">
       <c r="K104" s="55">
         <f t="shared" si="2"/>
         <v>104</v>
@@ -19334,7 +19598,7 @@
         <v>8842.1260074066122</v>
       </c>
     </row>
-    <row r="105" spans="11:14" x14ac:dyDescent="0.4">
+    <row r="105" spans="5:14" x14ac:dyDescent="0.4">
       <c r="K105" s="55">
         <f t="shared" si="2"/>
         <v>105</v>
@@ -19350,7 +19614,7 @@
         <v>8838.9692164060452</v>
       </c>
     </row>
-    <row r="106" spans="11:14" x14ac:dyDescent="0.4">
+    <row r="106" spans="5:14" x14ac:dyDescent="0.4">
       <c r="K106" s="55">
         <f t="shared" si="2"/>
         <v>106</v>
@@ -19363,7 +19627,7 @@
         <v>3.1567910005669546E-2</v>
       </c>
     </row>
-    <row r="107" spans="11:14" x14ac:dyDescent="0.4">
+    <row r="107" spans="5:14" x14ac:dyDescent="0.4">
       <c r="K107" s="55">
         <f t="shared" si="2"/>
         <v>107</v>
@@ -19379,7 +19643,7 @@
         <v>3.1557430117010586E-2</v>
       </c>
     </row>
-    <row r="108" spans="11:14" x14ac:dyDescent="0.4">
+    <row r="108" spans="5:14" x14ac:dyDescent="0.4">
       <c r="K108" s="55">
         <f>ROW(K108)</f>
         <v>108</v>
@@ -19395,7 +19659,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="109" spans="11:14" x14ac:dyDescent="0.4">
+    <row r="109" spans="5:14" x14ac:dyDescent="0.4">
       <c r="K109" s="55">
         <f t="shared" si="2"/>
         <v>109</v>
@@ -19411,7 +19675,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="110" spans="11:14" x14ac:dyDescent="0.4">
+    <row r="110" spans="5:14" x14ac:dyDescent="0.4">
       <c r="K110" s="55">
         <f t="shared" si="2"/>
         <v>110</v>
@@ -19427,7 +19691,7 @@
         <v>21.495936780292737</v>
       </c>
     </row>
-    <row r="111" spans="11:14" x14ac:dyDescent="0.4">
+    <row r="111" spans="5:14" x14ac:dyDescent="0.4">
       <c r="K111" s="55">
         <f t="shared" si="2"/>
         <v>111</v>
@@ -19443,7 +19707,7 @@
         <v>29.502662230977563</v>
       </c>
     </row>
-    <row r="112" spans="11:14" x14ac:dyDescent="0.4">
+    <row r="112" spans="5:14" x14ac:dyDescent="0.4">
       <c r="K112" s="55">
         <f t="shared" si="2"/>
         <v>112</v>
@@ -20130,191 +20394,191 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="C3">
-    <cfRule type="expression" dxfId="54" priority="123">
+    <cfRule type="expression" dxfId="39" priority="123">
       <formula>$C$3&gt;2*N151</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="53" priority="43">
+    <cfRule type="expression" dxfId="38" priority="43">
       <formula>C4&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="52" priority="19">
+    <cfRule type="expression" dxfId="37" priority="19">
       <formula>$C$6&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="51" priority="47">
+    <cfRule type="expression" dxfId="36" priority="47">
       <formula>$C$9&lt;=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:C11">
-    <cfRule type="expression" dxfId="50" priority="20">
+    <cfRule type="expression" dxfId="35" priority="20">
       <formula>$C$10&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="49" priority="98">
+    <cfRule type="expression" dxfId="34" priority="98">
       <formula>OR(C15&lt;=0, C15&gt;Q2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35">
-    <cfRule type="expression" dxfId="48" priority="42">
+    <cfRule type="expression" dxfId="33" priority="42">
       <formula>C35&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36">
-    <cfRule type="expression" dxfId="47" priority="57">
+    <cfRule type="expression" dxfId="32" priority="57">
       <formula>OR($C$36&lt;0, $C$36&gt;=$C$9)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37">
-    <cfRule type="expression" dxfId="46" priority="16">
+    <cfRule type="expression" dxfId="31" priority="16">
       <formula>OR($C$37&lt;0, $C$37&gt;=$C$10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38">
-    <cfRule type="expression" dxfId="45" priority="120">
+    <cfRule type="expression" dxfId="30" priority="120">
       <formula>OR(C38&lt;0, C38&gt;=C9)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39">
-    <cfRule type="expression" dxfId="44" priority="127">
+    <cfRule type="expression" dxfId="29" priority="127">
       <formula>OR(C39&lt;0, C39&gt;=C4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="43" priority="128">
+    <cfRule type="expression" dxfId="28" priority="128">
       <formula>OR(C42&lt;0, C42&gt;=C4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59">
-    <cfRule type="expression" dxfId="42" priority="51">
+    <cfRule type="expression" dxfId="27" priority="51">
       <formula>AND(C59&lt;&gt;330, C59&lt;&gt;270, C59&lt;&gt;250)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60">
-    <cfRule type="expression" dxfId="41" priority="50">
+    <cfRule type="expression" dxfId="26" priority="50">
       <formula>C60&lt;&gt;40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="40" priority="27">
+    <cfRule type="expression" dxfId="25" priority="27">
       <formula>OR(C63&gt;0, ABS(ABS(C63)-740)&gt;=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C64">
-    <cfRule type="expression" dxfId="39" priority="40">
+    <cfRule type="expression" dxfId="24" priority="40">
       <formula>OR(C64&gt;0, ABS(ABS(C64)-550)&gt;=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C65">
-    <cfRule type="expression" dxfId="38" priority="33">
+    <cfRule type="expression" dxfId="23" priority="33">
       <formula>OR(C65&gt;0, ABS(ABS(C65)-1150)&gt;=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C66">
-    <cfRule type="expression" dxfId="37" priority="39">
+    <cfRule type="expression" dxfId="22" priority="39">
       <formula>OR(ABS(C66)&gt;=0.2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48">
-    <cfRule type="expression" dxfId="36" priority="23">
+    <cfRule type="expression" dxfId="21" priority="23">
       <formula>OR($H$48&lt;=1, INT($H$48)&lt;&gt;$H$48)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52">
-    <cfRule type="expression" dxfId="35" priority="15">
+    <cfRule type="expression" dxfId="20" priority="15">
       <formula>ISERROR(INDIRECT($H$52&amp;"!$G$45"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="34" priority="236">
+    <cfRule type="expression" dxfId="19" priority="236">
       <formula>OR(C25-QUOTIENT(C25,1)&lt;&gt;0, C25&lt;0, C25&gt;$C$67)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50">
-    <cfRule type="expression" dxfId="33" priority="11">
+    <cfRule type="expression" dxfId="18" priority="11">
       <formula>$H$50&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H78 H51:H52 H54:H72">
-    <cfRule type="expression" dxfId="32" priority="10">
+    <cfRule type="expression" dxfId="17" priority="10">
       <formula>$H$51&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="31" priority="254">
+    <cfRule type="expression" dxfId="16" priority="254">
       <formula>OR($C$23&lt;=0, MOD($C$23,$C$22)&lt;&gt;0, $C$23&gt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="expression" dxfId="30" priority="262">
+    <cfRule type="expression" dxfId="15" priority="262">
       <formula>OR($C$26&lt;=0, $C$26&gt;=MIN($C$23, $C$24))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N128:N133">
-    <cfRule type="expression" dxfId="29" priority="9">
+    <cfRule type="expression" dxfId="14" priority="9">
       <formula>$H$51&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N134:N141">
-    <cfRule type="expression" dxfId="28" priority="8">
+    <cfRule type="expression" dxfId="13" priority="8">
       <formula>$H$51&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="27" priority="274">
+    <cfRule type="expression" dxfId="12" priority="274">
       <formula>OR(C16&lt;=0, C16+C15&gt;Q2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="expression" dxfId="26" priority="3">
+    <cfRule type="expression" dxfId="11" priority="3">
       <formula>G1="X"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="4">
+    <cfRule type="expression" dxfId="10" priority="4">
       <formula>G1="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="5">
+    <cfRule type="expression" dxfId="9" priority="5">
       <formula>G1="Z"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="6">
+    <cfRule type="expression" dxfId="8" priority="6">
       <formula>G1="B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H80:H95">
-    <cfRule type="expression" dxfId="22" priority="2">
+    <cfRule type="expression" dxfId="7" priority="2">
       <formula>$H$51&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="21" priority="276">
+    <cfRule type="expression" dxfId="6" priority="276">
       <formula>OR($C$13&gt;=$C$9, $C$13&gt;=$C$40)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="20" priority="277">
+    <cfRule type="expression" dxfId="5" priority="277">
       <formula>OR($C$14&gt;=$C$10, $C$14&gt;=$C$40)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="19" priority="278">
+    <cfRule type="expression" dxfId="4" priority="278">
       <formula>OR($C$17&lt;=0, $C$17&gt;=($C$9-#REF!)/2, $C$17&gt;=($C$36-#REF!)/2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H77">
-    <cfRule type="expression" dxfId="18" priority="279">
+    <cfRule type="expression" dxfId="3" priority="279">
       <formula>$H$77&lt;=$C$27/2+$C$28</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="17" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>OR($C$27&lt;=0, $C$27&gt;$C$26)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation imeMode="disabled" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C58:C67 H78 N128:N141 C47:C50 C53:C56 H54:H72 H80:H95 G1:G1048576 C3:C32" xr:uid="{5A8FA8E9-E7FC-48D2-B40E-E90D3C7D1F03}"/>
+    <dataValidation imeMode="disabled" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C58:C67 H78 N128:N141 C47:C50 C53:C56 H54:H72 H80:H95 C3:C32 G1:G1048576" xr:uid="{5A8FA8E9-E7FC-48D2-B40E-E90D3C7D1F03}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Mould_Database/Mould_DB.xlsx
+++ b/Mould_Database/Mould_DB.xlsx
@@ -8,23 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user01\Documents\GitHub\mould\Mould_Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10E75D5-776F-4665-BE88-822FFCF105B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B88197-7600-4FCD-B93C-C8DD4D35000C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="37710" windowHeight="21840" tabRatio="638" activeTab="8" xr2:uid="{331D296A-DE97-4357-9338-22F5C8F49D08}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="37710" windowHeight="21840" tabRatio="701" activeTab="11" xr2:uid="{331D296A-DE97-4357-9338-22F5C8F49D08}"/>
   </bookViews>
   <sheets>
     <sheet name="Drawings" sheetId="15" r:id="rId1"/>
-    <sheet name="Allocation" sheetId="6" r:id="rId2"/>
-    <sheet name="OuterDiameter" sheetId="7" r:id="rId3"/>
-    <sheet name="Taper" sheetId="8" r:id="rId4"/>
-    <sheet name="Key" sheetId="9" r:id="rId5"/>
-    <sheet name="BottomOuterTurning" sheetId="10" r:id="rId6"/>
-    <sheet name="TopOuterTurning" sheetId="16" r:id="rId7"/>
-    <sheet name="CenterDifference" sheetId="14" r:id="rId8"/>
-    <sheet name="BottomChanfer" sheetId="17" r:id="rId9"/>
-    <sheet name="tChanfer" sheetId="13" r:id="rId10"/>
-    <sheet name="palette" sheetId="4" r:id="rId11"/>
+    <sheet name="Parts" sheetId="19" r:id="rId2"/>
+    <sheet name="TotalLength" sheetId="22" r:id="rId3"/>
+    <sheet name="Allocation" sheetId="6" r:id="rId4"/>
+    <sheet name="OuterDiameter" sheetId="7" r:id="rId5"/>
+    <sheet name="Taper" sheetId="8" r:id="rId6"/>
+    <sheet name="KeyCenterTypes" sheetId="9" r:id="rId7"/>
+    <sheet name="KCASetKeyDepth" sheetId="25" r:id="rId8"/>
+    <sheet name="KeyTypes" sheetId="21" r:id="rId9"/>
+    <sheet name="KeyTypesR" sheetId="26" r:id="rId10"/>
+    <sheet name="KeyTypesC" sheetId="27" r:id="rId11"/>
+    <sheet name="KeyBDDiameter" sheetId="28" r:id="rId12"/>
+    <sheet name="Key" sheetId="20" r:id="rId13"/>
+    <sheet name="OuterCutTypes" sheetId="10" r:id="rId14"/>
+    <sheet name="BottomOuterCut" sheetId="24" r:id="rId15"/>
+    <sheet name="TopOuterTurning" sheetId="16" r:id="rId16"/>
+    <sheet name="CenterDifference" sheetId="14" r:id="rId17"/>
+    <sheet name="BottomChanfer" sheetId="17" r:id="rId18"/>
+    <sheet name="tChanfer" sheetId="13" r:id="rId19"/>
+    <sheet name="palette" sheetId="4" r:id="rId20"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TotalLength!$A$1:$B$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -44,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="134">
   <si>
     <t>#haridashi</t>
     <phoneticPr fontId="1"/>
@@ -340,10 +352,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Key_ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>KeyPosition</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -364,14 +372,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>KeyR</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KeyC</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>BottomOuterTuning_ID</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -380,18 +380,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ASetKeyDepth+Tolerance</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ASetKeyDepth</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ASetKeyDepth-Tolerance</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ACKeyDiameter</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -573,6 +561,162 @@
   </si>
   <si>
     <t>BottomICAngle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Parts_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Parts</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OuterDiameter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Taper</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Key</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BottomOuterTurning</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TopOuterTurning</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BottomOuterChanfer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BottomInnerChanfer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TopOuterChanfer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TopInnerChanfer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dimple</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KeyTypes_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Types</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CurvertureCenter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FaceASetKeyDepth</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rectangle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OnlyBD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TotalLength_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OuterCutTypes_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OuterCutTypes</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>none</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>both</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>only bottom</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>only top</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KeyCenterTypes_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OuterCutCenter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KCASetKeyDepth_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KeyDepth</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KD+Tolerance</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KD-Tolerance</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KeyTypesR_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KeyTypesC_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KeyBDDiameter_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KeyBDDiameter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KeyBDDiameter+Tolerance</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KeyBDDiameter-Tolerance</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -612,12 +756,18 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -634,7 +784,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -651,6 +801,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1018,139 +1177,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A4C37CD-E90B-4A65-9F29-F7EEED152B60}">
-  <dimension ref="A1:AE2"/>
+  <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
+      <selection pane="bottomLeft" activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="6.75" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.25" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.75" customWidth="1"/>
-    <col min="9" max="9" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="11.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="11.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="6.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9" style="2"/>
+    <col min="5" max="6" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="11.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="11.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>35</v>
+        <v>62</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>80</v>
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE1" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="14.25" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <v>1916</v>
       </c>
@@ -1163,73 +1294,52 @@
       <c r="D2" s="2">
         <v>8922.7000000000007</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="2">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2">
+        <v>15</v>
+      </c>
+      <c r="I2" s="2">
+        <v>10</v>
+      </c>
+      <c r="J2" s="2">
+        <v>15</v>
+      </c>
+      <c r="L2" s="2">
         <v>1</v>
       </c>
-      <c r="F2" s="2">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2">
-        <v>1</v>
-      </c>
-      <c r="I2" s="2">
-        <v>1</v>
-      </c>
-      <c r="J2" s="2">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2">
-        <v>1</v>
-      </c>
       <c r="M2" s="2">
-        <v>4</v>
-      </c>
-      <c r="N2" s="2">
-        <v>15</v>
+        <v>45</v>
+      </c>
+      <c r="O2" s="2">
+        <v>45</v>
       </c>
       <c r="P2" s="2">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="Q2" s="2">
-        <v>15</v>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R2" s="2">
+        <v>90</v>
       </c>
       <c r="S2" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="T2" s="2">
-        <v>45</v>
+        <v>17</v>
+      </c>
+      <c r="U2" s="2">
+        <v>102</v>
       </c>
       <c r="V2" s="2">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="W2" s="2">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="X2" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="Y2" s="2">
-        <v>90</v>
-      </c>
-      <c r="Z2" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA2" s="2">
-        <v>17</v>
-      </c>
-      <c r="AB2" s="2">
-        <v>102</v>
-      </c>
-      <c r="AC2" s="2">
-        <v>85</v>
-      </c>
-      <c r="AD2" s="2">
-        <v>6</v>
-      </c>
-      <c r="AE2" s="2">
         <v>15</v>
       </c>
     </row>
@@ -1240,194 +1350,102 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A1C8065-A9AB-4E37-86D7-CFC7B4DB34B2}">
-  <sheetPr codeName="Sheet12"/>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{286F6E80-53AE-4BF0-86F2-58FC702C6A01}">
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="11.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="2">
+        <f>IF($B2="", "", ROW()-1)</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="str">
+        <f t="shared" ref="A3:A4" si="0">IF($B3="", "", ROW()-1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="str">
+        <f>IF($B5="", "", ROW()-1)</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62F2AB70-1803-46C5-93EF-6FFFAD3C643B}">
-  <sheetPr codeName="Sheet14"/>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="13.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>540</v>
-      </c>
-      <c r="C2" s="1">
-        <f>テーブル4[[#This Row],['#length]]/2</f>
-        <v>270</v>
-      </c>
-      <c r="D2" s="1">
-        <v>250</v>
-      </c>
-      <c r="E2" s="1">
-        <v>250</v>
-      </c>
-      <c r="F2" s="1">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>500</v>
-      </c>
-      <c r="C3" s="1">
-        <f>テーブル4[[#This Row],['#length]]/2</f>
-        <v>250</v>
-      </c>
-      <c r="D3" s="1">
-        <v>250</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>500</v>
-      </c>
-      <c r="C4" s="1">
-        <f>テーブル4[[#This Row],['#length]]/2</f>
-        <v>250</v>
-      </c>
-      <c r="D4" s="1">
-        <v>250</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4595901-42DA-4B3A-BE02-DEFA06DC535A}">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C63F399F-A6DF-401B-841C-28572D04A751}">
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="11.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
-        <v>34</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
+        <v>129</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1000</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="D2" s="2">
-        <v>-0.5</v>
-      </c>
-      <c r="E2" s="2">
-        <v>400</v>
-      </c>
-      <c r="F2" s="2">
-        <v>600</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="str">
+        <f>IF($B2="", "", ROW()-1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="str">
+        <f t="shared" ref="A3:A4" si="0">IF($B3="", "", ROW()-1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="str">
+        <f>IF($B5="", "", ROW()-1)</f>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -1436,69 +1454,59 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2EBA8CB-F726-41E1-9222-C0656F0B5520}">
-  <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:G2"/>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F3F32CE-081E-434A-9DB7-47C93087F992}">
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="14.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
-        <v>35</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
+        <v>130</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>62</v>
+        <v>131</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>63</v>
+        <v>132</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>185</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="D2" s="2">
-        <v>-0.25</v>
-      </c>
-      <c r="E2" s="2">
-        <v>183</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="G2" s="2">
-        <v>-0.25</v>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="str">
+        <f>IF($B2="", "", ROW()-1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="str">
+        <f t="shared" ref="A3:A4" si="0">IF($B3="", "", ROW()-1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="str">
+        <f>IF($B5="", "", ROW()-1)</f>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -1507,104 +1515,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A3745E2-AC36-4696-B734-6CAA5ECA99CA}">
-  <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:H2"/>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00F42E6B-52A3-44D7-AF8F-5801E19C733C}">
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="D2" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="H2" s="2">
-        <v>-0.3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29BEFD97-47F0-41AE-B416-1D1DA2EB4DEE}">
-  <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:R2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="6.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="16.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="16.25" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.875" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="20.5" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20" style="2" bestFit="1" customWidth="1"/>
@@ -1615,94 +1545,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="N1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
+        <v>1916</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2">
+        <f>IF($B2="", "", ROW()-1)</f>
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2">
         <v>12</v>
       </c>
-      <c r="C2" s="2">
+      <c r="H2" s="2">
         <v>0.1</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>8</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
-        <v>14</v>
       </c>
       <c r="I2" s="2">
         <v>0</v>
       </c>
       <c r="J2" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K2" s="2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L2" s="2">
         <v>0</v>
@@ -1732,12 +1663,77 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37E52707-19AE-4645-ABBC-50CE391561CA}">
   <sheetPr codeName="Sheet9"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="14.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A2" s="2">
+        <f>IF($B2="", "", ROW()-1)</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A3" s="2">
+        <f t="shared" ref="A3:A5" si="0">IF($B3="", "", ROW()-1)</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A4" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A5" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB5E60D9-6E62-4A6B-81B8-D7B074B93791}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1758,40 +1754,40 @@
   <sheetData>
     <row r="1" spans="1:12" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="14.25" x14ac:dyDescent="0.4">
@@ -1838,7 +1834,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD88AE6-8BDD-4C40-8483-79CAD5DA8786}">
   <dimension ref="A1:L2"/>
   <sheetViews>
@@ -1863,40 +1859,40 @@
   <sheetData>
     <row r="1" spans="1:12" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="14.25" x14ac:dyDescent="0.4">
@@ -1943,7 +1939,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245CCA7A-5E75-46FC-9D8F-0B353D7654C3}">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:D2"/>
@@ -1961,16 +1957,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
@@ -1993,11 +1989,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B7EA863-C722-4684-B0DD-2043FF2B2B4F}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
@@ -2012,13 +2008,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
@@ -2030,6 +2026,836 @@
       </c>
       <c r="C2" s="2">
         <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A1C8065-A9AB-4E37-86D7-CFC7B4DB34B2}">
+  <sheetPr codeName="Sheet12"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAD50F9D-4D81-4ECF-AFE3-4376B047D3E2}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="2">
+        <f>IF($B2="", "", ROW()-1)</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="2">
+        <f t="shared" ref="A3:A13" si="0">IF($B3="", "", ROW()-1)</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62F2AB70-1803-46C5-93EF-6FFFAD3C643B}">
+  <sheetPr codeName="Sheet14"/>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="13.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>540</v>
+      </c>
+      <c r="C2" s="1">
+        <f>テーブル4[[#This Row],['#length]]/2</f>
+        <v>270</v>
+      </c>
+      <c r="D2" s="1">
+        <v>250</v>
+      </c>
+      <c r="E2" s="1">
+        <v>250</v>
+      </c>
+      <c r="F2" s="1">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>500</v>
+      </c>
+      <c r="C3" s="1">
+        <f>テーブル4[[#This Row],['#length]]/2</f>
+        <v>250</v>
+      </c>
+      <c r="D3" s="1">
+        <v>250</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>500</v>
+      </c>
+      <c r="C4" s="1">
+        <f>テーブル4[[#This Row],['#length]]/2</f>
+        <v>250</v>
+      </c>
+      <c r="D4" s="1">
+        <v>250</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{257086C3-9D86-4D6F-B1DB-7437A6D9D55C}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="12.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="5">
+        <f>IF($B2="", "", ROW()-1)</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1000</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D2" s="5">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="5" t="str">
+        <f>IF($B3="", "", ROW()-1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="5" t="str">
+        <f>IF($B4="", "", ROW()-1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="5" t="str">
+        <f>IF($B5="", "", ROW()-1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="str">
+        <f>IF($B6="", "", ROW()-1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="str">
+        <f>IF($B7="", "", ROW()-1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="str">
+        <f>IF($B8="", "", ROW()-1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="str">
+        <f>IF($B9="", "", ROW()-1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="str">
+        <f>IF($B10="", "", ROW()-1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="str">
+        <f>IF($B11="", "", ROW()-1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="str">
+        <f>IF($B12="", "", ROW()-1)</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4595901-42DA-4B3A-BE02-DEFA06DC535A}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="6.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" s="3">
+        <v>1916</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>400</v>
+      </c>
+      <c r="G2" s="2">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="D12" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2EBA8CB-F726-41E1-9222-C0656F0B5520}">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="6.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" s="3">
+        <v>1916</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>185</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="F2" s="2">
+        <v>-0.25</v>
+      </c>
+      <c r="G2" s="2">
+        <v>183</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="I2" s="2">
+        <v>-0.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A3745E2-AC36-4696-B734-6CAA5ECA99CA}">
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="6.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A2" s="3">
+        <v>1916</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="F2" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="J2" s="2">
+        <v>-0.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29BEFD97-47F0-41AE-B416-1D1DA2EB4DEE}">
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="2">
+        <f>IF($B2="", "", ROW()-1)</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="2">
+        <f>IF($B3="", "", ROW()-1)</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="2">
+        <f>IF($B4="", "", ROW()-1)</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5587DC11-2936-4035-8C59-98CC73DDFF29}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="15.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="str">
+        <f>IF($B2="", "", ROW()-1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="str">
+        <f>IF($B3="", "", ROW()-1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="str">
+        <f>IF($B4="", "", ROW()-1)</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C18B6E29-F41B-4D54-8786-4D64657F305B}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="10.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="2">
+        <f>IF($B2="", "", ROW()-1)</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="2">
+        <f t="shared" ref="A3:A4" si="0">IF($B3="", "", ROW()-1)</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" s="2">
+        <f>IF($B5="", "", ROW()-1)</f>
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/Mould_Database/Mould_DB.xlsx
+++ b/Mould_Database/Mould_DB.xlsx
@@ -8,34 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user01\Documents\GitHub\mould\Mould_Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B88197-7600-4FCD-B93C-C8DD4D35000C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E4697D-0BB9-4921-B03B-8399CE528D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="37710" windowHeight="21840" tabRatio="701" activeTab="11" xr2:uid="{331D296A-DE97-4357-9338-22F5C8F49D08}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="37710" windowHeight="21840" tabRatio="701" activeTab="8" xr2:uid="{331D296A-DE97-4357-9338-22F5C8F49D08}"/>
   </bookViews>
   <sheets>
-    <sheet name="Drawings" sheetId="15" r:id="rId1"/>
-    <sheet name="Parts" sheetId="19" r:id="rId2"/>
-    <sheet name="TotalLength" sheetId="22" r:id="rId3"/>
-    <sheet name="Allocation" sheetId="6" r:id="rId4"/>
-    <sheet name="OuterDiameter" sheetId="7" r:id="rId5"/>
-    <sheet name="Taper" sheetId="8" r:id="rId6"/>
-    <sheet name="KeyCenterTypes" sheetId="9" r:id="rId7"/>
-    <sheet name="KCASetKeyDepth" sheetId="25" r:id="rId8"/>
-    <sheet name="KeyTypes" sheetId="21" r:id="rId9"/>
-    <sheet name="KeyTypesR" sheetId="26" r:id="rId10"/>
-    <sheet name="KeyTypesC" sheetId="27" r:id="rId11"/>
-    <sheet name="KeyBDDiameter" sheetId="28" r:id="rId12"/>
-    <sheet name="Key" sheetId="20" r:id="rId13"/>
-    <sheet name="OuterCutTypes" sheetId="10" r:id="rId14"/>
-    <sheet name="BottomOuterCut" sheetId="24" r:id="rId15"/>
-    <sheet name="TopOuterTurning" sheetId="16" r:id="rId16"/>
-    <sheet name="CenterDifference" sheetId="14" r:id="rId17"/>
-    <sheet name="BottomChanfer" sheetId="17" r:id="rId18"/>
-    <sheet name="tChanfer" sheetId="13" r:id="rId19"/>
-    <sheet name="palette" sheetId="4" r:id="rId20"/>
+    <sheet name="Parts" sheetId="19" r:id="rId1"/>
+    <sheet name="Drawings" sheetId="15" r:id="rId2"/>
+    <sheet name="Allocation" sheetId="6" r:id="rId3"/>
+    <sheet name="AllocationDim" sheetId="22" r:id="rId4"/>
+    <sheet name="OuterDiameter" sheetId="29" r:id="rId5"/>
+    <sheet name="OuterDiameterDim" sheetId="7" r:id="rId6"/>
+    <sheet name="innerDiameter" sheetId="30" r:id="rId7"/>
+    <sheet name="InnerDiameterDim" sheetId="8" r:id="rId8"/>
+    <sheet name="Key" sheetId="20" r:id="rId9"/>
+    <sheet name="KeyTypes" sheetId="21" r:id="rId10"/>
+    <sheet name="KeyCenterTypes" sheetId="9" r:id="rId11"/>
+    <sheet name="KCASetKeyDepth" sheetId="25" r:id="rId12"/>
+    <sheet name="KeyTypesR" sheetId="26" r:id="rId13"/>
+    <sheet name="KeyTypesC" sheetId="27" r:id="rId14"/>
+    <sheet name="KeyBDDiameter" sheetId="28" r:id="rId15"/>
+    <sheet name="OuterCutTypes" sheetId="10" r:id="rId16"/>
+    <sheet name="BottomOuterCut" sheetId="24" r:id="rId17"/>
+    <sheet name="TopOuterTurning" sheetId="16" r:id="rId18"/>
+    <sheet name="CenterDifference" sheetId="14" r:id="rId19"/>
+    <sheet name="BottomChanfer" sheetId="17" r:id="rId20"/>
+    <sheet name="tChanfer" sheetId="13" r:id="rId21"/>
+    <sheet name="palette" sheetId="4" r:id="rId22"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TotalLength!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">AllocationDim!$A$1:$B$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -56,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="138">
   <si>
     <t>#haridashi</t>
     <phoneticPr fontId="1"/>
@@ -644,10 +646,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>TotalLength_ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>OuterCutTypes_ID</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -717,6 +715,24 @@
   </si>
   <si>
     <t>KeyBDDiameter-Tolerance</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AllocationDim_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OuterDiameterDim_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>InnerDiameter_ID</t>
+  </si>
+  <si>
+    <t>InnerDiameterDim_ID</t>
+  </si>
+  <si>
+    <t>Key_ID</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -756,7 +772,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -766,6 +782,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -784,7 +812,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -810,6 +838,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1176,12 +1222,815 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAD50F9D-4D81-4ECF-AFE3-4376B047D3E2}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="2">
+        <f>IF($B2="", "", ROW()-1)</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="2">
+        <f t="shared" ref="A3:A13" si="0">IF($B3="", "", ROW()-1)</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C18B6E29-F41B-4D54-8786-4D64657F305B}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="10.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="2">
+        <f>IF($B2="", "", ROW()-1)</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="2">
+        <f t="shared" ref="A3:A4" si="0">IF($B3="", "", ROW()-1)</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" s="2">
+        <f>IF($B5="", "", ROW()-1)</f>
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29BEFD97-47F0-41AE-B416-1D1DA2EB4DEE}">
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="2">
+        <f>IF($B2="", "", ROW()-1)</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="2">
+        <f>IF($B3="", "", ROW()-1)</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="2">
+        <f>IF($B4="", "", ROW()-1)</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5587DC11-2936-4035-8C59-98CC73DDFF29}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="15.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="str">
+        <f>IF($B2="", "", ROW()-1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="str">
+        <f>IF($B3="", "", ROW()-1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="str">
+        <f>IF($B4="", "", ROW()-1)</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{286F6E80-53AE-4BF0-86F2-58FC702C6A01}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="11.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="2">
+        <f>IF($B2="", "", ROW()-1)</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="str">
+        <f t="shared" ref="A3:A4" si="0">IF($B3="", "", ROW()-1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="str">
+        <f>IF($B5="", "", ROW()-1)</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C63F399F-A6DF-401B-841C-28572D04A751}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="11.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="str">
+        <f>IF($B2="", "", ROW()-1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="str">
+        <f t="shared" ref="A3:A4" si="0">IF($B3="", "", ROW()-1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="str">
+        <f>IF($B5="", "", ROW()-1)</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F3F32CE-081E-434A-9DB7-47C93087F992}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="14.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="str">
+        <f>IF($B2="", "", ROW()-1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="str">
+        <f t="shared" ref="A3:A4" si="0">IF($B3="", "", ROW()-1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="str">
+        <f>IF($B5="", "", ROW()-1)</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37E52707-19AE-4645-ABBC-50CE391561CA}">
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="14.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A2" s="2">
+        <f>IF($B2="", "", ROW()-1)</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A3" s="2">
+        <f t="shared" ref="A3:A5" si="0">IF($B3="", "", ROW()-1)</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A4" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A5" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB5E60D9-6E62-4A6B-81B8-D7B074B93791}">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>13.82</v>
+      </c>
+      <c r="C2" s="2">
+        <v>180.1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>180.1</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="I2" s="2">
+        <v>25</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD88AE6-8BDD-4C40-8483-79CAD5DA8786}">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>180.1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>180.1</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="I2" s="2">
+        <v>32</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245CCA7A-5E75-46FC-9D8F-0B353D7654C3}">
+  <sheetPr codeName="Sheet13"/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="15.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>-0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A4C37CD-E90B-4A65-9F29-F7EEED152B60}">
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E58" sqref="E58"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>
@@ -1349,647 +2198,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{286F6E80-53AE-4BF0-86F2-58FC702C6A01}">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="11.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" s="2">
-        <f>IF($B2="", "", ROW()-1)</f>
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="str">
-        <f t="shared" ref="A3:A4" si="0">IF($B3="", "", ROW()-1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="str">
-        <f>IF($B5="", "", ROW()-1)</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C63F399F-A6DF-401B-841C-28572D04A751}">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="11.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="str">
-        <f>IF($B2="", "", ROW()-1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="str">
-        <f t="shared" ref="A3:A4" si="0">IF($B3="", "", ROW()-1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="str">
-        <f>IF($B5="", "", ROW()-1)</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F3F32CE-081E-434A-9DB7-47C93087F992}">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="14.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="str">
-        <f>IF($B2="", "", ROW()-1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="str">
-        <f t="shared" ref="A3:A4" si="0">IF($B3="", "", ROW()-1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="str">
-        <f>IF($B5="", "", ROW()-1)</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00F42E6B-52A3-44D7-AF8F-5801E19C733C}">
-  <dimension ref="A1:R2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="6.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="16.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A1" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A2" s="3">
-        <v>1916</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2">
-        <f>IF($B2="", "", ROW()-1)</f>
-        <v>1</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2">
-        <v>12</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2">
-        <v>8</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="L2" s="2">
-        <v>0</v>
-      </c>
-      <c r="M2" s="2">
-        <v>173</v>
-      </c>
-      <c r="N2" s="2">
-        <v>0</v>
-      </c>
-      <c r="O2" s="2">
-        <v>-0.2</v>
-      </c>
-      <c r="P2" s="2">
-        <v>173</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>0</v>
-      </c>
-      <c r="R2" s="2">
-        <v>-0.2</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37E52707-19AE-4645-ABBC-50CE391561CA}">
-  <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="14.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A2" s="2">
-        <f>IF($B2="", "", ROW()-1)</f>
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A3" s="2">
-        <f t="shared" ref="A3:A5" si="0">IF($B3="", "", ROW()-1)</f>
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A4" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A5" s="2">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB5E60D9-6E62-4A6B-81B8-D7B074B93791}">
-  <dimension ref="A1:L2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>13.82</v>
-      </c>
-      <c r="C2" s="2">
-        <v>180.1</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="F2" s="2">
-        <v>180.1</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="I2" s="2">
-        <v>25</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0</v>
-      </c>
-      <c r="L2" s="2">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD88AE6-8BDD-4C40-8483-79CAD5DA8786}">
-  <dimension ref="A1:L2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>180.1</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="F2" s="2">
-        <v>180.1</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="I2" s="2">
-        <v>32</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0</v>
-      </c>
-      <c r="L2" s="2">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245CCA7A-5E75-46FC-9D8F-0B353D7654C3}">
-  <sheetPr codeName="Sheet13"/>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="15.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>11</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="D2" s="2">
-        <v>-0.1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B7EA863-C722-4684-B0DD-2043FF2B2B4F}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -2034,7 +2243,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A1C8065-A9AB-4E37-86D7-CFC7B4DB34B2}">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1"/>
@@ -2048,145 +2257,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAD50F9D-4D81-4ECF-AFE3-4376B047D3E2}">
-  <dimension ref="A1:B13"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" s="2">
-        <f>IF($B2="", "", ROW()-1)</f>
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" s="2">
-        <f t="shared" ref="A3:A13" si="0">IF($B3="", "", ROW()-1)</f>
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" s="2">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A6" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A7" s="2">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A8" s="2">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A9" s="2">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A10" s="2">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A11" s="2">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A12" s="2">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A13" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62F2AB70-1803-46C5-93EF-6FFFAD3C643B}">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:H4"/>
@@ -2306,108 +2377,113 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{257086C3-9D86-4D6F-B1DB-7437A6D9D55C}">
-  <dimension ref="A1:D12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4595901-42DA-4B3A-BE02-DEFA06DC535A}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="10.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>29</v>
+        <v>34</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="5">
-        <f>IF($B2="", "", ROW()-1)</f>
+        <f t="shared" ref="A2:A12" si="0">IF($D2="", "", ROW()-1)</f>
         <v>1</v>
       </c>
-      <c r="B2" s="5">
-        <v>1000</v>
-      </c>
-      <c r="C2" s="5">
-        <v>0.5</v>
+      <c r="B2" s="3">
+        <v>1916</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
       </c>
       <c r="D2" s="5">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="str">
-        <f>IF($B3="", "", ROW()-1)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="str">
-        <f>IF($B4="", "", ROW()-1)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="str">
-        <f>IF($B5="", "", ROW()-1)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="str">
-        <f>IF($B6="", "", ROW()-1)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="str">
-        <f>IF($B7="", "", ROW()-1)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="str">
-        <f>IF($B8="", "", ROW()-1)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="str">
-        <f>IF($B9="", "", ROW()-1)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="str">
-        <f>IF($B10="", "", ROW()-1)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="str">
-        <f>IF($B11="", "", ROW()-1)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="str">
-        <f>IF($B12="", "", ROW()-1)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2418,91 +2494,124 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4595901-42DA-4B3A-BE02-DEFA06DC535A}">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:G12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{257086C3-9D86-4D6F-B1DB-7437A6D9D55C}">
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="13.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>34</v>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="3">
-        <v>1916</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2" s="5">
+        <f t="shared" ref="A2:A12" si="0">IF($B2="", "", ROW()-1)</f>
         <v>1</v>
       </c>
+      <c r="B2" s="5">
+        <v>1000</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0.5</v>
+      </c>
       <c r="D2" s="5">
-        <v>1</v>
-      </c>
-      <c r="E2" s="5">
-        <v>1</v>
+        <v>-0.5</v>
+      </c>
+      <c r="E2" s="2">
+        <v>400</v>
       </c>
       <c r="F2" s="2">
-        <v>400</v>
-      </c>
-      <c r="G2" s="2">
         <v>600</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="D12" s="2"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2511,84 +2620,113 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2EBA8CB-F726-41E1-9222-C0656F0B5520}">
-  <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6ABFA86-A552-41BE-A896-AB891B7DD10E}">
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.875" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="2"/>
+    <col min="9" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="3">
+      <c r="D1" s="10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="5">
+        <f t="shared" ref="A2:A12" si="0">IF($D2="", "", ROW()-1)</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
         <v>1916</v>
       </c>
-      <c r="B2" s="2">
+      <c r="C2" s="2">
         <v>0</v>
       </c>
-      <c r="C2" s="2">
+      <c r="D2" s="5">
         <v>1</v>
       </c>
-      <c r="D2" s="2">
-        <v>185</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="F2" s="2">
-        <v>-0.25</v>
-      </c>
-      <c r="G2" s="2">
-        <v>183</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="I2" s="2">
-        <v>-0.25</v>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -2598,91 +2736,68 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A3745E2-AC36-4696-B734-6CAA5ECA99CA}">
-  <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2EBA8CB-F726-41E1-9222-C0656F0B5520}">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="17.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A1" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>36</v>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2" s="3">
-        <v>1916</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" s="2">
+        <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>0.25</v>
+      </c>
+      <c r="D2" s="2">
+        <v>-0.25</v>
       </c>
       <c r="E2" s="2">
-        <v>4.5</v>
+        <v>183</v>
       </c>
       <c r="F2" s="2">
-        <v>3.5</v>
+        <v>0.25</v>
       </c>
       <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="J2" s="2">
-        <v>-0.3</v>
+        <v>-0.25</v>
       </c>
     </row>
   </sheetData>
@@ -2692,52 +2807,111 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29BEFD97-47F0-41AE-B416-1D1DA2EB4DEE}">
-  <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EBD6625-1D3E-4F99-996B-AE64A4EE9390}">
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="14" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" s="2">
-        <f>IF($B2="", "", ROW()-1)</f>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="5">
+        <f t="shared" ref="A2:A12" si="0">IF($D2="", "", ROW()-1)</f>
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" s="2">
-        <f>IF($B3="", "", ROW()-1)</f>
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" s="2">
-        <f>IF($B4="", "", ROW()-1)</f>
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>110</v>
+      <c r="B2" s="3">
+        <v>1916</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -2747,52 +2921,75 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5587DC11-2936-4035-8C59-98CC73DDFF29}">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A3745E2-AC36-4696-B734-6CAA5ECA99CA}">
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
-        <v>124</v>
+        <v>36</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>125</v>
+        <v>37</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="str">
-        <f>IF($B2="", "", ROW()-1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="str">
-        <f>IF($B3="", "", ROW()-1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="str">
-        <f>IF($B4="", "", ROW()-1)</f>
-        <v/>
+        <v>87</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="H2" s="2">
+        <v>-0.3</v>
       </c>
     </row>
   </sheetData>
@@ -2802,60 +2999,145 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C18B6E29-F41B-4D54-8786-4D64657F305B}">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00F42E6B-52A3-44D7-AF8F-5801E19C733C}">
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="6.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="16.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="E1" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
-        <f>IF($B2="", "", ROW()-1)</f>
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" s="2">
-        <f t="shared" ref="A3:A4" si="0">IF($B3="", "", ROW()-1)</f>
+      <c r="B2" s="3">
+        <v>1916</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" s="2">
-        <f>IF($B5="", "", ROW()-1)</f>
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>114</v>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2">
+        <v>12</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>8</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
+        <v>173</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2">
+        <v>-0.2</v>
+      </c>
+      <c r="P2" s="2">
+        <v>173</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0</v>
+      </c>
+      <c r="R2" s="2">
+        <v>-0.2</v>
       </c>
     </row>
   </sheetData>
